--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -18,8 +18,1237 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="407">
+  <si>
+    <t>Загальна кількість комплектів</t>
+  </si>
+  <si>
+    <t>№ Каси</t>
+  </si>
+  <si>
+    <t>ТТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ Модема </t>
+  </si>
+  <si>
+    <t>001 ДТ м. Біла Церква, вул. Вокзальна, 8</t>
+  </si>
+  <si>
+    <t>(38051)9940954</t>
+  </si>
+  <si>
+    <t>002 ДТ г. Фастов, ул. Галафеева, 14</t>
+  </si>
+  <si>
+    <t>(38051)9942565</t>
+  </si>
+  <si>
+    <t>004 ДТ Київська обл., Таращанський р-н, с. Ківшовата, вул. Леніна, 65-А</t>
+  </si>
+  <si>
+    <t>(38068)4224133</t>
+  </si>
+  <si>
+    <t>006 ДТ м. Біла Церква, вул. Привокзальна, 86</t>
+  </si>
+  <si>
+    <t>(38051)9940942</t>
+  </si>
+  <si>
+    <t>007 ДТ г. Фастов, ул. Галафеева, 24А, пав. 74</t>
+  </si>
+  <si>
+    <t>(38051)9943428</t>
+  </si>
+  <si>
+    <t>009 ДТ м. Київ, вул. Попудренка, 7, м'ясний пав. рол. 27-28</t>
+  </si>
+  <si>
+    <t>(38051)9943429</t>
+  </si>
+  <si>
+    <t>014 ДТ г. Обухов, ул. Киевская, 170 Б1</t>
+  </si>
+  <si>
+    <t>(38051)9940627</t>
+  </si>
+  <si>
+    <t>015 ДТ г. Обухов, ул. Каштановая 2, рынок</t>
+  </si>
+  <si>
+    <t>(38051)9941019</t>
+  </si>
+  <si>
+    <t>(38051)9942570</t>
+  </si>
+  <si>
+    <t>016 ДТ г. Обухов, Петровский, 25</t>
+  </si>
+  <si>
+    <t>(38051)9941269</t>
+  </si>
+  <si>
+    <t>018 ДТ с. Катюжанка, ул. Киевская, 51</t>
+  </si>
+  <si>
+    <t>(38051)9942569</t>
+  </si>
+  <si>
+    <t>(38051)9941020</t>
+  </si>
+  <si>
+    <t>019 ДТ г. Васильков, ул. Либкнехта, 5</t>
+  </si>
+  <si>
+    <t>020 ДТ г. Васильков, ул. Грушевского, 30/1</t>
+  </si>
+  <si>
+    <t>(38051)9942591</t>
+  </si>
+  <si>
+    <t>021 ДТ г. Васильков, ул. Западенская, 11, рынок, ВМ</t>
+  </si>
+  <si>
+    <t>(38051)9942564</t>
+  </si>
+  <si>
+    <t>022 ДТ с. Тарасівка, вул. Залізнична, 8</t>
+  </si>
+  <si>
+    <t>(38051)9944942</t>
+  </si>
+  <si>
+    <t>023 ДТ м. Київ, вул. Драйзера, 8, (пав. 91)</t>
+  </si>
+  <si>
+    <t>(38051)9946063</t>
+  </si>
+  <si>
+    <t>024 ДТ (Київ, Кибальчича, 11А, пав. 28)</t>
+  </si>
+  <si>
+    <t>(38051)9946245</t>
+  </si>
+  <si>
+    <t>025 ДТ с. Буча, вул. Жовтнева, 26, Продтовари</t>
+  </si>
+  <si>
+    <t>cgh</t>
+  </si>
+  <si>
+    <t>026 ДТ Київ, Бальзака, 94 (пав. 22/26)</t>
+  </si>
+  <si>
+    <t>Corporation</t>
+  </si>
+  <si>
+    <t>027 ДТ смт. Борова, вул. Миру, 29</t>
+  </si>
+  <si>
+    <t>(38051)9946243</t>
+  </si>
+  <si>
+    <t>028 ДТ м. Київ, вул. Кібальчича, 11А (пав.№24)</t>
+  </si>
+  <si>
+    <t>(38051)9944775</t>
+  </si>
+  <si>
+    <t>029 ДТ м. Ірпінь, вул. Центральна, буд. 2А, зупинка</t>
+  </si>
+  <si>
+    <t>(38‎020)4432508</t>
+  </si>
+  <si>
+    <t>030 ДТ м. Ірпінь, вул. Центральна, 2А (Базар)</t>
+  </si>
+  <si>
+    <t>031 ДТ г. Васильков, ул. Владимирская, 25</t>
+  </si>
+  <si>
+    <t>(38051)9942588</t>
+  </si>
+  <si>
+    <t>033 ДТ пгт. Иванков, ул. Киевская, 24, рынок</t>
+  </si>
+  <si>
+    <t>(38051)9942589</t>
+  </si>
+  <si>
+    <t>(38051)9943686</t>
+  </si>
+  <si>
+    <t>034 ДТ м. Тараща, вул. Богдана Хмельницького, 48/1</t>
+  </si>
+  <si>
+    <t>(38051)9940988</t>
+  </si>
+  <si>
+    <t>036 ДТ смт. Калинівка, вул. Леніна, 57</t>
+  </si>
+  <si>
+    <t>(38051)9946055</t>
+  </si>
+  <si>
+    <t>037 ДТ м. Богуслав, вул. Я.Мудрого, 6</t>
+  </si>
+  <si>
+    <t>(38051)9946247</t>
+  </si>
+  <si>
+    <t>039 ДТ пгт. Дымер, ул. Ленина, 13А</t>
+  </si>
+  <si>
+    <t>(38051)9942571</t>
+  </si>
+  <si>
+    <t>040 ДТ с. Гореничі, вул. Леніна,100</t>
+  </si>
+  <si>
+    <t>(380‎51)9972063</t>
+  </si>
+  <si>
+    <t>041 ДТ г. Васильков, ул. Владимирская, 143</t>
+  </si>
+  <si>
+    <t>(38051)9942587</t>
+  </si>
+  <si>
+    <t>042 ДТ смт. Гостомель, вул. Леніна 86, ринок, м.№ 99</t>
+  </si>
+  <si>
+    <t>044 ДТ с. Погребы, ул. Кирова, 88</t>
+  </si>
+  <si>
+    <t>(38020)4471288</t>
+  </si>
+  <si>
+    <t>(38051)9943434</t>
+  </si>
+  <si>
+    <t>045 ДТ г. Боярка, ул. Молодежная, 63</t>
+  </si>
+  <si>
+    <t>(38051)9940928</t>
+  </si>
+  <si>
+    <t>046 №ТТ Київська обл,с. Літки,вул. Шевченка,буд.№ 72</t>
+  </si>
+  <si>
+    <t>(38068)7916179</t>
+  </si>
+  <si>
+    <t>047 ДТ смт. Бородянка, вул. Паркова, 2А</t>
+  </si>
+  <si>
+    <t>(38020)4432511</t>
+  </si>
+  <si>
+    <t>048 ДТ смт. Бородянка, вул. Леніна, 347</t>
+  </si>
+  <si>
+    <t>(38051)9940945</t>
+  </si>
+  <si>
+    <t>049 ДТ птт. Иванков, ул. Леси Украинки, 9А</t>
+  </si>
+  <si>
+    <t>(38051)9942681</t>
+  </si>
+  <si>
+    <t>(38051)9942585</t>
+  </si>
+  <si>
+    <t>051 ДТ м. Буча, вул. Тарасівська, 12</t>
+  </si>
+  <si>
+    <t>(38051)9940941</t>
+  </si>
+  <si>
+    <t>052 ДТ смт. Бородянка, с. Дружня, вул. Привокзальна, 1</t>
+  </si>
+  <si>
+    <t>053 ДТ м. Київ, вул. Ватутіна, 10А</t>
+  </si>
+  <si>
+    <t>054 ДТ смт. Велика Димерка, вул. Леніна, 2, пав. 3Д</t>
+  </si>
+  <si>
+    <t>(38051)9948387</t>
+  </si>
+  <si>
+    <t>055 ДТ смт. Клавдієво-Тарасове, пл. Привокзальна, 21</t>
+  </si>
+  <si>
+    <t>(38051)9943690</t>
+  </si>
+  <si>
+    <t>056 ДТ г. Васильков, ул.  Декабристов, 6</t>
+  </si>
+  <si>
+    <t>(38051)9942563</t>
+  </si>
+  <si>
+    <t>057 ДТ с. Плесецьке, вул. Леніна, 74</t>
+  </si>
+  <si>
+    <t>(38096)2906519</t>
+  </si>
+  <si>
+    <t>058 ДТ м. Березань, вул. Леніна, 143</t>
+  </si>
+  <si>
+    <t>(38051)9943693</t>
+  </si>
+  <si>
+    <t>(38051)9943697</t>
+  </si>
+  <si>
+    <t>059 ДТ м. Яготин, вул. Привокзальна, 14</t>
+  </si>
+  <si>
+    <t>(38051)9943691</t>
+  </si>
+  <si>
+    <t>060 ДТ м. Березань, вул. Привокзальна, 10</t>
+  </si>
+  <si>
+    <t>(38051)9943689</t>
+  </si>
+  <si>
+    <t>(38051)9943705</t>
+  </si>
+  <si>
+    <t>061 ДТ смт. Баришівка, вул. Жовтнева, 22, Молодіжний ринок</t>
+  </si>
+  <si>
+    <t>(38051)9943698</t>
+  </si>
+  <si>
+    <t>064 ДТ Бориспільський р-н, с. Вороньків, вул. Центральна, 2К</t>
+  </si>
+  <si>
+    <t>(38051)9943694</t>
+  </si>
+  <si>
+    <t>066 ДТ м. Бердичів, вул. Чудновська, 16</t>
+  </si>
+  <si>
+    <t>(38051)9945340</t>
+  </si>
+  <si>
+    <t>067 ДТ м. Київ, вул. Петра Запорожця, 28</t>
+  </si>
+  <si>
+    <t>069 ДТ г. Обухов, ул. Каштановая 2,  рынок</t>
+  </si>
+  <si>
+    <t>(38051)9941274</t>
+  </si>
+  <si>
+    <t>070 ДТ с. Зазимье, ул. Лесовая, 53</t>
+  </si>
+  <si>
+    <t>(38020)4475312</t>
+  </si>
+  <si>
+    <t>074 ДТ смт. Немішаєво, вул. Пушкіна, 2А</t>
+  </si>
+  <si>
+    <t>(38051)9940894</t>
+  </si>
+  <si>
+    <t>075 ДТ м. Київ, булв. Перова, 20</t>
+  </si>
+  <si>
+    <t>082 ДТ м. Малин, вул. Базарна площа, 2</t>
+  </si>
+  <si>
+    <t>(38051)9945561</t>
+  </si>
+  <si>
+    <t>084 ДТ м. Київ, вул. Сормовська, 15</t>
+  </si>
+  <si>
+    <t>(38051)9947481</t>
+  </si>
+  <si>
+    <t>085 ДТ м. Київ, вул. Сормовська, 15, пав. 2, р-к Дарницький</t>
+  </si>
+  <si>
+    <t>(38051)9943688</t>
+  </si>
+  <si>
+    <t>086 ДТ м. Київ, вул. Бориспільська, 1, ролет29,30</t>
+  </si>
+  <si>
+    <t>(38051)9947482</t>
+  </si>
+  <si>
+    <t>087 ДТ м. Київ, р-к Дарницький, ролет №19,20, вул. Бориспільська, буд. № 1</t>
+  </si>
+  <si>
+    <t>(38051)9948395</t>
+  </si>
+  <si>
+    <t>090  ДТ м. Ніжин,вул. Об"їздна, буд. 118а</t>
+  </si>
+  <si>
+    <t>(38051)9944941</t>
+  </si>
+  <si>
+    <t>091 ДТ м. Ніжин, вул. Московська, 21</t>
+  </si>
+  <si>
+    <t>‎(38051)9948883</t>
+  </si>
+  <si>
+    <t>092 ДТ м. Ніжин, вул. Шевченка, 158А</t>
+  </si>
+  <si>
+    <t>(38051)9945029</t>
+  </si>
+  <si>
+    <t>094 ДТ м. Ніжин, вул. Московська,1, р-к Центральний</t>
+  </si>
+  <si>
+    <t>(38051)9946249</t>
+  </si>
+  <si>
+    <t>(38051)9946246</t>
+  </si>
+  <si>
+    <t>095 ДТ Ніжин, с. Вертіївка, вул. Леніна,143А</t>
+  </si>
+  <si>
+    <t>‎(38098)8135568</t>
+  </si>
+  <si>
+    <t>099 ДТ м. Київ, пр-т Лісовий, 25, р-к "Сказка" Купава</t>
+  </si>
+  <si>
+    <t>‎(38051)9948884</t>
+  </si>
+  <si>
+    <t>100 ДТ м. Київ, вул. Ш. Алейхема, 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	(38051)9944940</t>
+  </si>
+  <si>
+    <t>101 ДТ г. Боярка, ул. Молодежная, 61</t>
+  </si>
+  <si>
+    <t>(38051)9940946</t>
+  </si>
+  <si>
+    <t>102 ДТ м. Київ, б-р Чоколівський, 5/7, ринок "Севастопольский"</t>
+  </si>
+  <si>
+    <t>(38051)9943427</t>
+  </si>
+  <si>
+    <t>105 ДТ м. Київ, вул. Ревуцького, 42</t>
+  </si>
+  <si>
+    <t>(38051)9947478</t>
+  </si>
+  <si>
+    <t>106 ДТ Миронівка, 40-річчя Перемоги, 2А</t>
+  </si>
+  <si>
+    <t>(38051)9944937</t>
+  </si>
+  <si>
+    <t>107 ДТ Бориспільський р-н, с. Гора, вул. Мічуріна, 75</t>
+  </si>
+  <si>
+    <t>(38051)9943696</t>
+  </si>
+  <si>
+    <t>110 ДТ смт. Баришівка, вул. Пархоменка, 32</t>
+  </si>
+  <si>
+    <t>(38051)9943703</t>
+  </si>
+  <si>
+    <t>111 ДТ м. Київ, вул. Миропільська, 11</t>
+  </si>
+  <si>
+    <t>(380995501659;35</t>
+  </si>
+  <si>
+    <t>113 ДТ м. Київ, вул. Драгоманова, 10/21</t>
+  </si>
+  <si>
+    <t>(38051)9947480</t>
+  </si>
+  <si>
+    <t>115 ДТ г. Боярка, ул. Садовая, 3</t>
+  </si>
+  <si>
+    <t>(38020)4432509</t>
+  </si>
+  <si>
+    <t>117 ДТ Носівський р-н, с.Червоні партизани, вул. Леніна, 82</t>
+  </si>
+  <si>
+    <t>(38051)9944932</t>
+  </si>
+  <si>
+    <t>118 ДТ м. Київ, вул. Драйзера, 8, пав. 84</t>
+  </si>
+  <si>
+    <t>122 ДТ м. Бровари, вул. Красовського, 19</t>
+  </si>
+  <si>
+    <t>(38051)9946237</t>
+  </si>
+  <si>
+    <t>123 ДТ м.Київ, пр-т.Лісовий, 25</t>
+  </si>
+  <si>
+    <t>(38051)9940971</t>
+  </si>
+  <si>
+    <t>125 ДТ м. Носівка, вул. Вокзальная, 297</t>
+  </si>
+  <si>
+    <t>(38051)9944961</t>
+  </si>
+  <si>
+    <t>126 ДТ м.Київ, пр-т Маяковського, 60/10, АТБ</t>
+  </si>
+  <si>
+    <t>(38096)8561300</t>
+  </si>
+  <si>
+    <t>129 ДТ м. Тетерів, с. Пісківка, вул. Філіпова, 2</t>
+  </si>
+  <si>
+    <t>(38‎068)7916193</t>
+  </si>
+  <si>
+    <t>132 ДТ м. Носівка, вул. Суворова, 2Г</t>
+  </si>
+  <si>
+    <t>(38051)9944938</t>
+  </si>
+  <si>
+    <t>134 ДТ Макарівський р-н, м. Бишів, вул.Київська, № 50Б</t>
+  </si>
+  <si>
+    <t>(38068)6088473</t>
+  </si>
+  <si>
+    <t>135 ДТ Житомирська обл., смт. Брусилів, вул. Першого Травня, 47</t>
+  </si>
+  <si>
+    <t>(38051)9945341</t>
+  </si>
+  <si>
+    <t>(38051)9945563</t>
+  </si>
+  <si>
+    <t>136 ДТ м. Вишневе, вул. Першотравнева, 6</t>
+  </si>
+  <si>
+    <t>(38051)9940974</t>
+  </si>
+  <si>
+    <t>139 ДТ м. Ніжин, вул. Шевченка, 16А</t>
+  </si>
+  <si>
+    <t>(38051)9944773</t>
+  </si>
+  <si>
+    <t>(38051)9944934</t>
+  </si>
+  <si>
+    <t>141 ДТ м. Біла Церква, вул. Гайок,181</t>
+  </si>
+  <si>
+    <t>(38051)9940922</t>
+  </si>
+  <si>
+    <t>142 ДТ м. Київ, вул. Щербакова, 72</t>
+  </si>
+  <si>
+    <t>143 ДТ пгт. Иванков, ул. Розваживская, 2А</t>
+  </si>
+  <si>
+    <t>(38051)9941273</t>
+  </si>
+  <si>
+    <t>(38051)9942584</t>
+  </si>
+  <si>
+    <t>144 ДТ с. Андрушівка, вул. Возяна, 24</t>
+  </si>
+  <si>
+    <t>(38051)9945569</t>
+  </si>
+  <si>
+    <t>145 ДТ м. Житомир, вул. Московська, 24Б</t>
+  </si>
+  <si>
+    <t>(38051)9945566</t>
+  </si>
+  <si>
+    <t>146 ДТ м. Ніжин, вул. Шевченка, 21, ТЦ "Прогрес"</t>
+  </si>
+  <si>
+    <t>(38051)9944939</t>
+  </si>
+  <si>
+    <t>147 ДТ м. Ніжин, вул. Космонавтів, 43Г</t>
+  </si>
+  <si>
+    <t>(38051)9944935</t>
+  </si>
+  <si>
+    <t>149 ДТ м. Малин, вул. Гагаріна,4</t>
+  </si>
+  <si>
+    <t>(38051)9945565</t>
+  </si>
+  <si>
+    <t>(38051)9945338</t>
+  </si>
+  <si>
+    <t>150 ДТ смт. Володарка, вул. Коцюбинського, 20В</t>
+  </si>
+  <si>
+    <t>(38051)9946238</t>
+  </si>
+  <si>
+    <t>155 ДТ м. Ніжин, вул. Московська, Универмаг Україна</t>
+  </si>
+  <si>
+    <t>(38051)9944933</t>
+  </si>
+  <si>
+    <t>156 ДТ м. Малин, вул. Приходько, 63</t>
+  </si>
+  <si>
+    <t>(38051)9945348</t>
+  </si>
+  <si>
+    <t>157 ДТ м. Бердичив, вул. Карла Лібкнехта, 130</t>
+  </si>
+  <si>
+    <t>(38051)9945399</t>
+  </si>
+  <si>
+    <t>161 ДТ Житомир. обл., р-н Попільнянський, с. Андрушки, вул. Заводська, 45-А</t>
+  </si>
+  <si>
+    <t>(38068)7916237</t>
+  </si>
+  <si>
+    <t>163 ДТ Чернігівська обл., м. Ніжин, вул. Воздвиженська, 74</t>
+  </si>
+  <si>
+    <t>(38051)9945028</t>
+  </si>
+  <si>
+    <t>166 ДТ Житомирська обл., м. Коростишів, вул. К. Маркса, 56</t>
+  </si>
+  <si>
+    <t>(38051)9945403</t>
+  </si>
+  <si>
+    <t>167 ДТ Житомирська обл., пгт. Черняхів, вул. Щорса, базарна площа</t>
+  </si>
+  <si>
+    <t>(38051)9945557</t>
+  </si>
+  <si>
+    <t>168 ДТ г. Васильков, ул. Грушевского, 13, МАФ 1</t>
+  </si>
+  <si>
+    <t>(38051)9942590</t>
+  </si>
+  <si>
+    <t>170 ДТ Київська обл., Броварський р-н, с. Русанів, вул. Леніна, 74</t>
+  </si>
+  <si>
+    <t>(38068)1173285</t>
+  </si>
+  <si>
+    <t>171 ДТ Чернігівська обл., Бобровицький р-н, с. Новий Биків</t>
+  </si>
+  <si>
+    <t>(38051)9944778</t>
+  </si>
+  <si>
+    <t>173 ДТ Житомирська обл., м. Коростень, вул. Табукашвили, 25В</t>
+  </si>
+  <si>
+    <t>(38051)9945558</t>
+  </si>
+  <si>
+    <t>175 ДТ Житомирська обл., м. Радомишль, вул. 9 січня, 1/1</t>
+  </si>
+  <si>
+    <t>(38051)9945559</t>
+  </si>
+  <si>
+    <t>176 ДТ Київська обл., р-н Бородянський, смт Немішаєво, вул. Заводська, 48А/6</t>
+  </si>
+  <si>
+    <t>180 ДТ Житомирська обл.смт.Ружин, вул. Бурди 64 А</t>
+  </si>
+  <si>
+    <t>(38051)9945347</t>
+  </si>
+  <si>
+    <t>181 ДТ Київська, Баришівка, Пархоменка, 25В</t>
+  </si>
+  <si>
+    <t>(38051)9943701</t>
+  </si>
+  <si>
+    <t>183 ДТ Київська обл., м. Вишгород, вул. Кургузова, 5-Б</t>
+  </si>
+  <si>
+    <t>184 ДТ Київська обл., Броварський р-н, с. Пухівка, вул. Набережна, 14</t>
+  </si>
+  <si>
+    <t>186 ДТ м. Житомир, вул. Черняхівського, 6</t>
+  </si>
+  <si>
+    <t>(38051)9945560</t>
+  </si>
+  <si>
+    <t>187 ДТ смт.Ставище, Радянська, 65</t>
+  </si>
+  <si>
+    <t>(38051)9946256</t>
+  </si>
+  <si>
+    <t>188 ДТ с. Новые Петровцы ,ул. Ленина, 218</t>
+  </si>
+  <si>
+    <t>(38020)4432513</t>
+  </si>
+  <si>
+    <t>(38051)9941270</t>
+  </si>
+  <si>
+    <t>189 ДТ пгт. Лютиж, ул. Комсомольская, 2А</t>
+  </si>
+  <si>
+    <t>(38051)9942562</t>
+  </si>
+  <si>
+    <t>190 ДТ Київська обл., м. Богуслав, вул. Миколаївська, б.21, прим.7</t>
+  </si>
+  <si>
+    <t>(38051)9943700</t>
+  </si>
+  <si>
+    <t>194 ДТ м. Київ, вул. Маяковського, 73</t>
+  </si>
+  <si>
+    <t>196 ДТ м. Київ, пр-т. Отрадний, буд. № 24/93</t>
+  </si>
+  <si>
+    <t>(38051)9940888</t>
+  </si>
+  <si>
+    <t>198 ДТ (Київ, Миру, 19)</t>
+  </si>
+  <si>
+    <t>lan</t>
+  </si>
+  <si>
+    <t>201 ДТ Київська обл., смт Макарів, вул. Фрунзе, 33</t>
+  </si>
+  <si>
+    <t>(38051)9943704</t>
+  </si>
+  <si>
+    <t>(38051)9942566</t>
+  </si>
+  <si>
+    <t>203 ДТ Київська обл., р-н Броварський, с . Княжичі, вул. М.Лагунової, 107-А</t>
+  </si>
+  <si>
+    <t>(38051)9946254</t>
+  </si>
+  <si>
+    <t>(38051)9943635</t>
+  </si>
+  <si>
+    <t>205 ДТ г. Фастов, ул. Шевченка, 51А</t>
+  </si>
+  <si>
+    <t>(38051)9942567</t>
+  </si>
+  <si>
+    <t>206 ДТ Житомирська обл., м. Бердичів, вул. Європейська, 80</t>
+  </si>
+  <si>
+    <t>(38051)9945573</t>
+  </si>
+  <si>
+    <t>207 ДТ г. Киев, ул. Бальзака, 64</t>
+  </si>
+  <si>
+    <t>208 ДТ Житомирська обл., м. Бердичів, вул. Котовського 38/2</t>
+  </si>
+  <si>
+    <t>(38051)9945568</t>
+  </si>
+  <si>
+    <t>209 ДТ Дніпро-торг ТД, ТОВ (Київ,  Щербакова,57)</t>
+  </si>
+  <si>
+    <t>(38020)4475313</t>
+  </si>
+  <si>
+    <t>211 ДТ Житомирська обл., м. Бердичів, вул. Житомирська, 13 (м’ясний павільон)</t>
+  </si>
+  <si>
+    <t>(38051)9945562</t>
+  </si>
+  <si>
+    <t>212 ДТ м. Житомир, вул. Бориса Тена, 145</t>
+  </si>
+  <si>
+    <t>(38051)9945400</t>
+  </si>
+  <si>
+    <t>214 ДТ г. Киев, ул. Попудренка/ ул. Мурманская, 6</t>
+  </si>
+  <si>
+    <t>(38051)9943425</t>
+  </si>
+  <si>
+    <t>215 ДТ г. Киев, ул. Попудренка/ ул. Мурманская, 6</t>
+  </si>
+  <si>
+    <t>216 ДТ м. Київ, вул. Половецька, 12/42</t>
+  </si>
+  <si>
+    <t>(38051)9943430</t>
+  </si>
+  <si>
+    <t>217 ДТ г. Киев, ул. Алма-Атынская, 99/2</t>
+  </si>
+  <si>
+    <t>(38051)9943431</t>
+  </si>
+  <si>
+    <t>224 ДТ Житомирська обл., м. Малин, вул. Воровського, 23 (отдел маг.)</t>
+  </si>
+  <si>
+    <t>(38051)9945570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225 ДТ с. Демидов, ул. Киевская, 53 </t>
+  </si>
+  <si>
+    <t>(38051)9941600</t>
+  </si>
+  <si>
+    <t>226 ДТ Київська обл., р-н Броварський, с. Пухівка, вул. Леніна, 56А, МАФ</t>
+  </si>
+  <si>
+    <t>(38051)9946250</t>
+  </si>
+  <si>
+    <t>229 ДТ г. Киев, ул. Милютенка, 23, МАФ</t>
+  </si>
+  <si>
+    <t>(38051)9943433</t>
+  </si>
+  <si>
+    <t>231 ДТ Житомирська обл., м. Житомир, вул. Щорса, 151</t>
+  </si>
+  <si>
+    <t>(38051)9945564</t>
+  </si>
+  <si>
+    <t>233 ДТ м. Житомир, вул. Народницька, 14</t>
+  </si>
+  <si>
+    <t>(38051)9945567</t>
+  </si>
+  <si>
+    <t>235 ДТ Житомир. обл., м. Овруч, вул. Радянська, 42</t>
+  </si>
+  <si>
+    <t>(38051)9945346</t>
+  </si>
+  <si>
+    <t>(38051)9945351</t>
+  </si>
+  <si>
+    <t>236 ДТ Житомир. обл., м. Овруч, вул. Базарна, 1</t>
+  </si>
+  <si>
+    <t>(38051)9945342</t>
+  </si>
+  <si>
+    <t>238 ДТ Вишневе. Першотравнева, 2</t>
+  </si>
+  <si>
+    <t>(38051)9946056</t>
+  </si>
+  <si>
+    <t>239 ДТ Київська обл., с. Старі Петрівці, вул. Дніпровська, 62</t>
+  </si>
+  <si>
+    <t>(38051)9944936</t>
+  </si>
+  <si>
+    <t>240 ДТ Житомир. обл., м. Бердичів, вул. М. Раскової, 1</t>
+  </si>
+  <si>
+    <t>(38051)9945572</t>
+  </si>
+  <si>
+    <t>241 ДТ м. Овруч, вул. Постишева, 2 а</t>
+  </si>
+  <si>
+    <t>(38051)9946252</t>
+  </si>
+  <si>
+    <t>242 ДТ м. Київ, вул. О.Бальзака, 60</t>
+  </si>
+  <si>
+    <t>(38‎0667266160;35</t>
+  </si>
+  <si>
+    <t>244 ДТ Житомирська обл., м. Малин, вул. Огієнко, 65</t>
+  </si>
+  <si>
+    <t>(38051)9945571</t>
+  </si>
+  <si>
+    <t>245 ДТ м. Київ, вул. Бориспільська, 34</t>
+  </si>
+  <si>
+    <t>(38051)9948398</t>
+  </si>
+  <si>
+    <t>246 ДТ м. Київ,Русанівські сади,17-лінія</t>
+  </si>
+  <si>
+    <t>(38051)9946248</t>
+  </si>
+  <si>
+    <t>248 ДТ м. Київ, бул. Вигорівський, 1</t>
+  </si>
+  <si>
+    <t>(380‎51)9943701</t>
+  </si>
+  <si>
+    <t>250 ДТ м. Переяслав-Хмельницький, вул. Б. Хмельницького, 32 (101км</t>
+  </si>
+  <si>
+    <t>(380‎51)9979432</t>
+  </si>
+  <si>
+    <t>251 ДТ м. Переяслав-Хмельницький, вул. Б. Хмельницького, 101 (11км)</t>
+  </si>
+  <si>
+    <t>(38051)9943692</t>
+  </si>
+  <si>
+    <t>252 ДТ м. Переяслав-Хмельницький, Новокиївське шосе, 30 (39км)</t>
+  </si>
+  <si>
+    <t>(38051)9946240</t>
+  </si>
+  <si>
+    <t>253 ДТ м. Баришівка, вул. Садова, 2 (092)</t>
+  </si>
+  <si>
+    <t>‎(38051)9940973</t>
+  </si>
+  <si>
+    <t>255 ДТ Київська обл, Бориспільський р-н, с. Іванків, вул. Центральна, буд. № 3</t>
+  </si>
+  <si>
+    <t>(38020)4471278</t>
+  </si>
+  <si>
+    <t>138 ДТ смт. Богданівка, вул. Леніна,163</t>
+  </si>
+  <si>
+    <t>(38020)4482812</t>
+  </si>
+  <si>
+    <t>257 ДТ Київська обл, Бориспільський р-н, с. Щасливе, вул. Леніна, буд. № 9А (106)</t>
+  </si>
+  <si>
+    <t>(38020)1032524</t>
+  </si>
+  <si>
+    <t>258 ДТ Київ. обл, Борисп. р-н, с. Велика Олександрівка, вул. Котляревського, буд. № 27 (135)</t>
+  </si>
+  <si>
+    <t>‎(380663681339;35</t>
+  </si>
+  <si>
+    <t>259 ДТ м. Бориспіль, вул. Лютнева, буд. № 3Б (017)</t>
+  </si>
+  <si>
+    <t>(38020)4498151</t>
+  </si>
+  <si>
+    <t>??????????????</t>
+  </si>
+  <si>
+    <t>262 ДТ Київ. обл, Бориспільський р-н, с. Мирне, вул. Леніна, буд. № 1 (001)</t>
+  </si>
+  <si>
+    <t>(38020)4482712</t>
+  </si>
+  <si>
+    <t>264 ДТ Київ. обл., Бориспіль. р-н, с. Ревне, вул. Леніна, 8Б (131)</t>
+  </si>
+  <si>
+    <t>(38097)8302991</t>
+  </si>
+  <si>
+    <t>265 ДТ Київ. обл, Бориспіль. р-н, с. Вишеньки, вул. Леніна, буд. № 148А (130)</t>
+  </si>
+  <si>
+    <t>(38051)9948400</t>
+  </si>
+  <si>
+    <t>(38‎0519948399;35</t>
+  </si>
+  <si>
+    <t>267 ДТ Київ. обл, Васильків. р-н, смт Гребінки, вул. Київська, 105(083)</t>
+  </si>
+  <si>
+    <t>(38020)4482690</t>
+  </si>
+  <si>
+    <t>268 ДТ Київ. обл, Білоцерк. р-н, м. Узин, вул. Фрунзе, буд. № 71А(058)</t>
+  </si>
+  <si>
+    <t>(38020)4482713</t>
+  </si>
+  <si>
+    <t>269 ДТ Київ. обл, Васильків. р-н, с. Саливонки, вул. Леніна, буд. № 6(146)</t>
+  </si>
+  <si>
+    <t>(38051)9944782</t>
+  </si>
+  <si>
+    <t>270 ДТ Київ. обл, м. Обухів, вул. Київська, буд. № 1/2(139)</t>
+  </si>
+  <si>
+    <t>(38051)9945027</t>
+  </si>
+  <si>
+    <t>272 ДТ Київ. обл, Васильків. р-н, смт Глеваха, вул. Вокзальна, буд. № 31б(148)</t>
+  </si>
+  <si>
+    <t>(38020)4482691</t>
+  </si>
+  <si>
+    <t>273 ДТ Київ. обл, Києво-Святошин. р-н, смт Чабани, вул. Машинобудівників, буд. № 1/2(032)</t>
+  </si>
+  <si>
+    <t>(38020)4482693</t>
+  </si>
+  <si>
+    <t>274 ДТ м. Київ, вул. Юнкерова, буд. № 90, Пуща-Водиця(144)</t>
+  </si>
+  <si>
+    <t>(38051)9948388</t>
+  </si>
+  <si>
+    <t>275 ДТ Чернігів. обл, м. Ніжин, вул. Шевченка, буд. № 124(008)</t>
+  </si>
+  <si>
+    <t>(38020)4471276</t>
+  </si>
+  <si>
+    <t>276 ДТ Чернігів. обл, м. Ніжин, вул. Прилуцька, буд. № 116а (049)</t>
+  </si>
+  <si>
+    <t>(38068)1891284</t>
+  </si>
+  <si>
+    <t>277 ДТ Чернігів. обл, м. Ніжин, вул. Шевченка, буд. № 9, корпус а(050)</t>
+  </si>
+  <si>
+    <t>‎(38051)9943695</t>
+  </si>
+  <si>
+    <t>278 ДТ Чернігів. обл, м. Ніжин, вул. Семашко, буд. № 6(096)</t>
+  </si>
+  <si>
+    <t>(38051)9946253</t>
+  </si>
+  <si>
+    <t>280 ДТ Чернігів. обл, м. Ніжин, вул. Московська, буд. № 3, пав.939(141)</t>
+  </si>
+  <si>
+    <t>(38020)4471296</t>
+  </si>
+  <si>
+    <t>281 ДТ Чернігів. обл, м. Ніжин, вул. Незалежності, 40 В(156)</t>
+  </si>
+  <si>
+    <t>(380‎51)9946255</t>
+  </si>
+  <si>
+    <t>282 ДТ Чернігів. обл, Козелець. р-н, смт Десна, вул. І. Франка, буд. № 44а/27а(022)</t>
+  </si>
+  <si>
+    <t>(38‎0995501677;35</t>
+  </si>
+  <si>
+    <t>283 ДТ Чернігів. обл, Козелець. р-н, смт Козелець, вул. Комсомольська, буд. № 35А(038)</t>
+  </si>
+  <si>
+    <t>(38‎‎0519942592;50</t>
+  </si>
+  <si>
+    <t>284 ДТ Чернігів. обл, Козелець. р-н, смт Десна, вул. Довженко, буд. № 46а(056)</t>
+  </si>
+  <si>
+    <t>‎(380995501638;35</t>
+  </si>
+  <si>
+    <t>285 ДТ Чернігів. обл, Бобровиц. р-н, с. Кобижча, вул. Братів Лисенко, буд. № 1(063)</t>
+  </si>
+  <si>
+    <t>(38020)4471280</t>
+  </si>
+  <si>
+    <t>286 ДТ м. Київ, вул. В. Кільцева, буд. № 110А(061)</t>
+  </si>
+  <si>
+    <t>(38020)4498149</t>
+  </si>
+  <si>
+    <t>287 ДТ Київ. обл, Бровар. р-н, с. Гоголів, вул. Київська, буд. № 144(064)</t>
+  </si>
+  <si>
+    <t>(38051)9946242</t>
+  </si>
+  <si>
+    <t>288 ДТ Київ. обл, Борисп. р-н, с. Сеньківка, вул. Леніна, буд. № 2Г(081)</t>
+  </si>
+  <si>
+    <t>(38020)4486395</t>
+  </si>
+  <si>
+    <t>289 ДТ Київ. обл, Бровар. р-н, с. Требухів, вул. Горького, буд. № 2А(121)</t>
+  </si>
+  <si>
+    <t>(38051)9946239</t>
+  </si>
+  <si>
+    <t>290 ДТ Київ. обл, Бровар. р-н, смт Калита, вул. Леніна, буд. № 36(037)</t>
+  </si>
+  <si>
+    <t>(38020)4486369</t>
+  </si>
+  <si>
+    <t>291 ДТ Київ. обл, Бровар. р-н, с. Семіполки, Київське ш., 111(090)</t>
+  </si>
+  <si>
+    <t>(38020)4486394</t>
+  </si>
+  <si>
+    <t>292 ДТ Київська обл, Броварський р-н, смт Калинівка, вул. Котовського, буд. № 8А(104)</t>
+  </si>
+  <si>
+    <t>(38068)7916113</t>
+  </si>
+  <si>
+    <t>293 ДТ Київ. обл, Бровар. р-н, с. Рудня, вул. Чапаєва, буд. № 22(076)</t>
+  </si>
+  <si>
+    <t>(38020)4486391</t>
+  </si>
+  <si>
+    <t>294 ДТ Київ. обл, Бровар. р-н, с. Плоске, вул. Леніна, буд. № 1(077)</t>
+  </si>
+  <si>
+    <t>(38051)9948396</t>
+  </si>
+  <si>
+    <t>295 ДТ Київ. обл, Бровар. р-н, с. Бобрик, вул. Шевченка, буд. № 17(087)</t>
+  </si>
+  <si>
+    <t>(38051)9972061</t>
+  </si>
+  <si>
+    <t>297 ДТ Київська обл., м. Фастів, вул. Шевченка, 1</t>
+  </si>
+  <si>
+    <t>(38051)9946244</t>
+  </si>
+  <si>
+    <t>301 ДТ Київ. обл, Києво-Святошин. р-н, м. Боярка, вул. Хрещатик, 2</t>
+  </si>
+  <si>
+    <t>(38051)9942568</t>
+  </si>
+  <si>
+    <t>303 ДТ Київ. обл, Б.-Церківський р-н, м. Сквира, вул. Соборна, 30</t>
+  </si>
+  <si>
+    <t>(38051)9940925</t>
+  </si>
+  <si>
+    <t>304 ДТ Київ. обл, Києво-Святошин. р-н, с. Бузова, вул. Центральна, 108А</t>
+  </si>
+  <si>
+    <t>Закрита</t>
+  </si>
+  <si>
+    <t>305 ДТ м. Київ, вул. Петра Запорожця, 28, МАФ№2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corpor</t>
+  </si>
+  <si>
+    <t>SQRECHNIK м. Київ, вул. Миру, 19</t>
+  </si>
+  <si>
+    <t>(38051)9945343</t>
+  </si>
+  <si>
+    <t>Oleksandr Kysliy</t>
+  </si>
+  <si>
+    <t>(38051)9940897</t>
+  </si>
+  <si>
+    <t>Andriy Kompaniets</t>
+  </si>
+  <si>
+    <t>(38051)9943706</t>
+  </si>
+  <si>
+    <t>204 ДT ТД (Вишгород, Симоненко, 4А, приміщ.10/15)</t>
+  </si>
+  <si>
+    <t>310 ДТ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,11 +1278,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +1299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +1339,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +1379,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +1411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +1561,3125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>174</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>188</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>194</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>196</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>209</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>225</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>226</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>230</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>241</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>243</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>244</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>246</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>246</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>248</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>248</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>405</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>254</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>259</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>261</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>263</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>265</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>267</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>269</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>270</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>272</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>274</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>276</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>280</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>284</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>286</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>286</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>293</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>295</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>297</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>299</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>303</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>305</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>307</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>309</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>311</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>313</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>315</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>317</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>319</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>321</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>323</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>325</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181" t="s">
+        <v>325</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>328</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>330</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>332</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>406</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>335</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>337</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>339</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>341</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>343</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>345</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>347</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>349</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>351</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>353</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>355</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>357</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>359</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>361</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>363</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>365</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>367</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>369</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>2</v>
+      </c>
+      <c r="C204" t="s">
+        <v>369</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>371</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>373</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>375</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>377</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>379</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>381</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>383</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>385</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>387</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>389</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>391</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>393</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217" t="s">
+        <v>395</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>397</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>399</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>401</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>403</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -1002,9 +1002,6 @@
     <t>(38020)4498151</t>
   </si>
   <si>
-    <t>??????????????</t>
-  </si>
-  <si>
     <t>262 ДТ Київ. обл, Бориспільський р-н, с. Мирне, вул. Леніна, буд. № 1 (001)</t>
   </si>
   <si>
@@ -1239,7 +1236,10 @@
     <t>204 ДT ТД (Вишгород, Симоненко, 4А, приміщ.10/15)</t>
   </si>
   <si>
-    <t>310 ДТ</t>
+    <t>не має модема</t>
+  </si>
+  <si>
+    <t>310 ДТ Київська обл. Обухівський р-н. смт. Козин, вул. Київська 43а</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1564,7 @@
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>253</v>
@@ -4105,7 +4105,7 @@
         <v>325</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,10 +4116,10 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>327</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,10 +4130,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>329</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4144,10 +4144,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
+        <v>331</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,7 +4161,7 @@
         <v>406</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>334</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>336</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,10 +4200,10 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>338</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,10 +4214,10 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
+        <v>340</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>342</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4242,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
+        <v>344</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>346</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,10 +4270,10 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>348</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
+        <v>350</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,10 +4298,10 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
+        <v>352</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>354</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
+        <v>356</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,10 +4340,10 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>358</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>360</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>362</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,10 +4382,10 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>364</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,10 +4396,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>366</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>368</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,7 +4424,7 @@
         <v>2</v>
       </c>
       <c r="C204" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -4438,10 +4438,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>370</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,10 +4452,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>372</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>374</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,10 +4480,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
+        <v>376</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
+        <v>378</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>380</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,10 +4522,10 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>382</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,10 +4536,10 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>384</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,10 +4550,10 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
+        <v>386</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,10 +4564,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
+        <v>388</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,10 +4578,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
+        <v>390</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
+        <v>392</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
+        <v>394</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,10 +4620,10 @@
         <v>1</v>
       </c>
       <c r="C218" t="s">
+        <v>396</v>
+      </c>
+      <c r="D218" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,10 +4634,10 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
+        <v>398</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,10 +4648,10 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
+        <v>400</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,10 +4662,10 @@
         <v>1</v>
       </c>
       <c r="C221" t="s">
+        <v>402</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="401">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -99,9 +99,6 @@
     <t>(38051)9941020</t>
   </si>
   <si>
-    <t>019 ДТ г. Васильков, ул. Либкнехта, 5</t>
-  </si>
-  <si>
     <t>020 ДТ г. Васильков, ул. Грушевского, 30/1</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>(38051)9942587</t>
   </si>
   <si>
-    <t>042 ДТ смт. Гостомель, вул. Леніна 86, ринок, м.№ 99</t>
-  </si>
-  <si>
     <t>044 ДТ с. Погребы, ул. Кирова, 88</t>
   </si>
   <si>
@@ -339,9 +333,6 @@
     <t>(38051)9945340</t>
   </si>
   <si>
-    <t>067 ДТ м. Київ, вул. Петра Запорожця, 28</t>
-  </si>
-  <si>
     <t>069 ДТ г. Обухов, ул. Каштановая 2,  рынок</t>
   </si>
   <si>
@@ -552,12 +543,6 @@
     <t>(38051)9945563</t>
   </si>
   <si>
-    <t>136 ДТ м. Вишневе, вул. Першотравнева, 6</t>
-  </si>
-  <si>
-    <t>(38051)9940974</t>
-  </si>
-  <si>
     <t>139 ДТ м. Ніжин, вул. Шевченка, 16А</t>
   </si>
   <si>
@@ -712,9 +697,6 @@
   </si>
   <si>
     <t>183 ДТ Київська обл., м. Вишгород, вул. Кургузова, 5-Б</t>
-  </si>
-  <si>
-    <t>184 ДТ Київська обл., Броварський р-н, с. Пухівка, вул. Набережна, 14</t>
   </si>
   <si>
     <t>186 ДТ м. Житомир, вул. Черняхівського, 6</t>
@@ -1561,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:XFD123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,16 +1740,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1778,10 +1760,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,10 +1774,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1820,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1834,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1848,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,7 +1903,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>51</v>
@@ -1957,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,10 +1984,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,24 +2026,24 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,10 +2096,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,10 +2110,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2184,10 +2166,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,7 +2183,7 @@
         <v>82</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,10 +2208,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,13 +2247,13 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
         <v>90</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,10 +2264,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +2289,13 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,13 +2317,13 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,10 +2334,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,24 +2362,24 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,10 +2446,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,13 +2527,13 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,13 +2569,13 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2604,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2618,10 +2600,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,10 +2628,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,10 +2642,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,10 +2698,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,10 +2740,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,10 +2768,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,10 +2782,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +2849,13 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
         <v>174</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,13 +2891,13 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,10 +2908,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,10 +2922,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2954,10 +2936,10 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2968,10 +2950,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2982,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,10 +2978,10 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3007,13 +2989,13 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3024,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3035,13 +3017,13 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,10 +3034,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,10 +3048,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,10 +3062,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3091,13 +3073,13 @@
         <v>1</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3122,10 +3104,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3136,10 +3118,10 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,10 +3132,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3178,10 +3160,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3206,10 +3188,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,10 +3202,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3234,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3248,10 +3230,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,10 +3244,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3304,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3318,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,27 +3311,27 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
         <v>230</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3360,10 +3342,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3374,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>235</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,10 +3370,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3430,10 +3412,10 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3441,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>40</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3455,13 +3437,13 @@
         <v>1</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>245</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3472,10 +3454,10 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
+        <v>245</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3483,10 +3465,10 @@
         <v>1</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>247</v>
@@ -3511,27 +3493,27 @@
         <v>1</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>248</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>40</v>
+        <v>252</v>
+      </c>
+      <c r="D140" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3542,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,10 +3538,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>404</v>
+        <v>255</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3570,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3584,38 +3566,38 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>258</v>
-      </c>
-      <c r="D145" s="1">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>259</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,10 +3608,10 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,24 +3650,24 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>269</v>
-      </c>
-      <c r="D151" s="1">
-        <v>0</v>
+        <v>272</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,10 +3678,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,10 +3692,10 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3724,10 +3706,10 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,10 +3720,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3752,10 +3734,10 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,10 +3748,10 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,10 +3762,10 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,10 +3776,10 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3808,10 +3790,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3822,10 +3804,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3836,10 +3818,10 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3850,10 +3832,10 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3864,24 +3846,24 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3906,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3934,24 +3916,24 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3962,10 +3944,10 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3976,10 +3958,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,10 +3972,10 @@
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,10 +3986,10 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4018,10 +4000,10 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,13 +4011,13 @@
         <v>1</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>318</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4046,10 +4028,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4060,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4074,10 +4056,10 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4088,10 +4070,10 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>325</v>
+        <v>400</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4099,13 +4081,13 @@
         <v>1</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4116,10 +4098,10 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4130,10 +4112,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4144,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4158,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,10 +4154,10 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4186,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,10 +4182,10 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,10 +4196,10 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4228,10 +4210,10 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4242,10 +4224,10 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,10 +4238,10 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,10 +4266,10 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,10 +4280,10 @@
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,10 +4294,10 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4326,10 +4308,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,24 +4322,24 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>360</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="D199" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,10 +4364,10 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,24 +4392,24 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>368</v>
-      </c>
-      <c r="D204" s="1">
-        <v>1</v>
+        <v>372</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,10 +4420,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,10 +4434,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,10 +4448,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,10 +4476,10 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,10 +4490,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,24 +4504,24 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,10 +4532,10 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,10 +4560,10 @@
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,89 +4574,19 @@
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>0</v>
-      </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-      <c r="C217" t="s">
-        <v>394</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1</v>
-      </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="C218" t="s">
-        <v>396</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>1</v>
-      </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="C219" t="s">
-        <v>398</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>1</v>
-      </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="C220" t="s">
-        <v>400</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>1</v>
-      </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="C221" t="s">
-        <v>402</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
         <v>207</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>211</v>
       </c>
     </row>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="395">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -777,9 +777,6 @@
     <t>(38051)9945573</t>
   </si>
   <si>
-    <t>207 ДТ г. Киев, ул. Бальзака, 64</t>
-  </si>
-  <si>
     <t>208 ДТ Житомирська обл., м. Бердичів, вул. Котовського 38/2</t>
   </si>
   <si>
@@ -810,9 +807,6 @@
     <t>(38051)9943425</t>
   </si>
   <si>
-    <t>215 ДТ г. Киев, ул. Попудренка/ ул. Мурманская, 6</t>
-  </si>
-  <si>
     <t>216 ДТ м. Київ, вул. Половецька, 12/42</t>
   </si>
   <si>
@@ -918,12 +912,6 @@
     <t>(38051)9948398</t>
   </si>
   <si>
-    <t>246 ДТ м. Київ,Русанівські сади,17-лінія</t>
-  </si>
-  <si>
-    <t>(38051)9946248</t>
-  </si>
-  <si>
     <t>248 ДТ м. Київ, бул. Вигорівський, 1</t>
   </si>
   <si>
@@ -1183,12 +1171,6 @@
   </si>
   <si>
     <t>(38051)9940925</t>
-  </si>
-  <si>
-    <t>304 ДТ Київ. обл, Києво-Святошин. р-н, с. Бузова, вул. Центральна, 108А</t>
-  </si>
-  <si>
-    <t>Закрита</t>
   </si>
   <si>
     <t>305 ДТ м. Київ, вул. Петра Запорожця, 28, МАФ№2</t>
@@ -1543,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:XFD123"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="C189" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2866,10 +2848,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,13 +2859,13 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>174</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2891,13 +2873,13 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,10 +2890,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2922,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>180</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2947,13 +2929,13 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,10 +2960,10 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,10 +2988,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,13 +2999,13 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
         <v>191</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3031,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,10 +3044,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,10 +3058,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,10 +3072,10 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,10 +3128,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,10 +3198,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,10 +3212,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>222</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3258,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3272,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3286,10 +3268,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3300,10 +3282,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3311,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
         <v>230</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3325,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3342,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3356,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,10 +3352,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
         <v>240</v>
@@ -3409,13 +3391,13 @@
         <v>1</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,13 +3405,13 @@
         <v>1</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" t="s">
         <v>242</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,13 +3419,13 @@
         <v>1</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135" t="s">
         <v>242</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,13 +3433,13 @@
         <v>1</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>246</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,10 +3450,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>398</v>
+        <v>245</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>248</v>
+        <v>392</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3496,24 +3478,24 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>252</v>
-      </c>
-      <c r="D140" s="1">
-        <v>1</v>
+        <v>250</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,10 +3506,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>252</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3538,10 +3520,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>254</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3552,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
+        <v>256</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3566,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
+        <v>258</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3580,24 +3562,24 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
+        <v>260</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,10 +3702,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
+        <v>278</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>282</v>
@@ -3854,10 +3836,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>299</v>
@@ -3930,10 +3912,10 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3944,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3958,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,13 +3951,13 @@
         <v>1</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173" t="s">
         <v>315</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,13 +3993,13 @@
         <v>1</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,10 +4010,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,10 +4024,10 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4056,10 +4038,10 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4070,10 +4052,10 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4084,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4098,10 +4080,10 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4112,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4126,10 +4108,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,10 +4122,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,10 +4136,10 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,10 +4150,10 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4182,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,10 +4178,10 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4224,10 +4206,10 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,10 +4220,10 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,10 +4234,10 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4266,10 +4248,10 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,13 +4259,13 @@
         <v>1</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>356</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4294,10 +4276,10 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4308,10 +4290,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4322,24 +4304,24 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>362</v>
-      </c>
-      <c r="D199" s="1">
-        <v>1</v>
+        <v>366</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4350,10 +4332,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4364,10 +4346,10 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4378,10 +4360,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,10 +4374,10 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4406,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,10 +4402,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4434,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4448,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4462,10 +4444,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,10 +4458,10 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4490,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4504,93 +4486,40 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1</v>
-      </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="C213" t="s">
-        <v>390</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1</v>
-      </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="C214" t="s">
-        <v>392</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>1</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="C215" t="s">
-        <v>394</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="C216" t="s">
-        <v>396</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
         <v>207</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>211</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D224">
+    <sortCondition ref="C189"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="397">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1204,6 +1204,12 @@
   </si>
   <si>
     <t>310 ДТ Київська обл. Обухівський р-н. смт. Козин, вул. Київська 43а</t>
+  </si>
+  <si>
+    <t>‎+380667233887;35</t>
+  </si>
+  <si>
+    <t>Krylov TV-BOX</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C189" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,6 +4512,17 @@
         <v>387</v>
       </c>
     </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>396</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>207</v>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="402">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -132,9 +132,6 @@
     <t>025 ДТ с. Буча, вул. Жовтнева, 26, Продтовари</t>
   </si>
   <si>
-    <t>cgh</t>
-  </si>
-  <si>
     <t>026 ДТ Київ, Бальзака, 94 (пав. 22/26)</t>
   </si>
   <si>
@@ -921,9 +918,6 @@
     <t>250 ДТ м. Переяслав-Хмельницький, вул. Б. Хмельницького, 32 (101км</t>
   </si>
   <si>
-    <t>(380‎51)9979432</t>
-  </si>
-  <si>
     <t>251 ДТ м. Переяслав-Хмельницький, вул. Б. Хмельницького, 101 (11км)</t>
   </si>
   <si>
@@ -1206,10 +1200,31 @@
     <t>310 ДТ Київська обл. Обухівський р-н. смт. Козин, вул. Київська 43а</t>
   </si>
   <si>
-    <t>‎+380667233887;35</t>
-  </si>
-  <si>
     <t>Krylov TV-BOX</t>
+  </si>
+  <si>
+    <t>(380‎51)9943432</t>
+  </si>
+  <si>
+    <t>38‎0519945574</t>
+  </si>
+  <si>
+    <t>38‎0978678364;70</t>
+  </si>
+  <si>
+    <t>38‎0978677571;70</t>
+  </si>
+  <si>
+    <t>38‎0685816720;50</t>
+  </si>
+  <si>
+    <t>Кислий тт з лічильником, хз яка</t>
+  </si>
+  <si>
+    <t>‎380506302977;50</t>
+  </si>
+  <si>
+    <t>‎380667233887;35</t>
   </si>
 </sst>
 </file>
@@ -1531,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1822,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1818,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1860,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
@@ -1888,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,10 +1931,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1986,10 +2001,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2000,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2028,10 +2043,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2084,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2098,10 +2113,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,10 +2127,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2126,10 +2141,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2140,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2154,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,10 +2183,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2182,10 +2197,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2196,10 +2211,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2210,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,10 +2253,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,10 +2281,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2280,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2322,10 +2337,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2336,10 +2351,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,10 +2365,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>39</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2392,10 +2407,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2420,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2434,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,10 +2491,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,10 +2505,10 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2546,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,10 +2631,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2630,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,10 +2673,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2672,10 +2687,10 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
+        <v>149</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2728,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,10 +2771,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,10 +2813,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>168</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,10 +2841,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2840,10 +2855,10 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2854,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2868,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
+        <v>173</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2882,10 +2897,10 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,10 +2911,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2938,10 +2953,10 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2952,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
+        <v>182</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2980,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
+        <v>188</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
+        <v>190</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3022,10 +3037,10 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
+        <v>193</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3050,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
+        <v>197</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3078,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3092,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3106,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
+        <v>203</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,10 +3135,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
+        <v>205</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,10 +3149,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3148,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
+        <v>209</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3162,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
+        <v>213</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>217</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3218,10 +3233,10 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>39</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,10 +3247,10 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>220</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,10 +3261,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
+        <v>227</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,10 +3331,10 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,10 +3345,10 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3358,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>39</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
+        <v>237</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3386,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
+        <v>239</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,10 +3415,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
+        <v>239</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3414,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
+        <v>241</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3428,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,10 +3457,10 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3456,10 +3471,10 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>244</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3484,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
+        <v>247</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3498,10 +3513,10 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>249</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3512,10 +3527,10 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3526,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>253</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3540,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
+        <v>257</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3568,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
+        <v>259</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3582,10 +3597,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>261</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3596,10 +3611,10 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
+        <v>263</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3610,10 +3625,10 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
+        <v>265</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3624,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
+        <v>267</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3638,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
+        <v>269</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3652,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
+        <v>271</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3666,10 +3681,10 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
+        <v>273</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3680,10 +3695,10 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
+        <v>275</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,10 +3709,10 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>277</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3708,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3722,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
+        <v>280</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3736,10 +3751,10 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
+        <v>282</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3750,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
+        <v>284</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,10 +3779,10 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
+        <v>286</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3778,10 +3793,10 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
+        <v>288</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3792,10 +3807,10 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
+        <v>290</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3806,10 +3821,10 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
+        <v>292</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
+        <v>294</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,10 +3849,10 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
+        <v>296</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3848,10 +3863,10 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>300</v>
+        <v>394</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3876,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3890,10 +3905,10 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,10 +3919,10 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3918,10 +3933,10 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3946,10 +3961,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3988,10 +4003,10 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4002,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4016,10 +4031,10 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4030,10 +4045,10 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4044,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4058,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4072,10 +4087,10 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4086,10 +4101,10 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4100,10 +4115,10 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,10 +4129,10 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4128,10 +4143,10 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4142,10 +4157,10 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4156,10 +4171,10 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,10 +4185,10 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,10 +4199,10 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4212,10 +4227,10 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4226,10 +4241,10 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4240,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4254,10 +4269,10 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4268,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -4282,10 +4297,10 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,10 +4311,10 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,10 +4325,10 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4366,10 +4381,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,10 +4395,10 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,10 +4409,10 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4408,10 +4423,10 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4422,10 +4437,10 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,10 +4465,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4464,10 +4479,10 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4478,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4492,10 +4507,10 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4506,31 +4521,26 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1</v>
-      </c>
       <c r="C213" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>211</v>
+      <c r="C214" t="s">
+        <v>399</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="727">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -984,9 +984,6 @@
     <t>(38051)9948400</t>
   </si>
   <si>
-    <t>(38‎0519948399;35</t>
-  </si>
-  <si>
     <t>267 ДТ Київ. обл, Васильків. р-н, смт Гребінки, вул. Київська, 105(083)</t>
   </si>
   <si>
@@ -1225,6 +1222,984 @@
   </si>
   <si>
     <t>‎380667233887;35</t>
+  </si>
+  <si>
+    <t>380519940954;50</t>
+  </si>
+  <si>
+    <t>380519940942;50</t>
+  </si>
+  <si>
+    <t>380519943428;50</t>
+  </si>
+  <si>
+    <t>380519943429;50</t>
+  </si>
+  <si>
+    <t>380519940627;50</t>
+  </si>
+  <si>
+    <t>380519941019;50</t>
+  </si>
+  <si>
+    <t>380519942570;50</t>
+  </si>
+  <si>
+    <t>380519941269;50</t>
+  </si>
+  <si>
+    <t>380519942569;50</t>
+  </si>
+  <si>
+    <t>380519941020;50</t>
+  </si>
+  <si>
+    <t>380519942591;50</t>
+  </si>
+  <si>
+    <t>380519942564;50</t>
+  </si>
+  <si>
+    <t>380519944942;50</t>
+  </si>
+  <si>
+    <t>380519940954;25</t>
+  </si>
+  <si>
+    <t>380519942565;50</t>
+  </si>
+  <si>
+    <t>380519942565;45</t>
+  </si>
+  <si>
+    <t>380684224133;70</t>
+  </si>
+  <si>
+    <t>380519940942;46</t>
+  </si>
+  <si>
+    <t>380519940627;45</t>
+  </si>
+  <si>
+    <t>380519941019;49</t>
+  </si>
+  <si>
+    <t>380519942570;45</t>
+  </si>
+  <si>
+    <t>380519941269;45</t>
+  </si>
+  <si>
+    <t>380519942569;45</t>
+  </si>
+  <si>
+    <t>380519941020;49</t>
+  </si>
+  <si>
+    <t>380519946245;50</t>
+  </si>
+  <si>
+    <t>380519946243;50</t>
+  </si>
+  <si>
+    <t>380519944775;50</t>
+  </si>
+  <si>
+    <t>380519946063;50</t>
+  </si>
+  <si>
+    <t>380519946063;45</t>
+  </si>
+  <si>
+    <t>380519946245;46</t>
+  </si>
+  <si>
+    <t>380519945574;50</t>
+  </si>
+  <si>
+    <t>380519945574;46</t>
+  </si>
+  <si>
+    <t>380204432508;50</t>
+  </si>
+  <si>
+    <t>380519942588;50</t>
+  </si>
+  <si>
+    <t>380519946243;44</t>
+  </si>
+  <si>
+    <t>380519944775;36</t>
+  </si>
+  <si>
+    <t>380204432508;16</t>
+  </si>
+  <si>
+    <t>380519943686;50</t>
+  </si>
+  <si>
+    <t>380519940988;50</t>
+  </si>
+  <si>
+    <t>380519946055;50</t>
+  </si>
+  <si>
+    <t>380519946247;50</t>
+  </si>
+  <si>
+    <t>380519942571;50</t>
+  </si>
+  <si>
+    <t>380519942589;50</t>
+  </si>
+  <si>
+    <t>380519942589;4</t>
+  </si>
+  <si>
+    <t>380519943686;47</t>
+  </si>
+  <si>
+    <t>380519940988;22</t>
+  </si>
+  <si>
+    <t>380519946055;44</t>
+  </si>
+  <si>
+    <t>380519946247;30</t>
+  </si>
+  <si>
+    <t>Формат для масового поповнення</t>
+  </si>
+  <si>
+    <t>380519942587;50</t>
+  </si>
+  <si>
+    <t>380204471288;50</t>
+  </si>
+  <si>
+    <t>380519943434;50</t>
+  </si>
+  <si>
+    <t>380519940928;50</t>
+  </si>
+  <si>
+    <t>380519940945;50</t>
+  </si>
+  <si>
+    <t>380519942681;50</t>
+  </si>
+  <si>
+    <t>380519972063;49</t>
+  </si>
+  <si>
+    <t>380519942681;49</t>
+  </si>
+  <si>
+    <t>380519972063;41</t>
+  </si>
+  <si>
+    <t>'380519940928;50</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>380687916179;70</t>
+  </si>
+  <si>
+    <t>380204432511;80</t>
+  </si>
+  <si>
+    <t>380519942585;50</t>
+  </si>
+  <si>
+    <t>380519940941;50</t>
+  </si>
+  <si>
+    <t>380519943690;50</t>
+  </si>
+  <si>
+    <t>380519940945;46</t>
+  </si>
+  <si>
+    <t>380519942585;49</t>
+  </si>
+  <si>
+    <t>380519940941;47</t>
+  </si>
+  <si>
+    <t>380519948387;20</t>
+  </si>
+  <si>
+    <t>380519943693;50</t>
+  </si>
+  <si>
+    <t>380519943697;50</t>
+  </si>
+  <si>
+    <t>380519943691;50</t>
+  </si>
+  <si>
+    <t>380519943689;50</t>
+  </si>
+  <si>
+    <t>380519943705;50</t>
+  </si>
+  <si>
+    <t>380519943698;50</t>
+  </si>
+  <si>
+    <t>380519943694;50</t>
+  </si>
+  <si>
+    <t>380519945340;50</t>
+  </si>
+  <si>
+    <t>380519941274;50</t>
+  </si>
+  <si>
+    <t>380519943690;28</t>
+  </si>
+  <si>
+    <t>380519942563;50</t>
+  </si>
+  <si>
+    <t>380962906519;75</t>
+  </si>
+  <si>
+    <t>380519943697;28</t>
+  </si>
+  <si>
+    <t>380519943691;28</t>
+  </si>
+  <si>
+    <t>380519943689;28</t>
+  </si>
+  <si>
+    <t>380519943705;28</t>
+  </si>
+  <si>
+    <t>380519943698;28</t>
+  </si>
+  <si>
+    <t>380519943694;38</t>
+  </si>
+  <si>
+    <t>380519945340;45</t>
+  </si>
+  <si>
+    <t>380519940894;50</t>
+  </si>
+  <si>
+    <t>380519945561;50</t>
+  </si>
+  <si>
+    <t>380519943688;50</t>
+  </si>
+  <si>
+    <t>380519944941;50</t>
+  </si>
+  <si>
+    <t>380519945029;50</t>
+  </si>
+  <si>
+    <t>380519946249;50</t>
+  </si>
+  <si>
+    <t>380519946246;50</t>
+  </si>
+  <si>
+    <t>380519941274;45</t>
+  </si>
+  <si>
+    <t>380204475312;80</t>
+  </si>
+  <si>
+    <t>380519940894;22</t>
+  </si>
+  <si>
+    <t>380978677571;70</t>
+  </si>
+  <si>
+    <t>'380978677571;70</t>
+  </si>
+  <si>
+    <t>380519945561;45</t>
+  </si>
+  <si>
+    <t>380519947481;20</t>
+  </si>
+  <si>
+    <t>380519947482;20</t>
+  </si>
+  <si>
+    <t>380519948395;20</t>
+  </si>
+  <si>
+    <t>380519947481;5</t>
+  </si>
+  <si>
+    <t>380519944941;48</t>
+  </si>
+  <si>
+    <t>380519948883;49</t>
+  </si>
+  <si>
+    <t>380519948883;34</t>
+  </si>
+  <si>
+    <t>380519945029;36</t>
+  </si>
+  <si>
+    <t>380519944940;50</t>
+  </si>
+  <si>
+    <t>380519940946;50</t>
+  </si>
+  <si>
+    <t>380519943427;50</t>
+  </si>
+  <si>
+    <t>380519944937;50</t>
+  </si>
+  <si>
+    <t>380519943696;50</t>
+  </si>
+  <si>
+    <t>380519943703;50</t>
+  </si>
+  <si>
+    <t>380988135568;70</t>
+  </si>
+  <si>
+    <t>380519948884;49</t>
+  </si>
+  <si>
+    <t>380519948884;35</t>
+  </si>
+  <si>
+    <t>380519944940;44</t>
+  </si>
+  <si>
+    <t>380519943427;9</t>
+  </si>
+  <si>
+    <t>380519947478;20</t>
+  </si>
+  <si>
+    <t>380519947480;20</t>
+  </si>
+  <si>
+    <t>380519944937;40</t>
+  </si>
+  <si>
+    <t>380519943696;28</t>
+  </si>
+  <si>
+    <t>380519943703;49</t>
+  </si>
+  <si>
+    <t>380995501659;35</t>
+  </si>
+  <si>
+    <t>380204432509;80</t>
+  </si>
+  <si>
+    <t>'380204432509;80</t>
+  </si>
+  <si>
+    <t>380204482812;80</t>
+  </si>
+  <si>
+    <t>380204475313;80</t>
+  </si>
+  <si>
+    <t>380204471278;80</t>
+  </si>
+  <si>
+    <t>380201032524;80</t>
+  </si>
+  <si>
+    <t>380204482712;80</t>
+  </si>
+  <si>
+    <t>380204482690;80</t>
+  </si>
+  <si>
+    <t>380204482713;80</t>
+  </si>
+  <si>
+    <t>380204482691;80</t>
+  </si>
+  <si>
+    <t>380204482693;80</t>
+  </si>
+  <si>
+    <t>380204471276;80</t>
+  </si>
+  <si>
+    <t>380204471296;80</t>
+  </si>
+  <si>
+    <t>380204471280;80</t>
+  </si>
+  <si>
+    <t>380204498149;80</t>
+  </si>
+  <si>
+    <t>380204486395;80</t>
+  </si>
+  <si>
+    <t>380204486369;80</t>
+  </si>
+  <si>
+    <t>380204486394;80</t>
+  </si>
+  <si>
+    <t>380204486391;80</t>
+  </si>
+  <si>
+    <t>380519944932;50</t>
+  </si>
+  <si>
+    <t>380519946237;50</t>
+  </si>
+  <si>
+    <t>380519940971;50</t>
+  </si>
+  <si>
+    <t>380519944938;50</t>
+  </si>
+  <si>
+    <t>380519940971;43</t>
+  </si>
+  <si>
+    <t>380519944961;50</t>
+  </si>
+  <si>
+    <t>380519944961;36</t>
+  </si>
+  <si>
+    <t>380968561300;70</t>
+  </si>
+  <si>
+    <t>'380687916193;70</t>
+  </si>
+  <si>
+    <t>380686088473;70</t>
+  </si>
+  <si>
+    <t>'380968561300;70</t>
+  </si>
+  <si>
+    <t>380687916193;70</t>
+  </si>
+  <si>
+    <t>380519944938;48</t>
+  </si>
+  <si>
+    <t>380519945341;50</t>
+  </si>
+  <si>
+    <t>380519945341;49</t>
+  </si>
+  <si>
+    <t>380519945563;50</t>
+  </si>
+  <si>
+    <t>380519945563;49</t>
+  </si>
+  <si>
+    <t>380519944773;50</t>
+  </si>
+  <si>
+    <t>380519944773;37</t>
+  </si>
+  <si>
+    <t>380519944934;50</t>
+  </si>
+  <si>
+    <t>380519944934;44</t>
+  </si>
+  <si>
+    <t>380519940922;50</t>
+  </si>
+  <si>
+    <t>380519940922;22</t>
+  </si>
+  <si>
+    <t>380519941273;50</t>
+  </si>
+  <si>
+    <t>380519941273;4</t>
+  </si>
+  <si>
+    <t>380519942584;50</t>
+  </si>
+  <si>
+    <t>380519942584;4</t>
+  </si>
+  <si>
+    <t>380519945569;50</t>
+  </si>
+  <si>
+    <t>380519945569;45</t>
+  </si>
+  <si>
+    <t>380519945566;50</t>
+  </si>
+  <si>
+    <t>380519944935;50</t>
+  </si>
+  <si>
+    <t>380519945565;50</t>
+  </si>
+  <si>
+    <t>380519945338;50</t>
+  </si>
+  <si>
+    <t>380519946238;50</t>
+  </si>
+  <si>
+    <t>380519944933;50</t>
+  </si>
+  <si>
+    <t>380519945348;50</t>
+  </si>
+  <si>
+    <t>380519945566;45</t>
+  </si>
+  <si>
+    <t>380519944939;50</t>
+  </si>
+  <si>
+    <t>380519944939;48</t>
+  </si>
+  <si>
+    <t>380519944935;48</t>
+  </si>
+  <si>
+    <t>380519945565;49</t>
+  </si>
+  <si>
+    <t>380519945338;49</t>
+  </si>
+  <si>
+    <t>380519946238;49</t>
+  </si>
+  <si>
+    <t>380519944933;49</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>380519945028;50</t>
+  </si>
+  <si>
+    <t>380519945348;49</t>
+  </si>
+  <si>
+    <t>380519945399;50</t>
+  </si>
+  <si>
+    <t>380519944778;50</t>
+  </si>
+  <si>
+    <t>380519945560;50</t>
+  </si>
+  <si>
+    <t>380519946256;50</t>
+  </si>
+  <si>
+    <t>380204432513;50</t>
+  </si>
+  <si>
+    <t>380519941270;50</t>
+  </si>
+  <si>
+    <t>380519942562;50</t>
+  </si>
+  <si>
+    <t>380519940888;50</t>
+  </si>
+  <si>
+    <t>380519942567;50</t>
+  </si>
+  <si>
+    <t>380519945568;50</t>
+  </si>
+  <si>
+    <t>380519945400;50</t>
+  </si>
+  <si>
+    <t>380519943425;50</t>
+  </si>
+  <si>
+    <t>380519943430;50</t>
+  </si>
+  <si>
+    <t>380519943431;50</t>
+  </si>
+  <si>
+    <t>380519941600;50</t>
+  </si>
+  <si>
+    <t>380519945567;50</t>
+  </si>
+  <si>
+    <t>380519946252;50</t>
+  </si>
+  <si>
+    <t>380519943701;50</t>
+  </si>
+  <si>
+    <t>380519943432;50</t>
+  </si>
+  <si>
+    <t>380519943692;50</t>
+  </si>
+  <si>
+    <t>380519946240;50</t>
+  </si>
+  <si>
+    <t>380519940973;50</t>
+  </si>
+  <si>
+    <t>380204498151;50</t>
+  </si>
+  <si>
+    <t>380519945343;50</t>
+  </si>
+  <si>
+    <t>380519945399;46</t>
+  </si>
+  <si>
+    <t>380687916237;70</t>
+  </si>
+  <si>
+    <t>380519945028;35</t>
+  </si>
+  <si>
+    <t>380519945403;50</t>
+  </si>
+  <si>
+    <t>380519945403;45</t>
+  </si>
+  <si>
+    <t>380519945557;50</t>
+  </si>
+  <si>
+    <t>380519945557;49</t>
+  </si>
+  <si>
+    <t>380519942590;50</t>
+  </si>
+  <si>
+    <t>380681173285;70</t>
+  </si>
+  <si>
+    <t>380519944778;36</t>
+  </si>
+  <si>
+    <t>380519945558;50</t>
+  </si>
+  <si>
+    <t>380519945559;50</t>
+  </si>
+  <si>
+    <t>380519945559;49</t>
+  </si>
+  <si>
+    <t>380978678364;70</t>
+  </si>
+  <si>
+    <t>380519945347;50</t>
+  </si>
+  <si>
+    <t>380519945347;49</t>
+  </si>
+  <si>
+    <t>380519943701;28</t>
+  </si>
+  <si>
+    <t>380519945560;46</t>
+  </si>
+  <si>
+    <t>380519941270;48</t>
+  </si>
+  <si>
+    <t>380519946256;49</t>
+  </si>
+  <si>
+    <t>380204432513;28</t>
+  </si>
+  <si>
+    <t>380519942562;4</t>
+  </si>
+  <si>
+    <t>380519943700;50</t>
+  </si>
+  <si>
+    <t>380519943700;28</t>
+  </si>
+  <si>
+    <t>380685816720;50</t>
+  </si>
+  <si>
+    <t>380519940888;18</t>
+  </si>
+  <si>
+    <t>380519943704;50</t>
+  </si>
+  <si>
+    <t>380519943704;47</t>
+  </si>
+  <si>
+    <t>380519942566;50</t>
+  </si>
+  <si>
+    <t>380519942566;44</t>
+  </si>
+  <si>
+    <t>380519946254;50</t>
+  </si>
+  <si>
+    <t>380519943635;50</t>
+  </si>
+  <si>
+    <t>380519943635;22</t>
+  </si>
+  <si>
+    <t>380519945573;50</t>
+  </si>
+  <si>
+    <t>380519945573;45</t>
+  </si>
+  <si>
+    <t>380519945562;45</t>
+  </si>
+  <si>
+    <t>380519945568;45</t>
+  </si>
+  <si>
+    <t>380519945562;50</t>
+  </si>
+  <si>
+    <t>380519945400;45</t>
+  </si>
+  <si>
+    <t>380519945570;50</t>
+  </si>
+  <si>
+    <t>380519945570;46</t>
+  </si>
+  <si>
+    <t>380519945567;46</t>
+  </si>
+  <si>
+    <t>380519946250;50</t>
+  </si>
+  <si>
+    <t>380519946250;45</t>
+  </si>
+  <si>
+    <t>380519943433;50</t>
+  </si>
+  <si>
+    <t>'380519943433;50</t>
+  </si>
+  <si>
+    <t>380519945564;50</t>
+  </si>
+  <si>
+    <t>380519945564;45</t>
+  </si>
+  <si>
+    <t>380519945346;45</t>
+  </si>
+  <si>
+    <t>380519945351;45</t>
+  </si>
+  <si>
+    <t>380519945346;50</t>
+  </si>
+  <si>
+    <t>380519945342;45</t>
+  </si>
+  <si>
+    <t>380519945572;45</t>
+  </si>
+  <si>
+    <t>380519945571;45</t>
+  </si>
+  <si>
+    <t>380519945351;50</t>
+  </si>
+  <si>
+    <t>380519945342;50</t>
+  </si>
+  <si>
+    <t>380519946056;50</t>
+  </si>
+  <si>
+    <t>380519946056;49</t>
+  </si>
+  <si>
+    <t>380519945343;49</t>
+  </si>
+  <si>
+    <t>380519944936;50</t>
+  </si>
+  <si>
+    <t>380519944936;49</t>
+  </si>
+  <si>
+    <t>380519945572;50</t>
+  </si>
+  <si>
+    <t>380519946252;30</t>
+  </si>
+  <si>
+    <t>380667266160;35</t>
+  </si>
+  <si>
+    <t>380519945571;50</t>
+  </si>
+  <si>
+    <t>380519948398;20</t>
+  </si>
+  <si>
+    <t>380519946240;4</t>
+  </si>
+  <si>
+    <t>380663681339;35</t>
+  </si>
+  <si>
+    <t>380519940973;47</t>
+  </si>
+  <si>
+    <t>380978302991;70</t>
+  </si>
+  <si>
+    <t>380519948400;20</t>
+  </si>
+  <si>
+    <t>380519944782;50</t>
+  </si>
+  <si>
+    <t>380519944782;36</t>
+  </si>
+  <si>
+    <t>380519945027;50</t>
+  </si>
+  <si>
+    <t>380519945027;36</t>
+  </si>
+  <si>
+    <t>380519948388;20</t>
+  </si>
+  <si>
+    <t>380519948388;19</t>
+  </si>
+  <si>
+    <t>380681891284;70</t>
+  </si>
+  <si>
+    <t>380519943695;50</t>
+  </si>
+  <si>
+    <t>380519943695;48</t>
+  </si>
+  <si>
+    <t>380519946253;50</t>
+  </si>
+  <si>
+    <t>380519946253;45</t>
+  </si>
+  <si>
+    <t>380519946255;50</t>
+  </si>
+  <si>
+    <t>380519946255;44</t>
+  </si>
+  <si>
+    <t>380995501677;35</t>
+  </si>
+  <si>
+    <t>380519942592;50</t>
+  </si>
+  <si>
+    <t>380519942592;48</t>
+  </si>
+  <si>
+    <t>380995501638;35</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>380519946242;50</t>
+  </si>
+  <si>
+    <t>380519946239;50</t>
+  </si>
+  <si>
+    <t>380519946239;26</t>
+  </si>
+  <si>
+    <t>'380204486369;80</t>
+  </si>
+  <si>
+    <t>'380204486394;80</t>
+  </si>
+  <si>
+    <t>380687916113;70</t>
+  </si>
+  <si>
+    <t>'380204486391;80</t>
+  </si>
+  <si>
+    <t>380519948396;20</t>
+  </si>
+  <si>
+    <t>380519972061;49</t>
+  </si>
+  <si>
+    <t>380519972061;11</t>
+  </si>
+  <si>
+    <t>380519946244;50</t>
+  </si>
+  <si>
+    <t>380519946244;46</t>
+  </si>
+  <si>
+    <t>380519942568;50</t>
+  </si>
+  <si>
+    <t>380519940925;50</t>
+  </si>
+  <si>
+    <t>380519943706;50</t>
+  </si>
+  <si>
+    <t>380519940897;50</t>
+  </si>
+  <si>
+    <t>380519940925;22</t>
+  </si>
+  <si>
+    <t>380519948399;20</t>
+  </si>
+  <si>
+    <t>(38‎0519948399</t>
+  </si>
+  <si>
+    <t>380519943706;28</t>
+  </si>
+  <si>
+    <t>380519940897;42</t>
   </si>
 </sst>
 </file>
@@ -1263,9 +2238,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1546,20 +2524,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:O214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="C202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1572,8 +2554,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" s="3">
+        <v>43040</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43070</v>
+      </c>
+      <c r="H1" s="3">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1586,8 +2580,14 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1600,8 +2600,14 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1614,8 +2620,14 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1628,8 +2640,14 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1642,8 +2660,14 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1656,8 +2680,14 @@
       <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1670,8 +2700,14 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1684,8 +2720,14 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1698,8 +2740,14 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1712,8 +2760,14 @@
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1726,8 +2780,14 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1740,8 +2800,14 @@
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1754,8 +2820,14 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1768,8 +2840,14 @@
       <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1782,8 +2860,14 @@
       <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1796,8 +2880,14 @@
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1810,8 +2900,14 @@
       <c r="D18" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1822,10 +2918,16 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1839,7 +2941,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1852,8 +2954,14 @@
       <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1866,8 +2974,14 @@
       <c r="D22" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1880,8 +2994,20 @@
       <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G23" t="s">
+        <v>460</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1894,8 +3020,14 @@
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1908,8 +3040,14 @@
       <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1922,8 +3060,14 @@
       <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1936,8 +3080,14 @@
       <c r="D27" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1950,8 +3100,14 @@
       <c r="D28" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1964,8 +3120,17 @@
       <c r="D29" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1978,8 +3143,14 @@
       <c r="D30" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1992,8 +3163,14 @@
       <c r="D31" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2006,8 +3183,14 @@
       <c r="D32" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2020,8 +3203,14 @@
       <c r="D33" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2034,8 +3223,14 @@
       <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2048,8 +3243,14 @@
       <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2062,8 +3263,14 @@
       <c r="D36" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F36" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2076,8 +3283,14 @@
       <c r="D37" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2090,8 +3303,14 @@
       <c r="D38" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2104,8 +3323,14 @@
       <c r="D39" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2118,8 +3343,14 @@
       <c r="D40" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2132,8 +3363,14 @@
       <c r="D41" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2146,8 +3383,14 @@
       <c r="D42" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2161,7 +3404,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2175,7 +3418,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2188,8 +3431,32 @@
       <c r="D45" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F45" t="s">
+        <v>460</v>
+      </c>
+      <c r="G45" t="s">
+        <v>460</v>
+      </c>
+      <c r="H45" t="s">
+        <v>460</v>
+      </c>
+      <c r="I45" t="s">
+        <v>460</v>
+      </c>
+      <c r="J45" t="s">
+        <v>460</v>
+      </c>
+      <c r="K45" t="s">
+        <v>460</v>
+      </c>
+      <c r="L45" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2202,8 +3469,14 @@
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2216,8 +3489,14 @@
       <c r="D47" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2230,8 +3509,14 @@
       <c r="D48" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2244,8 +3529,29 @@
       <c r="D49" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F49" t="s">
+        <v>460</v>
+      </c>
+      <c r="G49" t="s">
+        <v>460</v>
+      </c>
+      <c r="H49" t="s">
+        <v>460</v>
+      </c>
+      <c r="I49" t="s">
+        <v>460</v>
+      </c>
+      <c r="J49" t="s">
+        <v>460</v>
+      </c>
+      <c r="K49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2258,8 +3564,14 @@
       <c r="D50" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2272,8 +3584,14 @@
       <c r="D51" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2286,8 +3604,14 @@
       <c r="D52" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2300,8 +3624,14 @@
       <c r="D53" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2314,8 +3644,14 @@
       <c r="D54" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2328,8 +3664,14 @@
       <c r="D55" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2342,8 +3684,14 @@
       <c r="D56" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2356,8 +3704,14 @@
       <c r="D57" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2370,8 +3724,14 @@
       <c r="D58" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2384,8 +3744,14 @@
       <c r="D59" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2396,10 +3762,16 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2412,8 +3784,14 @@
       <c r="D61" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2426,8 +3804,26 @@
       <c r="D62" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F62" t="s">
+        <v>460</v>
+      </c>
+      <c r="G62" t="s">
+        <v>460</v>
+      </c>
+      <c r="H62" t="s">
+        <v>460</v>
+      </c>
+      <c r="I62" t="s">
+        <v>460</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2440,8 +3836,14 @@
       <c r="D63" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2454,8 +3856,29 @@
       <c r="D64" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F64" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" t="s">
+        <v>460</v>
+      </c>
+      <c r="H64" t="s">
+        <v>460</v>
+      </c>
+      <c r="I64" t="s">
+        <v>460</v>
+      </c>
+      <c r="J64" t="s">
+        <v>460</v>
+      </c>
+      <c r="K64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2468,8 +3891,29 @@
       <c r="D65" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F65" t="s">
+        <v>460</v>
+      </c>
+      <c r="G65" t="s">
+        <v>460</v>
+      </c>
+      <c r="H65" t="s">
+        <v>460</v>
+      </c>
+      <c r="I65" t="s">
+        <v>460</v>
+      </c>
+      <c r="J65" t="s">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2482,8 +3926,14 @@
       <c r="D66" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2496,8 +3946,14 @@
       <c r="D67" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2510,8 +3966,14 @@
       <c r="D68" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2524,8 +3986,14 @@
       <c r="D69" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2538,8 +4006,14 @@
       <c r="D70" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2552,8 +4026,14 @@
       <c r="D71" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2566,8 +4046,14 @@
       <c r="D72" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2580,8 +4066,14 @@
       <c r="D73" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2594,8 +4086,14 @@
       <c r="D74" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2608,8 +4106,20 @@
       <c r="D75" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F75" t="s">
+        <v>460</v>
+      </c>
+      <c r="G75" t="s">
+        <v>460</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2622,8 +4132,29 @@
       <c r="D76" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F76" t="s">
+        <v>460</v>
+      </c>
+      <c r="G76" t="s">
+        <v>460</v>
+      </c>
+      <c r="H76" t="s">
+        <v>460</v>
+      </c>
+      <c r="I76" t="s">
+        <v>460</v>
+      </c>
+      <c r="J76" t="s">
+        <v>460</v>
+      </c>
+      <c r="K76" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2636,8 +4167,17 @@
       <c r="D77" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F77" t="s">
+        <v>460</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2650,8 +4190,14 @@
       <c r="D78" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2664,8 +4210,14 @@
       <c r="D79" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2678,8 +4230,14 @@
       <c r="D80" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2692,8 +4250,29 @@
       <c r="D81" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F81" t="s">
+        <v>460</v>
+      </c>
+      <c r="G81" t="s">
+        <v>460</v>
+      </c>
+      <c r="H81" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" t="s">
+        <v>460</v>
+      </c>
+      <c r="J81" t="s">
+        <v>460</v>
+      </c>
+      <c r="K81" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2706,8 +4285,14 @@
       <c r="D82" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F82" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2720,8 +4305,14 @@
       <c r="D83" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F83" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2735,7 +4326,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2748,8 +4339,14 @@
       <c r="D85" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2762,8 +4359,14 @@
       <c r="D86" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2776,8 +4379,17 @@
       <c r="D87" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F87" t="s">
+        <v>460</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2790,8 +4402,14 @@
       <c r="D88" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F88" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2804,8 +4422,14 @@
       <c r="D89" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F89" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2818,8 +4442,17 @@
       <c r="D90" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F90" t="s">
+        <v>460</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2832,8 +4465,14 @@
       <c r="D91" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2846,8 +4485,14 @@
       <c r="D92" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2860,8 +4505,14 @@
       <c r="D93" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2874,8 +4525,14 @@
       <c r="D94" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2888,8 +4545,14 @@
       <c r="D95" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2902,8 +4565,14 @@
       <c r="D96" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2916,8 +4585,14 @@
       <c r="D97" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2931,7 +4606,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2944,8 +4619,14 @@
       <c r="D99" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2958,8 +4639,14 @@
       <c r="D100" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2972,8 +4659,14 @@
       <c r="D101" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2986,8 +4679,14 @@
       <c r="D102" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3000,8 +4699,14 @@
       <c r="D103" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3014,8 +4719,17 @@
       <c r="D104" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F104" t="s">
+        <v>460</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3028,8 +4742,14 @@
       <c r="D105" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3042,8 +4762,14 @@
       <c r="D106" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3056,8 +4782,14 @@
       <c r="D107" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3070,8 +4802,14 @@
       <c r="D108" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3084,8 +4822,14 @@
       <c r="D109" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3098,8 +4842,14 @@
       <c r="D110" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3112,8 +4862,14 @@
       <c r="D111" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3126,8 +4882,14 @@
       <c r="D112" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3140,8 +4902,14 @@
       <c r="D113" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3154,8 +4922,14 @@
       <c r="D114" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3168,8 +4942,14 @@
       <c r="D115" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3182,8 +4962,14 @@
       <c r="D116" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3196,8 +4982,17 @@
       <c r="D117" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F117" t="s">
+        <v>460</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3210,8 +5005,14 @@
       <c r="D118" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3224,8 +5025,14 @@
       <c r="D119" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3236,10 +5043,16 @@
         <v>219</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3252,8 +5065,14 @@
       <c r="D121" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3266,8 +5085,23 @@
       <c r="D122" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F122" t="s">
+        <v>460</v>
+      </c>
+      <c r="G122" t="s">
+        <v>460</v>
+      </c>
+      <c r="H122" t="s">
+        <v>460</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3280,8 +5114,9 @@
       <c r="D123" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3294,8 +5129,14 @@
       <c r="D124" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3308,8 +5149,14 @@
       <c r="D125" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3322,8 +5169,20 @@
       <c r="D126" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F126" t="s">
+        <v>460</v>
+      </c>
+      <c r="G126" t="s">
+        <v>460</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3336,8 +5195,14 @@
       <c r="D127" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3350,8 +5215,14 @@
       <c r="D128" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3364,8 +5235,14 @@
       <c r="D129" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3376,10 +5253,16 @@
         <v>236</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3392,8 +5275,26 @@
       <c r="D131" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F131" t="s">
+        <v>460</v>
+      </c>
+      <c r="G131" t="s">
+        <v>460</v>
+      </c>
+      <c r="H131" t="s">
+        <v>460</v>
+      </c>
+      <c r="I131" t="s">
+        <v>460</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3406,8 +5307,9 @@
       <c r="D132" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3420,8 +5322,9 @@
       <c r="D133" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3434,8 +5337,14 @@
       <c r="D134" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3448,8 +5357,14 @@
       <c r="D135" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3462,8 +5377,9 @@
       <c r="D136" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3476,8 +5392,14 @@
       <c r="D137" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -3485,13 +5407,19 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3504,8 +5432,14 @@
       <c r="D139" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -3518,8 +5452,14 @@
       <c r="D140" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -3532,8 +5472,14 @@
       <c r="D141" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -3546,8 +5492,14 @@
       <c r="D142" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -3560,8 +5512,14 @@
       <c r="D143" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -3574,8 +5532,14 @@
       <c r="D144" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -3588,8 +5552,14 @@
       <c r="D145" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3602,8 +5572,14 @@
       <c r="D146" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -3616,8 +5592,14 @@
       <c r="D147" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -3630,8 +5612,14 @@
       <c r="D148" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -3644,8 +5632,14 @@
       <c r="D149" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -3658,8 +5652,14 @@
       <c r="D150" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -3672,8 +5672,14 @@
       <c r="D151" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F151" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -3686,8 +5692,14 @@
       <c r="D152" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -3700,8 +5712,14 @@
       <c r="D153" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -3714,8 +5732,14 @@
       <c r="D154" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -3728,8 +5752,14 @@
       <c r="D155" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -3742,8 +5772,14 @@
       <c r="D156" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -3756,8 +5792,14 @@
       <c r="D157" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3770,8 +5812,20 @@
       <c r="D158" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F158" t="s">
+        <v>460</v>
+      </c>
+      <c r="G158" t="s">
+        <v>460</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -3784,8 +5838,14 @@
       <c r="D159" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -3798,8 +5858,14 @@
       <c r="D160" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -3812,8 +5878,14 @@
       <c r="D161" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -3826,8 +5898,14 @@
       <c r="D162" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -3840,8 +5918,26 @@
       <c r="D163" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F163" t="s">
+        <v>460</v>
+      </c>
+      <c r="G163" t="s">
+        <v>460</v>
+      </c>
+      <c r="H163" t="s">
+        <v>460</v>
+      </c>
+      <c r="I163" t="s">
+        <v>460</v>
+      </c>
+      <c r="J163" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -3854,8 +5950,23 @@
       <c r="D164" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F164" t="s">
+        <v>460</v>
+      </c>
+      <c r="G164" t="s">
+        <v>460</v>
+      </c>
+      <c r="H164" t="s">
+        <v>460</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -3866,10 +5977,16 @@
         <v>298</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -3882,8 +5999,14 @@
       <c r="D166" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -3896,8 +6019,14 @@
       <c r="D167" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3910,8 +6039,14 @@
       <c r="D168" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -3924,8 +6059,14 @@
       <c r="D169" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -3938,8 +6079,14 @@
       <c r="D170" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -3952,8 +6099,14 @@
       <c r="D171" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -3966,8 +6119,14 @@
       <c r="D172" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F172" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -3978,10 +6137,11 @@
         <v>313</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -3994,8 +6154,14 @@
       <c r="D174" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4008,8 +6174,14 @@
       <c r="D175" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4022,8 +6194,41 @@
       <c r="D176" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F176" t="s">
+        <v>460</v>
+      </c>
+      <c r="G176" t="s">
+        <v>460</v>
+      </c>
+      <c r="H176" t="s">
+        <v>460</v>
+      </c>
+      <c r="I176" t="s">
+        <v>460</v>
+      </c>
+      <c r="J176" t="s">
+        <v>460</v>
+      </c>
+      <c r="K176" t="s">
+        <v>460</v>
+      </c>
+      <c r="L176" t="s">
+        <v>460</v>
+      </c>
+      <c r="M176" t="s">
+        <v>460</v>
+      </c>
+      <c r="N176" t="s">
+        <v>460</v>
+      </c>
+      <c r="O176" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4031,251 +6236,389 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
+        <v>321</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="D178" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="D179" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F179" t="s">
+        <v>460</v>
+      </c>
+      <c r="G179" t="s">
+        <v>460</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="D180" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F180" t="s">
+        <v>460</v>
+      </c>
+      <c r="G180" t="s">
+        <v>460</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="D181" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="D182" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="D183" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F183" t="s">
+        <v>460</v>
+      </c>
+      <c r="G183" t="s">
+        <v>460</v>
+      </c>
+      <c r="H183" t="s">
+        <v>460</v>
+      </c>
+      <c r="I183" t="s">
+        <v>460</v>
+      </c>
+      <c r="J183" t="s">
+        <v>460</v>
+      </c>
+      <c r="K183" t="s">
+        <v>460</v>
+      </c>
+      <c r="L183" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="D184" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="D185" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="D186" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1</v>
-      </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="D187" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="D188" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="D189" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1</v>
-      </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="D190" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="D191" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="D192" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="D193" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="D194" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4283,13 +6626,14 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>356</v>
-      </c>
-      <c r="D195" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4297,250 +6641,389 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>357</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="D197" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="D198" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="F198" t="s">
+        <v>460</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1</v>
-      </c>
-      <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="D199" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F199" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1</v>
-      </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="D200" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F200" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="D201" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>1</v>
-      </c>
-      <c r="B202">
-        <v>1</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="D202" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F202" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>1</v>
-      </c>
-      <c r="B203">
-        <v>1</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="D203" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F203" t="s">
+        <v>460</v>
+      </c>
+      <c r="G203" t="s">
+        <v>460</v>
+      </c>
+      <c r="H203" t="s">
+        <v>460</v>
+      </c>
+      <c r="I203" t="s">
+        <v>460</v>
+      </c>
+      <c r="J203" t="s">
+        <v>460</v>
+      </c>
+      <c r="K203" t="s">
+        <v>460</v>
+      </c>
+      <c r="L203" t="s">
+        <v>460</v>
+      </c>
+      <c r="M203" t="s">
+        <v>460</v>
+      </c>
+      <c r="N203" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="D204" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="D205" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>1</v>
-      </c>
-      <c r="B206">
-        <v>1</v>
-      </c>
-      <c r="C206" t="s">
+      <c r="D206" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1</v>
-      </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-      <c r="C207" t="s">
+      <c r="D207" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F207" t="s">
+        <v>460</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208">
-        <v>1</v>
-      </c>
-      <c r="C208" t="s">
+      <c r="D208" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>391</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F209" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>387</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>385</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
+      <c r="D212" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
         <v>392</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="C210" t="s">
-        <v>388</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211" t="s">
-        <v>386</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="C212" t="s">
-        <v>384</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C213" t="s">
-        <v>393</v>
-      </c>
       <c r="D213" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>398</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>400</v>
+      <c r="E214" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="729">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1791,9 +1791,6 @@
     <t>380519944933;49</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>380519945028;50</t>
   </si>
   <si>
@@ -2200,6 +2197,15 @@
   </si>
   <si>
     <t>380519940897;42</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>380519940974;50</t>
+  </si>
+  <si>
+    <t>38051990974;50</t>
   </si>
 </sst>
 </file>
@@ -2524,10 +2530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O214"/>
+  <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" topLeftCell="D121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4826,7 +4832,7 @@
         <v>581</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4843,10 +4849,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4863,10 +4869,10 @@
         <v>202</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4883,10 +4889,10 @@
         <v>204</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4903,10 +4909,10 @@
         <v>206</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4923,10 +4929,10 @@
         <v>208</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4943,10 +4949,10 @@
         <v>210</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4963,10 +4969,10 @@
         <v>212</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4983,13 +4989,13 @@
         <v>214</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F117" t="s">
         <v>460</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5006,10 +5012,10 @@
         <v>216</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5026,10 +5032,10 @@
         <v>218</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5046,10 +5052,10 @@
         <v>395</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5066,10 +5072,10 @@
         <v>221</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5082,24 +5088,13 @@
       <c r="C122" t="s">
         <v>222</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>223</v>
+      <c r="D122" s="4" t="s">
+        <v>727</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="F122" t="s">
-        <v>460</v>
-      </c>
-      <c r="G122" t="s">
-        <v>460</v>
-      </c>
-      <c r="H122" t="s">
-        <v>460</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>633</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -5130,10 +5125,10 @@
         <v>226</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5150,10 +5145,10 @@
         <v>228</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5170,7 +5165,7 @@
         <v>230</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F126" t="s">
         <v>460</v>
@@ -5179,7 +5174,7 @@
         <v>460</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,10 +5191,10 @@
         <v>231</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,10 +5211,10 @@
         <v>233</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5236,10 +5231,10 @@
         <v>235</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5256,10 +5251,10 @@
         <v>397</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5276,7 +5271,7 @@
         <v>238</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F131" t="s">
         <v>460</v>
@@ -5291,7 +5286,7 @@
         <v>460</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5338,10 +5333,10 @@
         <v>242</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5358,10 +5353,10 @@
         <v>243</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5393,10 +5388,10 @@
         <v>245</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5413,10 +5408,10 @@
         <v>246</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5433,10 +5428,10 @@
         <v>248</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5453,10 +5448,10 @@
         <v>250</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5473,10 +5468,10 @@
         <v>252</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5513,10 +5508,10 @@
         <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5533,10 +5528,10 @@
         <v>258</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5553,10 +5548,10 @@
         <v>260</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5573,10 +5568,10 @@
         <v>262</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5593,10 +5588,10 @@
         <v>264</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5613,10 +5608,10 @@
         <v>266</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5633,10 +5628,10 @@
         <v>268</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5653,10 +5648,10 @@
         <v>270</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5673,10 +5668,10 @@
         <v>272</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F151" t="s">
         <v>661</v>
-      </c>
-      <c r="F151" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5693,10 +5688,10 @@
         <v>274</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5713,10 +5708,10 @@
         <v>276</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5733,10 +5728,10 @@
         <v>278</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5753,10 +5748,10 @@
         <v>279</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5773,10 +5768,10 @@
         <v>281</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5793,10 +5788,10 @@
         <v>283</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5813,16 +5808,16 @@
         <v>285</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F158" t="s">
+        <v>460</v>
+      </c>
+      <c r="G158" t="s">
+        <v>460</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="F158" t="s">
-        <v>460</v>
-      </c>
-      <c r="G158" t="s">
-        <v>460</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5839,10 +5834,10 @@
         <v>287</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5859,10 +5854,10 @@
         <v>289</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5879,10 +5874,10 @@
         <v>291</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5899,10 +5894,10 @@
         <v>293</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5919,7 +5914,7 @@
         <v>295</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F163" t="s">
         <v>460</v>
@@ -5951,7 +5946,7 @@
         <v>297</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F164" t="s">
         <v>460</v>
@@ -5963,7 +5958,7 @@
         <v>460</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5980,10 +5975,10 @@
         <v>393</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -6000,10 +5995,10 @@
         <v>300</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6020,10 +6015,10 @@
         <v>302</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6040,10 +6035,10 @@
         <v>304</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6100,10 +6095,10 @@
         <v>312</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6120,7 +6115,7 @@
         <v>314</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F172" t="s">
         <v>460</v>
@@ -6175,10 +6170,10 @@
         <v>318</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6195,7 +6190,7 @@
         <v>320</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F176" t="s">
         <v>460</v>
@@ -6282,16 +6277,16 @@
         <v>326</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F179" t="s">
+        <v>460</v>
+      </c>
+      <c r="G179" t="s">
+        <v>460</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="F179" t="s">
-        <v>460</v>
-      </c>
-      <c r="G179" t="s">
-        <v>460</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6308,16 +6303,16 @@
         <v>328</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F180" t="s">
+        <v>460</v>
+      </c>
+      <c r="G180" t="s">
+        <v>460</v>
+      </c>
+      <c r="H180" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="F180" t="s">
-        <v>460</v>
-      </c>
-      <c r="G180" t="s">
-        <v>460</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6374,28 +6369,28 @@
         <v>334</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F183" t="s">
+        <v>460</v>
+      </c>
+      <c r="G183" t="s">
+        <v>460</v>
+      </c>
+      <c r="H183" t="s">
+        <v>460</v>
+      </c>
+      <c r="I183" t="s">
+        <v>460</v>
+      </c>
+      <c r="J183" t="s">
+        <v>460</v>
+      </c>
+      <c r="K183" t="s">
+        <v>460</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="F183" t="s">
-        <v>460</v>
-      </c>
-      <c r="G183" t="s">
-        <v>460</v>
-      </c>
-      <c r="H183" t="s">
-        <v>460</v>
-      </c>
-      <c r="I183" t="s">
-        <v>460</v>
-      </c>
-      <c r="J183" t="s">
-        <v>460</v>
-      </c>
-      <c r="K183" t="s">
-        <v>460</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6432,10 +6427,10 @@
         <v>338</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6452,10 +6447,10 @@
         <v>340</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6472,10 +6467,10 @@
         <v>342</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6512,10 +6507,10 @@
         <v>346</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6532,10 +6527,10 @@
         <v>348</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6552,10 +6547,10 @@
         <v>350</v>
       </c>
       <c r="E191" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6572,10 +6567,10 @@
         <v>352</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6629,7 +6624,7 @@
         <v>355</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6647,10 +6642,10 @@
         <v>358</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6687,13 +6682,13 @@
         <v>362</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F198" t="s">
+        <v>460</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="F198" t="s">
-        <v>460</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6713,7 +6708,7 @@
         <v>543</v>
       </c>
       <c r="F199" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6733,7 +6728,7 @@
         <v>544</v>
       </c>
       <c r="F200" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6750,10 +6745,10 @@
         <v>368</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6773,7 +6768,7 @@
         <v>545</v>
       </c>
       <c r="F202" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6790,7 +6785,7 @@
         <v>372</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F203" t="s">
         <v>460</v>
@@ -6834,10 +6829,10 @@
         <v>374</v>
       </c>
       <c r="E204" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6854,10 +6849,10 @@
         <v>376</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6874,10 +6869,10 @@
         <v>378</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6894,13 +6889,13 @@
         <v>380</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F207" t="s">
         <v>460</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6929,10 +6924,10 @@
         <v>391</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F209" t="s">
         <v>460</v>
@@ -6952,10 +6947,10 @@
         <v>388</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6972,10 +6967,10 @@
         <v>386</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6992,10 +6987,10 @@
         <v>384</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -7024,6 +7019,14 @@
       </c>
       <c r="F214" s="2" t="s">
         <v>399</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>223</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="728">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -2203,9 +2203,6 @@
   </si>
   <si>
     <t>380519940974;50</t>
-  </si>
-  <si>
-    <t>38051990974;50</t>
   </si>
 </sst>
 </file>
@@ -2533,7 +2530,7 @@
   <dimension ref="A1:O215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5092,7 +5089,7 @@
         <v>727</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I122" s="2"/>
     </row>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="726">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t>283 ДТ Чернігів. обл, Козелець. р-н, смт Козелець, вул. Комсомольська, буд. № 35А(038)</t>
   </si>
   <si>
-    <t>(38‎‎0519942592;50</t>
-  </si>
-  <si>
     <t>284 ДТ Чернігів. обл, Козелець. р-н, смт Десна, вул. Довженко, буд. № 46а(056)</t>
   </si>
   <si>
@@ -2124,12 +2121,6 @@
     <t>380995501677;35</t>
   </si>
   <si>
-    <t>380519942592;50</t>
-  </si>
-  <si>
-    <t>380519942592;48</t>
-  </si>
-  <si>
     <t>380995501638;35</t>
   </si>
   <si>
@@ -2203,6 +2194,9 @@
   </si>
   <si>
     <t>380519940974;50</t>
+  </si>
+  <si>
+    <t>(38‎‎0685816720;50</t>
   </si>
 </sst>
 </file>
@@ -2529,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="C187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2584,10 +2578,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2604,10 +2598,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2624,10 +2618,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2644,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2664,10 +2658,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2684,10 +2678,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2704,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2724,10 +2718,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2744,10 +2738,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2764,10 +2758,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2784,10 +2778,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2804,10 +2798,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2824,10 +2818,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2844,10 +2838,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2864,10 +2858,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2884,10 +2878,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2904,10 +2898,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2921,13 +2915,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2958,10 +2952,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2978,10 +2972,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2998,16 +2992,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G23" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3024,10 +3018,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3044,10 +3038,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3064,10 +3058,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3084,10 +3078,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3104,10 +3098,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3124,13 +3118,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,10 +3141,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3167,10 +3161,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3187,10 +3181,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3207,10 +3201,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3227,10 +3221,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3247,10 +3241,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3267,10 +3261,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3287,10 +3281,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3307,10 +3301,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3327,10 +3321,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3347,10 +3341,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3367,10 +3361,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3387,10 +3381,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3435,28 +3429,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3473,10 +3467,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3493,10 +3487,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3513,10 +3507,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3533,25 +3527,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3568,10 +3562,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3588,10 +3582,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3608,10 +3602,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3628,10 +3622,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3648,10 +3642,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3668,10 +3662,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3688,10 +3682,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3708,10 +3702,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3728,10 +3722,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3748,10 +3742,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3765,13 +3759,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F60" t="s">
         <v>499</v>
-      </c>
-      <c r="F60" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3788,10 +3782,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3808,22 +3802,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F62" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G62" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H62" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I62" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3840,10 +3834,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3860,25 +3854,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3895,25 +3889,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3930,10 +3924,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3950,10 +3944,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3970,10 +3964,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3990,10 +3984,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4010,10 +4004,10 @@
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4030,10 +4024,10 @@
         <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4050,10 +4044,10 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4070,10 +4064,10 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4090,10 +4084,10 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4110,16 +4104,16 @@
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4136,25 +4130,25 @@
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4171,13 +4165,13 @@
         <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4194,10 +4188,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4214,10 +4208,10 @@
         <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4234,10 +4228,10 @@
         <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4254,25 +4248,25 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K81" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4289,10 +4283,10 @@
         <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F82" t="s">
         <v>527</v>
-      </c>
-      <c r="F82" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4309,10 +4303,10 @@
         <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F83" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4343,10 +4337,10 @@
         <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4363,10 +4357,10 @@
         <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4383,13 +4377,13 @@
         <v>161</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F87" t="s">
+        <v>459</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="F87" t="s">
-        <v>460</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4406,10 +4400,10 @@
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4426,10 +4420,10 @@
         <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F89" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4446,13 +4440,13 @@
         <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4469,10 +4463,10 @@
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4489,10 +4483,10 @@
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4509,10 +4503,10 @@
         <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4529,10 +4523,10 @@
         <v>308</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4549,10 +4543,10 @@
         <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4569,10 +4563,10 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,10 +4583,10 @@
         <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4623,10 +4617,10 @@
         <v>180</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4643,10 +4637,10 @@
         <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4663,10 +4657,10 @@
         <v>183</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4683,10 +4677,10 @@
         <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4703,10 +4697,10 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4723,13 +4717,13 @@
         <v>189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F104" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4746,10 +4740,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4766,10 +4760,10 @@
         <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4786,10 +4780,10 @@
         <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4806,10 +4800,10 @@
         <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,10 +4820,10 @@
         <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4846,10 +4840,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4866,10 +4860,10 @@
         <v>202</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4886,10 +4880,10 @@
         <v>204</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4906,10 +4900,10 @@
         <v>206</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4926,10 +4920,10 @@
         <v>208</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4946,10 +4940,10 @@
         <v>210</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4966,10 +4960,10 @@
         <v>212</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4986,13 +4980,13 @@
         <v>214</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F117" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5009,10 +5003,10 @@
         <v>216</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5029,10 +5023,10 @@
         <v>218</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5046,13 +5040,13 @@
         <v>219</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5069,10 +5063,10 @@
         <v>221</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5086,10 +5080,10 @@
         <v>222</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5122,10 +5116,10 @@
         <v>226</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5142,10 +5136,10 @@
         <v>228</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5162,16 +5156,16 @@
         <v>230</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G126" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5188,10 +5182,10 @@
         <v>231</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5208,10 +5202,10 @@
         <v>233</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5228,10 +5222,10 @@
         <v>235</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5245,13 +5239,13 @@
         <v>236</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5268,22 +5262,22 @@
         <v>238</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5330,10 +5324,10 @@
         <v>242</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5350,10 +5344,10 @@
         <v>243</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5385,10 +5379,10 @@
         <v>245</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5399,16 +5393,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5425,10 +5419,10 @@
         <v>248</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5445,10 +5439,10 @@
         <v>250</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5465,10 +5459,10 @@
         <v>252</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5485,10 +5479,10 @@
         <v>254</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5505,10 +5499,10 @@
         <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5525,10 +5519,10 @@
         <v>258</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5545,10 +5539,10 @@
         <v>260</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,10 +5559,10 @@
         <v>262</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5585,10 +5579,10 @@
         <v>264</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5605,10 +5599,10 @@
         <v>266</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5625,10 +5619,10 @@
         <v>268</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5645,10 +5639,10 @@
         <v>270</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5665,10 +5659,10 @@
         <v>272</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F151" t="s">
         <v>660</v>
-      </c>
-      <c r="F151" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5685,10 +5679,10 @@
         <v>274</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5705,10 +5699,10 @@
         <v>276</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5725,10 +5719,10 @@
         <v>278</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,10 +5739,10 @@
         <v>279</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5765,10 +5759,10 @@
         <v>281</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5785,10 +5779,10 @@
         <v>283</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5805,16 +5799,16 @@
         <v>285</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F158" t="s">
+        <v>459</v>
+      </c>
+      <c r="G158" t="s">
+        <v>459</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="F158" t="s">
-        <v>460</v>
-      </c>
-      <c r="G158" t="s">
-        <v>460</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5831,10 +5825,10 @@
         <v>287</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5851,10 +5845,10 @@
         <v>289</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5871,10 +5865,10 @@
         <v>291</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5891,10 +5885,10 @@
         <v>293</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5911,22 +5905,22 @@
         <v>295</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J163" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5943,19 +5937,19 @@
         <v>297</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F164" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G164" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H164" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5969,13 +5963,13 @@
         <v>298</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5992,10 +5986,10 @@
         <v>300</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6012,10 +6006,10 @@
         <v>302</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6032,10 +6026,10 @@
         <v>304</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6052,10 +6046,10 @@
         <v>306</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6072,10 +6066,10 @@
         <v>310</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6092,10 +6086,10 @@
         <v>312</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6112,10 +6106,10 @@
         <v>314</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F172" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6129,7 +6123,7 @@
         <v>313</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6147,10 +6141,10 @@
         <v>316</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6167,10 +6161,10 @@
         <v>318</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6187,37 +6181,37 @@
         <v>320</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6234,10 +6228,10 @@
         <v>322</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6254,10 +6248,10 @@
         <v>324</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6274,16 +6268,16 @@
         <v>326</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F179" t="s">
+        <v>459</v>
+      </c>
+      <c r="G179" t="s">
+        <v>459</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="F179" t="s">
-        <v>460</v>
-      </c>
-      <c r="G179" t="s">
-        <v>460</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6300,16 +6294,16 @@
         <v>328</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F180" t="s">
+        <v>459</v>
+      </c>
+      <c r="G180" t="s">
+        <v>459</v>
+      </c>
+      <c r="H180" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="F180" t="s">
-        <v>460</v>
-      </c>
-      <c r="G180" t="s">
-        <v>460</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6326,10 +6320,10 @@
         <v>330</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6346,10 +6340,10 @@
         <v>332</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6366,28 +6360,28 @@
         <v>334</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F183" t="s">
+        <v>459</v>
+      </c>
+      <c r="G183" t="s">
+        <v>459</v>
+      </c>
+      <c r="H183" t="s">
+        <v>459</v>
+      </c>
+      <c r="I183" t="s">
+        <v>459</v>
+      </c>
+      <c r="J183" t="s">
+        <v>459</v>
+      </c>
+      <c r="K183" t="s">
+        <v>459</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="F183" t="s">
-        <v>460</v>
-      </c>
-      <c r="G183" t="s">
-        <v>460</v>
-      </c>
-      <c r="H183" t="s">
-        <v>460</v>
-      </c>
-      <c r="I183" t="s">
-        <v>460</v>
-      </c>
-      <c r="J183" t="s">
-        <v>460</v>
-      </c>
-      <c r="K183" t="s">
-        <v>460</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6404,10 +6398,10 @@
         <v>336</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6424,10 +6418,10 @@
         <v>338</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6444,10 +6438,10 @@
         <v>340</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6464,10 +6458,10 @@
         <v>342</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6484,10 +6478,10 @@
         <v>344</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6504,10 +6498,10 @@
         <v>346</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6524,10 +6518,10 @@
         <v>348</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6541,13 +6535,13 @@
         <v>349</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>350</v>
+        <v>725</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>702</v>
+        <v>639</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6558,16 +6552,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>350</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6578,16 +6572,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>352</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6598,16 +6592,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
+        <v>354</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6618,10 +6612,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6633,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>356</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6653,16 +6647,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
+        <v>358</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E197" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6673,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>360</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F198" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6696,16 +6690,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>362</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F199" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6716,16 +6710,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>364</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F200" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6736,16 +6730,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>366</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6756,16 +6750,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>368</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F202" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6776,40 +6770,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>370</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N203" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6820,16 +6814,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>372</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6840,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>374</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6860,16 +6854,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>376</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6880,19 +6874,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>378</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="E207" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F207" t="s">
+        <v>459</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="F207" t="s">
-        <v>460</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6903,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
+        <v>380</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="E208" s="2"/>
     </row>
@@ -6918,16 +6912,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F209" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6938,16 +6932,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>386</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>388</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6958,16 +6952,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>384</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6978,44 +6972,44 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>382</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>397</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>399</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7023,7 +7017,7 @@
         <v>223</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -1098,9 +1098,6 @@
     <t>288 ДТ Київ. обл, Борисп. р-н, с. Сеньківка, вул. Леніна, буд. № 2Г(081)</t>
   </si>
   <si>
-    <t>(38020)4486395</t>
-  </si>
-  <si>
     <t>289 ДТ Київ. обл, Бровар. р-н, с. Требухів, вул. Горького, буд. № 2А(121)</t>
   </si>
   <si>
@@ -1644,9 +1641,6 @@
     <t>380204498149;80</t>
   </si>
   <si>
-    <t>380204486395;80</t>
-  </si>
-  <si>
     <t>380204486369;80</t>
   </si>
   <si>
@@ -2197,6 +2191,12 @@
   </si>
   <si>
     <t>(38‎‎0685816720;50</t>
+  </si>
+  <si>
+    <t>(38096)9800693</t>
+  </si>
+  <si>
+    <t>380969800693;70</t>
   </si>
 </sst>
 </file>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C187" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" topLeftCell="E190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2578,10 +2578,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,10 +2598,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,10 +2618,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,10 +2678,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2698,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2738,10 +2738,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,10 +2778,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,10 +2798,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,10 +2818,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,10 +2838,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,10 +2858,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2878,10 +2878,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2898,10 +2898,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,13 +2915,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,10 +2952,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,10 +2972,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,16 +2992,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G23" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3018,10 +3018,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3038,10 +3038,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3058,10 +3058,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,10 +3098,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3141,10 +3141,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3161,10 +3161,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3181,10 +3181,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3201,10 +3201,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3221,10 +3221,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3241,10 +3241,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3261,10 +3261,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3281,10 +3281,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3321,10 +3321,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3341,10 +3341,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3361,10 +3361,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3381,10 +3381,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3429,28 +3429,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,10 +3467,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,10 +3487,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3507,10 +3507,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3527,25 +3527,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3562,10 +3562,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3602,10 +3602,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3622,10 +3622,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3642,10 +3642,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3662,10 +3662,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3682,10 +3682,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3702,10 +3702,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3722,10 +3722,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3742,10 +3742,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3759,13 +3759,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="F60" t="s">
         <v>498</v>
-      </c>
-      <c r="F60" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3782,10 +3782,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3802,22 +3802,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3834,10 +3834,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3854,25 +3854,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3889,25 +3889,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3924,10 +3924,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3944,10 +3944,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3964,10 +3964,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3984,10 +3984,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4004,10 +4004,10 @@
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4024,10 +4024,10 @@
         <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4044,10 +4044,10 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4064,10 +4064,10 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4084,10 +4084,10 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4104,16 +4104,16 @@
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4130,25 +4130,25 @@
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4165,13 +4165,13 @@
         <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F77" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4188,10 +4188,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4208,10 +4208,10 @@
         <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4228,10 +4228,10 @@
         <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4248,25 +4248,25 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K81" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4283,10 +4283,10 @@
         <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F82" t="s">
         <v>526</v>
-      </c>
-      <c r="F82" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4303,10 +4303,10 @@
         <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F83" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4337,10 +4337,10 @@
         <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4357,10 +4357,10 @@
         <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4377,13 +4377,13 @@
         <v>161</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4400,10 +4400,10 @@
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F88" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4420,10 +4420,10 @@
         <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F89" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4440,13 +4440,13 @@
         <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F90" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4463,10 +4463,10 @@
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,10 +4483,10 @@
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4503,10 +4503,10 @@
         <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4523,10 +4523,10 @@
         <v>308</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4543,10 +4543,10 @@
         <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4563,10 +4563,10 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4583,10 +4583,10 @@
         <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4617,10 +4617,10 @@
         <v>180</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4637,10 +4637,10 @@
         <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4657,10 +4657,10 @@
         <v>183</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4677,10 +4677,10 @@
         <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4697,10 +4697,10 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4717,13 +4717,13 @@
         <v>189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4740,10 +4740,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4760,10 +4760,10 @@
         <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,10 +4780,10 @@
         <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4800,10 +4800,10 @@
         <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4820,10 +4820,10 @@
         <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4840,10 +4840,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,10 +4860,10 @@
         <v>202</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4880,10 +4880,10 @@
         <v>204</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4900,10 +4900,10 @@
         <v>206</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4920,10 +4920,10 @@
         <v>208</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4940,10 +4940,10 @@
         <v>210</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4960,10 +4960,10 @@
         <v>212</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4980,13 +4980,13 @@
         <v>214</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F117" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5003,10 +5003,10 @@
         <v>216</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,10 +5023,10 @@
         <v>218</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,13 +5040,13 @@
         <v>219</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5063,10 +5063,10 @@
         <v>221</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5080,10 +5080,10 @@
         <v>222</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5116,10 +5116,10 @@
         <v>226</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5136,10 +5136,10 @@
         <v>228</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5156,16 +5156,16 @@
         <v>230</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F126" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G126" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5182,10 +5182,10 @@
         <v>231</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5202,10 +5202,10 @@
         <v>233</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5222,10 +5222,10 @@
         <v>235</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5239,13 +5239,13 @@
         <v>236</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5262,22 +5262,22 @@
         <v>238</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F131" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G131" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H131" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I131" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5324,10 +5324,10 @@
         <v>242</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5344,10 +5344,10 @@
         <v>243</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5379,10 +5379,10 @@
         <v>245</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5393,16 +5393,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,10 +5419,10 @@
         <v>248</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5439,10 +5439,10 @@
         <v>250</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5459,10 +5459,10 @@
         <v>252</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5479,10 +5479,10 @@
         <v>254</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5499,10 +5499,10 @@
         <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5519,10 +5519,10 @@
         <v>258</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5539,10 +5539,10 @@
         <v>260</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5559,10 +5559,10 @@
         <v>262</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5579,10 +5579,10 @@
         <v>264</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5599,10 +5599,10 @@
         <v>266</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5619,10 +5619,10 @@
         <v>268</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5639,10 +5639,10 @@
         <v>270</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,10 +5659,10 @@
         <v>272</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F151" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5679,10 +5679,10 @@
         <v>274</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5699,10 +5699,10 @@
         <v>276</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5719,10 +5719,10 @@
         <v>278</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,10 +5739,10 @@
         <v>279</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5759,10 +5759,10 @@
         <v>281</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5779,10 +5779,10 @@
         <v>283</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,16 +5799,16 @@
         <v>285</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F158" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G158" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,10 +5825,10 @@
         <v>287</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5845,10 +5845,10 @@
         <v>289</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5865,10 +5865,10 @@
         <v>291</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5885,10 +5885,10 @@
         <v>293</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5905,22 +5905,22 @@
         <v>295</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F163" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G163" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H163" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I163" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J163" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5937,19 +5937,19 @@
         <v>297</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F164" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G164" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H164" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5963,13 +5963,13 @@
         <v>298</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5986,10 +5986,10 @@
         <v>300</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6006,10 +6006,10 @@
         <v>302</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6026,10 +6026,10 @@
         <v>304</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6046,10 +6046,10 @@
         <v>306</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6066,10 +6066,10 @@
         <v>310</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6086,10 +6086,10 @@
         <v>312</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6106,10 +6106,10 @@
         <v>314</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F172" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6123,7 +6123,7 @@
         <v>313</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6141,10 +6141,10 @@
         <v>316</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6161,10 +6161,10 @@
         <v>318</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6181,37 +6181,37 @@
         <v>320</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6228,10 +6228,10 @@
         <v>322</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6248,10 +6248,10 @@
         <v>324</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6268,16 +6268,16 @@
         <v>326</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F179" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G179" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6294,16 +6294,16 @@
         <v>328</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F180" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G180" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6320,10 +6320,10 @@
         <v>330</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6340,10 +6340,10 @@
         <v>332</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6360,28 +6360,28 @@
         <v>334</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6398,10 +6398,10 @@
         <v>336</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6418,10 +6418,10 @@
         <v>338</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6438,10 +6438,10 @@
         <v>340</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6458,10 +6458,10 @@
         <v>342</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6478,10 +6478,10 @@
         <v>344</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6498,10 +6498,10 @@
         <v>346</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6518,10 +6518,10 @@
         <v>348</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6535,13 +6535,13 @@
         <v>349</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6558,10 +6558,10 @@
         <v>351</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6578,10 +6578,10 @@
         <v>353</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6598,10 +6598,10 @@
         <v>355</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>354</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6633,10 +6633,10 @@
         <v>357</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6650,13 +6650,13 @@
         <v>358</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>359</v>
+        <v>724</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>541</v>
+        <v>725</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>541</v>
+        <v>725</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6667,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>359</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F198" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6690,16 +6690,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>361</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F199" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6710,16 +6710,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>363</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F200" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6730,16 +6730,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>365</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6750,16 +6750,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>367</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F202" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6770,40 +6770,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>369</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6814,16 +6814,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>371</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6834,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>373</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6854,16 +6854,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>375</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6874,19 +6874,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>377</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="E207" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F207" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6897,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
+        <v>379</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="E208" s="2"/>
     </row>
@@ -6912,16 +6912,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F209" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6932,16 +6932,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>385</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6952,16 +6952,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>383</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6972,44 +6972,44 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>381</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>396</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>398</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7017,7 +7017,7 @@
         <v>223</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="725">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>286 ДТ м. Київ, вул. В. Кільцева, буд. № 110А(061)</t>
   </si>
   <si>
-    <t>(38020)4498149</t>
-  </si>
-  <si>
     <t>287 ДТ Київ. обл, Бровар. р-н, с. Гоголів, вул. Київська, буд. № 144(064)</t>
   </si>
   <si>
@@ -1638,9 +1635,6 @@
     <t>380204471280;80</t>
   </si>
   <si>
-    <t>380204498149;80</t>
-  </si>
-  <si>
     <t>380204486369;80</t>
   </si>
   <si>
@@ -2197,6 +2191,9 @@
   </si>
   <si>
     <t>380969800693;70</t>
+  </si>
+  <si>
+    <t>380204471275;80</t>
   </si>
 </sst>
 </file>
@@ -2523,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2578,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,10 +2595,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,10 +2615,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2658,10 +2655,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,10 +2675,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2698,10 +2695,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2718,10 +2715,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2738,10 +2735,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,10 +2755,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,10 +2775,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,10 +2795,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,10 +2815,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,10 +2835,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,10 +2855,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2878,10 +2875,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2898,10 +2895,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,13 +2912,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,10 +2949,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,10 +2969,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,16 +2989,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G23" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3018,10 +3015,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3038,10 +3035,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3058,10 +3055,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3078,10 +3075,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,10 +3095,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3118,13 +3115,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3141,10 +3138,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3161,10 +3158,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3181,10 +3178,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3201,10 +3198,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3221,10 +3218,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3241,10 +3238,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3261,10 +3258,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F36" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3281,10 +3278,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3301,10 +3298,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3321,10 +3318,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3341,10 +3338,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3361,10 +3358,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3381,10 +3378,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3429,28 +3426,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,10 +3464,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,10 +3484,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3507,10 +3504,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3527,25 +3524,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K49" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3562,10 +3559,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3582,10 +3579,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3602,10 +3599,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3622,10 +3619,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3642,10 +3639,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3662,10 +3659,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3682,10 +3679,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3702,10 +3699,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3722,10 +3719,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3742,10 +3739,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3759,13 +3756,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F60" t="s">
         <v>497</v>
-      </c>
-      <c r="F60" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3782,10 +3779,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3802,22 +3799,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3834,10 +3831,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3854,25 +3851,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3889,25 +3886,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3924,10 +3921,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3944,10 +3941,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3964,10 +3961,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3984,10 +3981,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4004,10 +4001,10 @@
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4024,10 +4021,10 @@
         <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4044,10 +4041,10 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4064,10 +4061,10 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4084,10 +4081,10 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4104,16 +4101,16 @@
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F75" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G75" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4130,25 +4127,25 @@
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4165,13 +4162,13 @@
         <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F77" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4188,10 +4185,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4208,10 +4205,10 @@
         <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4228,10 +4225,10 @@
         <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4248,25 +4245,25 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4283,10 +4280,10 @@
         <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F82" t="s">
         <v>525</v>
-      </c>
-      <c r="F82" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4303,10 +4300,10 @@
         <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4337,10 +4334,10 @@
         <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4357,10 +4354,10 @@
         <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4377,13 +4374,13 @@
         <v>161</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4400,10 +4397,10 @@
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F88" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4420,10 +4417,10 @@
         <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F89" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4440,13 +4437,13 @@
         <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4463,10 +4460,10 @@
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4483,10 +4480,10 @@
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4503,10 +4500,10 @@
         <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4523,10 +4520,10 @@
         <v>308</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4543,10 +4540,10 @@
         <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4563,10 +4560,10 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4583,10 +4580,10 @@
         <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4617,10 +4614,10 @@
         <v>180</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4637,10 +4634,10 @@
         <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4657,10 +4654,10 @@
         <v>183</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4677,10 +4674,10 @@
         <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4697,10 +4694,10 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4717,13 +4714,13 @@
         <v>189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F104" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4740,10 +4737,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4760,10 +4757,10 @@
         <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4780,10 +4777,10 @@
         <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4800,10 +4797,10 @@
         <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4820,10 +4817,10 @@
         <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4840,10 +4837,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,10 +4857,10 @@
         <v>202</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4880,10 +4877,10 @@
         <v>204</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4900,10 +4897,10 @@
         <v>206</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4920,10 +4917,10 @@
         <v>208</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4940,10 +4937,10 @@
         <v>210</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4960,10 +4957,10 @@
         <v>212</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4980,13 +4977,13 @@
         <v>214</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F117" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5003,10 +5000,10 @@
         <v>216</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,10 +5020,10 @@
         <v>218</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,13 +5037,13 @@
         <v>219</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5063,10 +5060,10 @@
         <v>221</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5080,10 +5077,10 @@
         <v>222</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5116,10 +5113,10 @@
         <v>226</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5136,10 +5133,10 @@
         <v>228</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5156,16 +5153,16 @@
         <v>230</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F126" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G126" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5182,10 +5179,10 @@
         <v>231</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5202,10 +5199,10 @@
         <v>233</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5222,10 +5219,10 @@
         <v>235</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5239,13 +5236,13 @@
         <v>236</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5262,22 +5259,22 @@
         <v>238</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5324,10 +5321,10 @@
         <v>242</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5344,10 +5341,10 @@
         <v>243</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5379,10 +5376,10 @@
         <v>245</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5393,16 +5390,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>246</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,10 +5416,10 @@
         <v>248</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5439,10 +5436,10 @@
         <v>250</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5459,10 +5456,10 @@
         <v>252</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5479,10 +5476,10 @@
         <v>254</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5499,10 +5496,10 @@
         <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5519,10 +5516,10 @@
         <v>258</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5539,10 +5536,10 @@
         <v>260</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5559,10 +5556,10 @@
         <v>262</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5579,10 +5576,10 @@
         <v>264</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5599,10 +5596,10 @@
         <v>266</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5619,10 +5616,10 @@
         <v>268</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5639,10 +5636,10 @@
         <v>270</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,10 +5656,10 @@
         <v>272</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F151" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5679,10 +5676,10 @@
         <v>274</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5699,10 +5696,10 @@
         <v>276</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5719,10 +5716,10 @@
         <v>278</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5739,10 +5736,10 @@
         <v>279</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5759,10 +5756,10 @@
         <v>281</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5779,10 +5776,10 @@
         <v>283</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,16 +5796,16 @@
         <v>285</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F158" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G158" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,10 +5822,10 @@
         <v>287</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5845,10 +5842,10 @@
         <v>289</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5865,10 +5862,10 @@
         <v>291</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5885,10 +5882,10 @@
         <v>293</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5905,22 +5902,22 @@
         <v>295</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5937,19 +5934,19 @@
         <v>297</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5963,13 +5960,13 @@
         <v>298</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5986,10 +5983,10 @@
         <v>300</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6006,10 +6003,10 @@
         <v>302</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6026,10 +6023,10 @@
         <v>304</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6046,10 +6043,10 @@
         <v>306</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6066,10 +6063,10 @@
         <v>310</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6086,10 +6083,10 @@
         <v>312</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6106,10 +6103,10 @@
         <v>314</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F172" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6123,7 +6120,7 @@
         <v>313</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6141,10 +6138,10 @@
         <v>316</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6161,10 +6158,10 @@
         <v>318</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6181,37 +6178,37 @@
         <v>320</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6228,10 +6225,10 @@
         <v>322</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6248,10 +6245,10 @@
         <v>324</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6268,16 +6265,16 @@
         <v>326</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F179" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G179" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6294,16 +6291,16 @@
         <v>328</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F180" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G180" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6320,10 +6317,10 @@
         <v>330</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6340,10 +6337,10 @@
         <v>332</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6360,28 +6357,28 @@
         <v>334</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6398,10 +6395,10 @@
         <v>336</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6418,10 +6415,10 @@
         <v>338</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6438,10 +6435,10 @@
         <v>340</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6458,10 +6455,10 @@
         <v>342</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6478,10 +6475,10 @@
         <v>344</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6498,10 +6495,10 @@
         <v>346</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6518,10 +6515,10 @@
         <v>348</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6535,13 +6532,13 @@
         <v>349</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6558,10 +6555,10 @@
         <v>351</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6578,10 +6575,10 @@
         <v>353</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6594,14 +6591,14 @@
       <c r="C194" t="s">
         <v>354</v>
       </c>
-      <c r="D194" s="1" t="s">
-        <v>355</v>
+      <c r="D194" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>539</v>
+        <v>724</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>539</v>
+        <v>724</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6615,7 +6612,7 @@
         <v>354</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6627,16 +6624,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>355</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6647,16 +6644,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6667,19 +6664,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>358</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F198" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6690,16 +6687,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>360</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F199" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6710,16 +6707,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>362</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F200" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6730,16 +6727,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>364</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6750,16 +6747,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>366</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F202" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6770,40 +6767,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>368</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N203" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6814,16 +6811,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>370</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6834,16 +6831,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>372</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6854,16 +6851,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>374</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6874,19 +6871,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>376</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E207" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F207" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6897,10 +6894,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
+        <v>378</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E208" s="2"/>
     </row>
@@ -6912,16 +6909,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F209" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6932,16 +6929,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>384</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6952,16 +6949,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>382</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6972,44 +6969,44 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>380</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>395</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7017,7 +7014,7 @@
         <v>223</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="724">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -2157,9 +2157,6 @@
     <t>380519940925;50</t>
   </si>
   <si>
-    <t>380519943706;50</t>
-  </si>
-  <si>
     <t>380519940897;50</t>
   </si>
   <si>
@@ -2172,9 +2169,6 @@
     <t>(38‎0519948399</t>
   </si>
   <si>
-    <t>380519943706;28</t>
-  </si>
-  <si>
     <t>380519940897;42</t>
   </si>
   <si>
@@ -2194,6 +2188,9 @@
   </si>
   <si>
     <t>380204471275;80</t>
+  </si>
+  <si>
+    <t>380519943706;0</t>
   </si>
 </sst>
 </file>
@@ -2520,14 +2517,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
@@ -5077,10 +5074,10 @@
         <v>222</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -6532,7 +6529,7 @@
         <v>349</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>635</v>
@@ -6592,13 +6589,13 @@
         <v>354</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6647,13 +6644,13 @@
         <v>357</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6883,7 +6880,7 @@
         <v>457</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6912,10 +6909,10 @@
         <v>388</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F209" t="s">
         <v>457</v>
@@ -6935,10 +6932,10 @@
         <v>385</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6955,10 +6952,10 @@
         <v>383</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -7014,7 +7011,7 @@
         <v>223</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="723">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -627,9 +627,6 @@
     <t>161 ДТ Житомир. обл., р-н Попільнянський, с. Андрушки, вул. Заводська, 45-А</t>
   </si>
   <si>
-    <t>(38068)7916237</t>
-  </si>
-  <si>
     <t>163 ДТ Чернігівська обл., м. Ніжин, вул. Воздвиженська, 74</t>
   </si>
   <si>
@@ -1212,9 +1209,6 @@
     <t>‎380506302977;50</t>
   </si>
   <si>
-    <t>‎380667233887;35</t>
-  </si>
-  <si>
     <t>380519940954;50</t>
   </si>
   <si>
@@ -1857,9 +1851,6 @@
     <t>380519945399;46</t>
   </si>
   <si>
-    <t>380687916237;70</t>
-  </si>
-  <si>
     <t>380519945028;35</t>
   </si>
   <si>
@@ -2191,6 +2182,12 @@
   </si>
   <si>
     <t>380519943706;0</t>
+  </si>
+  <si>
+    <t>‎380667233887;150</t>
+  </si>
+  <si>
+    <t>380955132136;50</t>
   </si>
 </sst>
 </file>
@@ -2517,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2572,10 +2569,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2592,10 +2589,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2612,10 +2609,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2632,10 +2629,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2652,10 +2649,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,10 +2669,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2692,10 +2689,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2712,10 +2709,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2732,10 +2729,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2752,10 +2749,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2772,10 +2769,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2792,10 +2789,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2812,10 +2809,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,10 +2829,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2852,10 +2849,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2872,10 +2869,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2892,10 +2889,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2909,13 +2906,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2946,10 +2943,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,10 +2963,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2986,16 +2983,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,10 +3009,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3032,10 +3029,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3052,10 +3049,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3072,10 +3069,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3092,10 +3089,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3112,13 +3109,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3135,10 +3132,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3155,10 +3152,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3175,10 +3172,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3195,10 +3192,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3215,10 +3212,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3235,10 +3232,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3255,10 +3252,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3275,10 +3272,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3295,10 +3292,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3315,10 +3312,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3335,10 +3332,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3355,10 +3352,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3375,10 +3372,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3423,28 +3420,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3461,10 +3458,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3481,10 +3478,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3501,10 +3498,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3521,25 +3518,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K49" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3556,10 +3553,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3576,10 +3573,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3596,10 +3593,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3616,10 +3613,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3636,10 +3633,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3656,10 +3653,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3676,10 +3673,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3696,10 +3693,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3716,10 +3713,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3736,10 +3733,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3753,13 +3750,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F60" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3776,10 +3773,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3796,22 +3793,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I62" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3828,10 +3825,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3848,25 +3845,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3883,25 +3880,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K65" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3918,10 +3915,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3938,10 +3935,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3958,10 +3955,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3978,10 +3975,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3998,10 +3995,10 @@
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4018,10 +4015,10 @@
         <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4038,10 +4035,10 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4058,10 +4055,10 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4078,10 +4075,10 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4098,16 +4095,16 @@
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F75" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G75" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4124,25 +4121,25 @@
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4159,13 +4156,13 @@
         <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4182,10 +4179,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,10 +4199,10 @@
         <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4222,10 +4219,10 @@
         <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4242,25 +4239,25 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K81" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4277,10 +4274,10 @@
         <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F82" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4297,10 +4294,10 @@
         <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F83" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4331,10 +4328,10 @@
         <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4351,10 +4348,10 @@
         <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4371,13 +4368,13 @@
         <v>161</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F87" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4394,10 +4391,10 @@
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F88" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4414,10 +4411,10 @@
         <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F89" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4434,13 +4431,13 @@
         <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F90" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4457,10 +4454,10 @@
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4477,10 +4474,10 @@
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4497,10 +4494,10 @@
         <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4511,16 +4508,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4537,10 +4534,10 @@
         <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4557,10 +4554,10 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,10 +4574,10 @@
         <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4611,10 +4608,10 @@
         <v>180</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4631,10 +4628,10 @@
         <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4651,10 +4648,10 @@
         <v>183</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4671,10 +4668,10 @@
         <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4691,10 +4688,10 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,13 +4708,13 @@
         <v>189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F104" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,10 +4731,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4754,10 +4751,10 @@
         <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4774,10 +4771,10 @@
         <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4794,10 +4791,10 @@
         <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4814,10 +4811,10 @@
         <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,10 +4831,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4850,14 +4847,14 @@
       <c r="C111" t="s">
         <v>201</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>202</v>
+      <c r="D111" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>612</v>
+        <v>722</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4868,16 +4865,16 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4888,16 +4885,16 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4908,16 +4905,16 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
+        <v>206</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4928,16 +4925,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4948,16 +4945,16 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
+        <v>210</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4968,19 +4965,19 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
+        <v>212</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F117" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4991,16 +4988,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5011,16 +5008,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>216</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5031,16 +5028,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5051,16 +5048,16 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5071,13 +5068,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5089,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>38</v>
@@ -5104,16 +5101,16 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>224</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5124,16 +5121,16 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
+        <v>226</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5144,22 +5141,22 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
+        <v>228</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F126" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G126" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5170,16 +5167,16 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5190,16 +5187,16 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5210,16 +5207,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
+        <v>233</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5230,16 +5227,16 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5250,28 +5247,28 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F131" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G131" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H131" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I131" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5282,10 +5279,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
+        <v>238</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -5297,10 +5294,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
+        <v>238</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -5312,16 +5309,16 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
+        <v>240</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5332,16 +5329,16 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5352,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>38</v>
@@ -5367,16 +5364,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>243</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5387,16 +5384,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5407,16 +5404,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5427,16 +5424,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5447,16 +5444,16 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>250</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5467,16 +5464,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>252</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5487,16 +5484,16 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
+        <v>254</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5507,16 +5504,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5527,16 +5524,16 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
+        <v>258</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5547,16 +5544,16 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>260</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5567,16 +5564,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5587,16 +5584,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
+        <v>264</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5607,16 +5604,16 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
+        <v>266</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5627,16 +5624,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
+        <v>268</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5647,16 +5644,16 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
+        <v>270</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F151" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5667,16 +5664,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
+        <v>272</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5687,16 +5684,16 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
+        <v>274</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5707,16 +5704,16 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>276</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5727,16 +5724,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,16 +5744,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
+        <v>279</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5767,16 +5764,16 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
+        <v>281</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5787,22 +5784,22 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
+        <v>283</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F158" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G158" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5813,16 +5810,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
+        <v>285</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5833,16 +5830,16 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
+        <v>287</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5853,16 +5850,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
+        <v>289</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5873,16 +5870,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
+        <v>291</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5893,28 +5890,28 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
+        <v>293</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F163" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G163" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H163" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I163" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J163" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5925,25 +5922,25 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
+        <v>295</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F164" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G164" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H164" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5954,16 +5951,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5974,16 +5971,16 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
+        <v>298</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -5994,16 +5991,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
+        <v>300</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6014,16 +6011,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
+        <v>302</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6034,16 +6031,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
+        <v>304</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6054,16 +6051,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
+        <v>308</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6074,16 +6071,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
+        <v>310</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6094,16 +6091,16 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
+        <v>312</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F172" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6114,10 +6111,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6129,16 +6126,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
+        <v>314</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6149,16 +6146,16 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
+        <v>316</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6169,43 +6166,43 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
+        <v>318</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O176" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6216,16 +6213,16 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
+        <v>320</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6236,16 +6233,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
+        <v>322</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6256,22 +6253,22 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
+        <v>324</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F179" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G179" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6282,22 +6279,22 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
+        <v>326</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F180" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G180" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6308,16 +6305,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
+        <v>328</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6328,16 +6325,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>330</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6348,34 +6345,34 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>332</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6386,16 +6383,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
+        <v>334</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6406,16 +6403,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
+        <v>336</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6426,16 +6423,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>338</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6446,16 +6443,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>340</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6466,16 +6463,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>342</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6486,16 +6483,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
+        <v>344</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6506,16 +6503,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>346</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6526,16 +6523,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6546,16 +6543,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>349</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6566,16 +6563,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>351</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6586,16 +6583,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6606,10 +6603,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6621,16 +6618,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>354</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6641,16 +6638,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6661,19 +6658,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>357</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F198" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6684,16 +6681,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>359</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F199" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6704,16 +6701,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>361</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F200" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6724,16 +6721,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>363</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6744,16 +6741,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>365</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F202" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6764,40 +6761,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>367</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="K203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N203" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6808,16 +6805,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>369</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6828,16 +6825,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>371</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6848,16 +6845,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>373</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6868,19 +6865,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>375</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E207" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F207" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6891,10 +6888,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
+        <v>377</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="E208" s="2"/>
     </row>
@@ -6906,16 +6903,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F209" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6926,16 +6923,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>383</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6946,16 +6943,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>381</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6966,52 +6963,52 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>379</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>397</v>
+        <v>721</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>397</v>
+        <v>721</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>397</v>
+        <v>721</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>394</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -810,9 +810,6 @@
     <t>217 ДТ г. Киев, ул. Алма-Атынская, 99/2</t>
   </si>
   <si>
-    <t>(38051)9943431</t>
-  </si>
-  <si>
     <t>224 ДТ Житомирська обл., м. Малин, вул. Воровського, 23 (отдел маг.)</t>
   </si>
   <si>
@@ -1815,9 +1812,6 @@
     <t>380519943430;50</t>
   </si>
   <si>
-    <t>380519943431;50</t>
-  </si>
-  <si>
     <t>380519941600;50</t>
   </si>
   <si>
@@ -2188,6 +2182,12 @@
   </si>
   <si>
     <t>380955132136;50</t>
+  </si>
+  <si>
+    <t>380661663082;40</t>
+  </si>
+  <si>
+    <t>38‎0661663082;40</t>
   </si>
 </sst>
 </file>
@@ -2514,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2569,10 +2569,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,10 +2589,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2609,10 +2609,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2629,10 +2629,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2649,10 +2649,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,10 +2669,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2689,10 +2689,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2709,10 +2709,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2729,10 +2729,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2749,10 +2749,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2769,10 +2769,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2789,10 +2789,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,10 +2809,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2829,10 +2829,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,10 +2849,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2869,10 +2869,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2889,10 +2889,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2906,13 +2906,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2943,10 +2943,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2963,10 +2963,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2983,16 +2983,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3009,10 +3009,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3029,10 +3029,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3049,10 +3049,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3069,10 +3069,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3089,10 +3089,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,13 +3109,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3132,10 +3132,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3152,10 +3152,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,10 +3172,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3192,10 +3192,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3212,10 +3212,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3232,10 +3232,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3252,10 +3252,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3272,10 +3272,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3292,10 +3292,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3312,10 +3312,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3332,10 +3332,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3352,10 +3352,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3372,10 +3372,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3420,28 +3420,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L45" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3458,10 +3458,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3478,10 +3478,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3498,10 +3498,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3518,25 +3518,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K49" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3553,10 +3553,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3573,10 +3573,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3593,10 +3593,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3613,10 +3613,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3633,10 +3633,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3653,10 +3653,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3673,10 +3673,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3693,10 +3693,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3713,10 +3713,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3733,10 +3733,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3750,13 +3750,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F60" t="s">
         <v>494</v>
-      </c>
-      <c r="F60" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3773,10 +3773,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3793,22 +3793,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I62" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3825,10 +3825,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3845,25 +3845,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3880,25 +3880,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3915,10 +3915,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3935,10 +3935,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3955,10 +3955,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,10 +3975,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3995,10 +3995,10 @@
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4015,10 +4015,10 @@
         <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4035,10 +4035,10 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4055,10 +4055,10 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4075,10 +4075,10 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4095,16 +4095,16 @@
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G75" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4121,25 +4121,25 @@
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4156,13 +4156,13 @@
         <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4179,10 +4179,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4199,10 +4199,10 @@
         <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4219,10 +4219,10 @@
         <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4239,25 +4239,25 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4274,10 +4274,10 @@
         <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F82" t="s">
         <v>522</v>
-      </c>
-      <c r="F82" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4294,10 +4294,10 @@
         <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4328,10 +4328,10 @@
         <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4348,10 +4348,10 @@
         <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4368,13 +4368,13 @@
         <v>161</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F87" t="s">
+        <v>454</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="F87" t="s">
-        <v>455</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4391,10 +4391,10 @@
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F88" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4411,10 +4411,10 @@
         <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F89" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4431,13 +4431,13 @@
         <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4454,10 +4454,10 @@
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4474,10 +4474,10 @@
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4494,10 +4494,10 @@
         <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4508,16 +4508,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>305</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4534,10 +4534,10 @@
         <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4554,10 +4554,10 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4574,10 +4574,10 @@
         <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4608,10 +4608,10 @@
         <v>180</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4628,10 +4628,10 @@
         <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4648,10 +4648,10 @@
         <v>183</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4668,10 +4668,10 @@
         <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4688,10 +4688,10 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4708,13 +4708,13 @@
         <v>189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F104" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4731,10 +4731,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4751,10 +4751,10 @@
         <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4771,10 +4771,10 @@
         <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4791,10 +4791,10 @@
         <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4811,10 +4811,10 @@
         <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4831,10 +4831,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4848,13 +4848,13 @@
         <v>201</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4871,10 +4871,10 @@
         <v>203</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4891,10 +4891,10 @@
         <v>205</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4911,10 +4911,10 @@
         <v>207</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4931,10 +4931,10 @@
         <v>209</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4951,10 +4951,10 @@
         <v>211</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4971,13 +4971,13 @@
         <v>213</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F117" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,10 +4994,10 @@
         <v>215</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5014,10 +5014,10 @@
         <v>217</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5031,13 +5031,13 @@
         <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5054,10 +5054,10 @@
         <v>220</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5071,10 +5071,10 @@
         <v>221</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5107,10 +5107,10 @@
         <v>225</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5127,10 +5127,10 @@
         <v>227</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5147,16 +5147,16 @@
         <v>229</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F126" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G126" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5173,10 +5173,10 @@
         <v>230</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5193,10 +5193,10 @@
         <v>232</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5213,10 +5213,10 @@
         <v>234</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5230,13 +5230,13 @@
         <v>235</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5253,22 +5253,22 @@
         <v>237</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I131" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5315,10 +5315,10 @@
         <v>241</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5335,10 +5335,10 @@
         <v>242</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5370,10 +5370,10 @@
         <v>244</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5384,16 +5384,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5410,10 +5410,10 @@
         <v>247</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5430,10 +5430,10 @@
         <v>249</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5450,10 +5450,10 @@
         <v>251</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5470,10 +5470,10 @@
         <v>253</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5490,10 +5490,10 @@
         <v>255</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5510,10 +5510,10 @@
         <v>257</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5530,10 +5530,10 @@
         <v>259</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5550,10 +5550,10 @@
         <v>261</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5566,14 +5566,14 @@
       <c r="C147" t="s">
         <v>262</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>263</v>
+      <c r="D147" s="4" t="s">
+        <v>722</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>598</v>
+        <v>722</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>598</v>
+        <v>721</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5584,16 +5584,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
+        <v>263</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5604,16 +5604,16 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
+        <v>265</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5624,16 +5624,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
+        <v>267</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5644,16 +5644,16 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
+        <v>269</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F151" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5664,16 +5664,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
+        <v>271</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5684,16 +5684,16 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
+        <v>273</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5704,16 +5704,16 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>275</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5724,16 +5724,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5744,16 +5744,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
+        <v>278</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5764,16 +5764,16 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
+        <v>280</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5784,22 +5784,22 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F158" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G158" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5810,16 +5810,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
+        <v>284</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5830,16 +5830,16 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
+        <v>286</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5850,16 +5850,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
+        <v>288</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5870,16 +5870,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
+        <v>290</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5890,28 +5890,28 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
+        <v>292</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J163" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5922,25 +5922,25 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
+        <v>294</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F164" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G164" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H164" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5951,16 +5951,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5971,16 +5971,16 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
+        <v>297</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -5991,16 +5991,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
+        <v>299</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6011,16 +6011,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6031,16 +6031,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
+        <v>303</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6051,16 +6051,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
+        <v>307</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6071,16 +6071,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
+        <v>309</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6091,16 +6091,16 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
+        <v>311</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6111,10 +6111,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6126,16 +6126,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
+        <v>313</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6146,16 +6146,16 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
+        <v>315</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6166,43 +6166,43 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
+        <v>317</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O176" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6213,16 +6213,16 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
+        <v>319</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6233,16 +6233,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
+        <v>321</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6253,22 +6253,22 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
+        <v>323</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F179" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G179" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6279,22 +6279,22 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
+        <v>325</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F180" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G180" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6305,16 +6305,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
+        <v>327</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6325,16 +6325,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>329</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6345,34 +6345,34 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>331</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F183" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G183" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H183" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I183" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J183" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K183" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6383,16 +6383,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
+        <v>333</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6403,16 +6403,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
+        <v>335</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6423,16 +6423,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>337</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6443,16 +6443,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>339</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6463,16 +6463,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>341</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6483,16 +6483,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
+        <v>343</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6503,16 +6503,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>345</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6523,16 +6523,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6543,16 +6543,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>348</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6563,16 +6563,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>350</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6583,16 +6583,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6603,10 +6603,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6618,16 +6618,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>353</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6638,16 +6638,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6658,19 +6658,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>356</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F198" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6681,16 +6681,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>358</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F199" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6701,16 +6701,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>360</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F200" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6721,16 +6721,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>362</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6741,16 +6741,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>364</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F202" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6761,40 +6761,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>366</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6805,16 +6805,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>368</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6825,16 +6825,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>370</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6845,16 +6845,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>372</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6865,19 +6865,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>374</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E207" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="F207" t="s">
+        <v>454</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="F207" t="s">
-        <v>455</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6888,10 +6888,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
+        <v>376</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="E208" s="2"/>
     </row>
@@ -6903,16 +6903,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F209" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6923,16 +6923,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>382</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6943,16 +6943,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>380</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6963,44 +6963,44 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>378</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>393</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>395</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7008,7 +7008,7 @@
         <v>222</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="725">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -2188,6 +2188,12 @@
   </si>
   <si>
     <t>38‎0661663082;40</t>
+  </si>
+  <si>
+    <t>Усач О.О.</t>
+  </si>
+  <si>
+    <t>380519940972;50</t>
   </si>
 </sst>
 </file>
@@ -2512,10 +2518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O215"/>
+  <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7011,6 +7017,20 @@
         <v>712</v>
       </c>
     </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>723</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -1152,9 +1152,6 @@
     <t>305 ДТ м. Київ, вул. Петра Запорожця, 28, МАФ№2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Corpor</t>
-  </si>
-  <si>
     <t>SQRECHNIK м. Київ, вул. Миру, 19</t>
   </si>
   <si>
@@ -2194,6 +2191,9 @@
   </si>
   <si>
     <t>380519940972;50</t>
+  </si>
+  <si>
+    <t>380519948397;20</t>
   </si>
 </sst>
 </file>
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2575,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2595,10 +2595,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,10 +2615,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2635,10 +2635,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2655,10 +2655,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,10 +2675,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2695,10 +2695,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2715,10 +2715,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2735,10 +2735,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2755,10 +2755,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2775,10 +2775,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2795,10 +2795,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2815,10 +2815,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2835,10 +2835,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2855,10 +2855,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2875,10 +2875,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2895,10 +2895,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2912,13 +2912,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2969,10 +2969,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2989,16 +2989,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3035,10 +3035,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3055,10 +3055,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3075,10 +3075,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,10 +3095,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3115,13 +3115,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3138,10 +3138,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,10 +3158,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3178,10 +3178,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3198,10 +3198,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,10 +3218,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3238,10 +3238,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3258,10 +3258,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3278,10 +3278,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3298,10 +3298,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3318,10 +3318,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3338,10 +3338,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3358,10 +3358,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3378,10 +3378,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3426,28 +3426,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3464,10 +3464,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,10 +3484,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3504,10 +3504,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3524,25 +3524,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K49" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3559,10 +3559,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,10 +3579,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3599,10 +3599,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3619,10 +3619,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3639,10 +3639,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3659,10 +3659,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3679,10 +3679,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3699,10 +3699,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3719,10 +3719,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3739,10 +3739,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3756,13 +3756,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F60" t="s">
         <v>493</v>
-      </c>
-      <c r="F60" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,10 +3779,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3799,22 +3799,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I62" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3831,10 +3831,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3851,25 +3851,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3886,25 +3886,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3921,10 +3921,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3941,10 +3941,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3961,10 +3961,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3981,10 +3981,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,10 +4001,10 @@
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4021,10 +4021,10 @@
         <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4041,10 +4041,10 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4061,10 +4061,10 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4081,10 +4081,10 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4101,16 +4101,16 @@
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4127,25 +4127,25 @@
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4162,13 +4162,13 @@
         <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4185,10 +4185,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4205,10 +4205,10 @@
         <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4225,10 +4225,10 @@
         <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4245,25 +4245,25 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K81" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4280,10 +4280,10 @@
         <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F82" t="s">
         <v>521</v>
-      </c>
-      <c r="F82" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4300,10 +4300,10 @@
         <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F83" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4334,10 +4334,10 @@
         <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,10 +4354,10 @@
         <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4374,13 +4374,13 @@
         <v>161</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F87" t="s">
+        <v>453</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="F87" t="s">
-        <v>454</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4397,10 +4397,10 @@
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F88" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4417,10 +4417,10 @@
         <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F89" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4437,13 +4437,13 @@
         <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4460,10 +4460,10 @@
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4480,10 +4480,10 @@
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4500,10 +4500,10 @@
         <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4520,10 +4520,10 @@
         <v>306</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4540,10 +4540,10 @@
         <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4560,10 +4560,10 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4580,10 +4580,10 @@
         <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,10 +4614,10 @@
         <v>180</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4634,10 +4634,10 @@
         <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,10 +4654,10 @@
         <v>183</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4674,10 +4674,10 @@
         <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4694,10 +4694,10 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4714,13 +4714,13 @@
         <v>189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F104" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4737,10 +4737,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,10 +4757,10 @@
         <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4777,10 +4777,10 @@
         <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4797,10 +4797,10 @@
         <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4817,10 +4817,10 @@
         <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4837,10 +4837,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4854,13 +4854,13 @@
         <v>201</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4877,10 +4877,10 @@
         <v>203</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4897,10 +4897,10 @@
         <v>205</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4917,10 +4917,10 @@
         <v>207</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4937,10 +4937,10 @@
         <v>209</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4957,10 +4957,10 @@
         <v>211</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4977,13 +4977,13 @@
         <v>213</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F117" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,10 +5000,10 @@
         <v>215</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
         <v>217</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5037,13 +5037,13 @@
         <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5060,10 +5060,10 @@
         <v>220</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5077,10 +5077,10 @@
         <v>221</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5113,10 +5113,10 @@
         <v>225</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,10 +5133,10 @@
         <v>227</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5153,16 +5153,16 @@
         <v>229</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G126" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5179,10 +5179,10 @@
         <v>230</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5199,10 +5199,10 @@
         <v>232</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5219,10 +5219,10 @@
         <v>234</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5236,13 +5236,13 @@
         <v>235</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5259,22 +5259,22 @@
         <v>237</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F131" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G131" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H131" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I131" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5321,10 +5321,10 @@
         <v>241</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5341,10 +5341,10 @@
         <v>242</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5376,10 +5376,10 @@
         <v>244</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5390,16 +5390,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5416,10 +5416,10 @@
         <v>247</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5436,10 +5436,10 @@
         <v>249</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5456,10 +5456,10 @@
         <v>251</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5476,10 +5476,10 @@
         <v>253</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,10 +5496,10 @@
         <v>255</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5516,10 +5516,10 @@
         <v>257</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,10 +5536,10 @@
         <v>259</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5556,10 +5556,10 @@
         <v>261</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5573,13 +5573,13 @@
         <v>262</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5596,10 +5596,10 @@
         <v>264</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5616,10 +5616,10 @@
         <v>266</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5636,10 +5636,10 @@
         <v>268</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,10 +5656,10 @@
         <v>270</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F151" t="s">
         <v>650</v>
-      </c>
-      <c r="F151" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,10 +5676,10 @@
         <v>272</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5696,10 +5696,10 @@
         <v>274</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5716,10 +5716,10 @@
         <v>276</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5736,10 +5736,10 @@
         <v>277</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5756,10 +5756,10 @@
         <v>279</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5776,10 +5776,10 @@
         <v>281</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5796,16 +5796,16 @@
         <v>283</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F158" t="s">
+        <v>453</v>
+      </c>
+      <c r="G158" t="s">
+        <v>453</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="F158" t="s">
-        <v>454</v>
-      </c>
-      <c r="G158" t="s">
-        <v>454</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,10 +5822,10 @@
         <v>285</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5842,10 +5842,10 @@
         <v>287</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5862,10 +5862,10 @@
         <v>289</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5882,10 +5882,10 @@
         <v>291</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5902,22 +5902,22 @@
         <v>293</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J163" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5934,19 +5934,19 @@
         <v>295</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F164" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G164" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H164" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5960,13 +5960,13 @@
         <v>296</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5983,10 +5983,10 @@
         <v>298</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6003,10 +6003,10 @@
         <v>300</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6023,10 +6023,10 @@
         <v>302</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6043,10 +6043,10 @@
         <v>304</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6063,10 +6063,10 @@
         <v>308</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6083,10 +6083,10 @@
         <v>310</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6103,10 +6103,10 @@
         <v>312</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F172" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>311</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6138,10 +6138,10 @@
         <v>314</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6158,10 +6158,10 @@
         <v>316</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6178,37 +6178,37 @@
         <v>318</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O176" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6225,10 +6225,10 @@
         <v>320</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6245,10 +6245,10 @@
         <v>322</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6265,16 +6265,16 @@
         <v>324</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F179" t="s">
+        <v>453</v>
+      </c>
+      <c r="G179" t="s">
+        <v>453</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="F179" t="s">
-        <v>454</v>
-      </c>
-      <c r="G179" t="s">
-        <v>454</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6291,16 +6291,16 @@
         <v>326</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F180" t="s">
+        <v>453</v>
+      </c>
+      <c r="G180" t="s">
+        <v>453</v>
+      </c>
+      <c r="H180" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="F180" t="s">
-        <v>454</v>
-      </c>
-      <c r="G180" t="s">
-        <v>454</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6317,10 +6317,10 @@
         <v>328</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6337,10 +6337,10 @@
         <v>330</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6357,28 +6357,28 @@
         <v>332</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F183" t="s">
+        <v>453</v>
+      </c>
+      <c r="G183" t="s">
+        <v>453</v>
+      </c>
+      <c r="H183" t="s">
+        <v>453</v>
+      </c>
+      <c r="I183" t="s">
+        <v>453</v>
+      </c>
+      <c r="J183" t="s">
+        <v>453</v>
+      </c>
+      <c r="K183" t="s">
+        <v>453</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="F183" t="s">
-        <v>454</v>
-      </c>
-      <c r="G183" t="s">
-        <v>454</v>
-      </c>
-      <c r="H183" t="s">
-        <v>454</v>
-      </c>
-      <c r="I183" t="s">
-        <v>454</v>
-      </c>
-      <c r="J183" t="s">
-        <v>454</v>
-      </c>
-      <c r="K183" t="s">
-        <v>454</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6395,10 +6395,10 @@
         <v>334</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6415,10 +6415,10 @@
         <v>336</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6435,10 +6435,10 @@
         <v>338</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6455,10 +6455,10 @@
         <v>340</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6475,10 +6475,10 @@
         <v>342</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6495,10 +6495,10 @@
         <v>344</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6515,10 +6515,10 @@
         <v>346</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6532,13 +6532,13 @@
         <v>347</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6555,10 +6555,10 @@
         <v>349</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6575,10 +6575,10 @@
         <v>351</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6592,13 +6592,13 @@
         <v>352</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6612,7 +6612,7 @@
         <v>352</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6630,10 +6630,10 @@
         <v>354</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6647,13 +6647,13 @@
         <v>355</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>716</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6670,13 +6670,13 @@
         <v>357</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F198" t="s">
+        <v>453</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="F198" t="s">
-        <v>454</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6693,10 +6693,10 @@
         <v>359</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F199" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6713,10 +6713,10 @@
         <v>361</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F200" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6733,10 +6733,10 @@
         <v>363</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6753,10 +6753,10 @@
         <v>365</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F202" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6773,34 +6773,34 @@
         <v>367</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6817,10 +6817,10 @@
         <v>369</v>
       </c>
       <c r="E204" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6837,10 +6837,10 @@
         <v>371</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6857,10 +6857,10 @@
         <v>373</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6877,13 +6877,13 @@
         <v>375</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F207" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6896,10 +6896,12 @@
       <c r="C208" t="s">
         <v>376</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E208" s="2"/>
+      <c r="D208" s="1">
+        <v>380519948397</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -6909,16 +6911,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F209" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6929,16 +6931,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>381</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6949,16 +6951,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>379</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6969,44 +6971,44 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>377</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>392</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7014,21 +7016,21 @@
         <v>222</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
+        <v>722</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>724</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="727">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -2194,6 +2194,12 @@
   </si>
   <si>
     <t>380519948397;20</t>
+  </si>
+  <si>
+    <t>Бондаренко В</t>
+  </si>
+  <si>
+    <t>380519946062;50</t>
   </si>
 </sst>
 </file>
@@ -2518,10 +2524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O216"/>
+  <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,6 +7039,17 @@
         <v>723</v>
       </c>
     </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>725</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E217" t="s">
+        <v>726</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D224">
     <sortCondition ref="C189"/>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="726">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -975,9 +975,6 @@
     <t>265 ДТ Київ. обл, Бориспіль. р-н, с. Вишеньки, вул. Леніна, буд. № 148А (130)</t>
   </si>
   <si>
-    <t>(38051)9948400</t>
-  </si>
-  <si>
     <t>267 ДТ Київ. обл, Васильків. р-н, смт Гребінки, вул. Київська, 105(083)</t>
   </si>
   <si>
@@ -2046,9 +2043,6 @@
     <t>380978302991;70</t>
   </si>
   <si>
-    <t>380519948400;20</t>
-  </si>
-  <si>
     <t>380519944782;50</t>
   </si>
   <si>
@@ -2200,6 +2194,9 @@
   </si>
   <si>
     <t>380519946062;50</t>
+  </si>
+  <si>
+    <t>380971960821;75</t>
   </si>
 </sst>
 </file>
@@ -2526,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2581,10 +2578,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,10 +2598,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,10 +2618,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,10 +2658,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2681,10 +2678,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,10 +2718,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2741,10 +2738,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2761,10 +2758,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2781,10 +2778,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2801,10 +2798,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2821,10 +2818,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2841,10 +2838,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,10 +2858,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2881,10 +2878,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,10 +2898,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2918,13 +2915,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,10 +2952,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,10 +2972,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2995,16 +2992,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3021,10 +3018,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3041,10 +3038,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3061,10 +3058,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3081,10 +3078,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3101,10 +3098,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3121,13 +3118,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3144,10 +3141,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3164,10 +3161,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3184,10 +3181,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3204,10 +3201,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3224,10 +3221,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3244,10 +3241,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3264,10 +3261,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3284,10 +3281,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3304,10 +3301,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3324,10 +3321,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3344,10 +3341,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3364,10 +3361,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3384,10 +3381,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3432,28 +3429,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3470,10 +3467,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3490,10 +3487,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3510,10 +3507,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3530,25 +3527,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3565,10 +3562,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3585,10 +3582,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3605,10 +3602,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3625,10 +3622,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3645,10 +3642,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3665,10 +3662,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3685,10 +3682,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3705,10 +3702,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3725,10 +3722,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3745,10 +3742,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3762,13 +3759,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F60" t="s">
         <v>492</v>
-      </c>
-      <c r="F60" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3785,10 +3782,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3805,22 +3802,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3837,10 +3834,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3857,25 +3854,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3892,25 +3889,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K65" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3927,10 +3924,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3947,10 +3944,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3967,10 +3964,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3987,10 +3984,10 @@
         <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4007,10 +4004,10 @@
         <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4027,10 +4024,10 @@
         <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4047,10 +4044,10 @@
         <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4067,10 +4064,10 @@
         <v>134</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4087,10 +4084,10 @@
         <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4107,16 +4104,16 @@
         <v>138</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G75" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4133,25 +4130,25 @@
         <v>140</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4168,13 +4165,13 @@
         <v>142</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F77" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4191,10 +4188,10 @@
         <v>144</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4211,10 +4208,10 @@
         <v>146</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4231,10 +4228,10 @@
         <v>148</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4251,25 +4248,25 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4286,10 +4283,10 @@
         <v>152</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F82" t="s">
         <v>520</v>
-      </c>
-      <c r="F82" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4306,10 +4303,10 @@
         <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F83" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4340,10 +4337,10 @@
         <v>157</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4360,10 +4357,10 @@
         <v>159</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4380,13 +4377,13 @@
         <v>161</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="F87" t="s">
+        <v>452</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="F87" t="s">
-        <v>453</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4403,10 +4400,10 @@
         <v>163</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F88" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4423,10 +4420,10 @@
         <v>165</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F89" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4443,13 +4440,13 @@
         <v>167</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4466,10 +4463,10 @@
         <v>169</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4486,10 +4483,10 @@
         <v>171</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,10 +4503,10 @@
         <v>172</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4526,10 +4523,10 @@
         <v>306</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4546,10 +4543,10 @@
         <v>174</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4566,10 +4563,10 @@
         <v>175</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4586,10 +4583,10 @@
         <v>177</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4620,10 +4617,10 @@
         <v>180</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4640,10 +4637,10 @@
         <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4660,10 +4657,10 @@
         <v>183</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4680,10 +4677,10 @@
         <v>185</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4700,10 +4697,10 @@
         <v>187</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4720,13 +4717,13 @@
         <v>189</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F104" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4743,10 +4740,10 @@
         <v>191</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4763,10 +4760,10 @@
         <v>192</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4783,10 +4780,10 @@
         <v>194</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4803,10 +4800,10 @@
         <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4823,10 +4820,10 @@
         <v>198</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4843,10 +4840,10 @@
         <v>200</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4860,13 +4857,13 @@
         <v>201</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4883,10 +4880,10 @@
         <v>203</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4903,10 +4900,10 @@
         <v>205</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4923,10 +4920,10 @@
         <v>207</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4943,10 +4940,10 @@
         <v>209</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4963,10 +4960,10 @@
         <v>211</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4983,13 +4980,13 @@
         <v>213</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5006,10 +5003,10 @@
         <v>215</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5026,10 +5023,10 @@
         <v>217</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5043,13 +5040,13 @@
         <v>218</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5066,10 +5063,10 @@
         <v>220</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5083,10 +5080,10 @@
         <v>221</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5119,10 +5116,10 @@
         <v>225</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5139,10 +5136,10 @@
         <v>227</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5159,16 +5156,16 @@
         <v>229</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F126" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G126" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5185,10 +5182,10 @@
         <v>230</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5205,10 +5202,10 @@
         <v>232</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5225,10 +5222,10 @@
         <v>234</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5242,13 +5239,13 @@
         <v>235</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5265,22 +5262,22 @@
         <v>237</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I131" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5327,10 +5324,10 @@
         <v>241</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5347,10 +5344,10 @@
         <v>242</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5382,10 +5379,10 @@
         <v>244</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5396,16 +5393,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>245</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5422,10 +5419,10 @@
         <v>247</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5442,10 +5439,10 @@
         <v>249</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5462,10 +5459,10 @@
         <v>251</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5482,10 +5479,10 @@
         <v>253</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5502,10 +5499,10 @@
         <v>255</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5522,10 +5519,10 @@
         <v>257</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5542,10 +5539,10 @@
         <v>259</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5562,10 +5559,10 @@
         <v>261</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5579,13 +5576,13 @@
         <v>262</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5602,10 +5599,10 @@
         <v>264</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5622,10 +5619,10 @@
         <v>266</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5642,10 +5639,10 @@
         <v>268</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5662,10 +5659,10 @@
         <v>270</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F151" t="s">
         <v>649</v>
-      </c>
-      <c r="F151" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5682,10 +5679,10 @@
         <v>272</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5702,10 +5699,10 @@
         <v>274</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5722,10 +5719,10 @@
         <v>276</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5742,10 +5739,10 @@
         <v>277</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5762,10 +5759,10 @@
         <v>279</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5782,10 +5779,10 @@
         <v>281</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5802,16 +5799,16 @@
         <v>283</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F158" t="s">
+        <v>452</v>
+      </c>
+      <c r="G158" t="s">
+        <v>452</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="F158" t="s">
-        <v>453</v>
-      </c>
-      <c r="G158" t="s">
-        <v>453</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5828,10 +5825,10 @@
         <v>285</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5848,10 +5845,10 @@
         <v>287</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5868,10 +5865,10 @@
         <v>289</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5888,10 +5885,10 @@
         <v>291</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5908,22 +5905,22 @@
         <v>293</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F163" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G163" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H163" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I163" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J163" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5940,19 +5937,19 @@
         <v>295</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F164" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G164" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H164" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5966,13 +5963,13 @@
         <v>296</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5989,10 +5986,10 @@
         <v>298</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6009,10 +6006,10 @@
         <v>300</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6029,10 +6026,10 @@
         <v>302</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6049,10 +6046,10 @@
         <v>304</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6069,10 +6066,10 @@
         <v>308</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6089,10 +6086,10 @@
         <v>310</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6109,10 +6106,10 @@
         <v>312</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F172" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6126,7 +6123,7 @@
         <v>311</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6144,10 +6141,10 @@
         <v>314</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6164,10 +6161,10 @@
         <v>316</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6180,41 +6177,41 @@
       <c r="C176" t="s">
         <v>317</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>318</v>
+      <c r="D176" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>675</v>
+        <v>725</v>
       </c>
       <c r="F176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="O176" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6225,16 +6222,16 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
+        <v>318</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6245,16 +6242,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6265,22 +6262,22 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
+        <v>322</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F179" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G179" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6291,22 +6288,22 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
+        <v>324</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F180" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G180" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6317,16 +6314,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
+        <v>326</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6337,16 +6334,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>328</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6357,34 +6354,34 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>330</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6395,16 +6392,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
+        <v>332</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6415,16 +6412,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
+        <v>334</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6435,16 +6432,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>336</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6455,16 +6452,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>338</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6475,16 +6472,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>340</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6495,16 +6492,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
+        <v>342</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6515,16 +6512,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>344</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6535,16 +6532,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6555,16 +6552,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>347</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6575,16 +6572,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>349</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6595,16 +6592,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6615,10 +6612,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6630,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>352</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6650,16 +6647,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6670,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>355</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6693,16 +6690,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>357</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F199" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6713,16 +6710,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>359</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F200" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6733,16 +6730,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>361</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6753,16 +6750,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>363</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F202" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6773,40 +6770,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>365</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6817,16 +6814,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>367</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6837,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>369</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6857,16 +6854,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>371</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6877,19 +6874,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>373</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="E207" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="F207" t="s">
+        <v>452</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="F207" t="s">
-        <v>453</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,13 +6897,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D208" s="1">
         <v>380519948397</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6917,16 +6914,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F209" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,16 +6934,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>380</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6957,16 +6954,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>378</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>380</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6977,44 +6974,44 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>376</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>391</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7022,32 +7019,32 @@
         <v>222</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E217" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -402,9 +402,6 @@
     <t>094 ДТ м. Ніжин, вул. Московська,1, р-к Центральний</t>
   </si>
   <si>
-    <t>(38051)9946249</t>
-  </si>
-  <si>
     <t>(38051)9946246</t>
   </si>
   <si>
@@ -1479,9 +1476,6 @@
     <t>380519945029;50</t>
   </si>
   <si>
-    <t>380519946249;50</t>
-  </si>
-  <si>
     <t>380519946246;50</t>
   </si>
   <si>
@@ -2197,6 +2191,12 @@
   </si>
   <si>
     <t>380971960821;75</t>
+  </si>
+  <si>
+    <t>(38020)4451801</t>
+  </si>
+  <si>
+    <t>380204451801;50</t>
   </si>
 </sst>
 </file>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E176" sqref="E176"/>
+    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2578,10 +2578,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,10 +2598,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2618,10 +2618,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2638,10 +2638,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2658,10 +2658,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2678,10 +2678,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2698,10 +2698,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2738,10 +2738,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,10 +2758,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2778,10 +2778,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,10 +2798,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2818,10 +2818,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2838,10 +2838,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2858,10 +2858,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2878,10 +2878,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2898,10 +2898,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,13 +2915,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2952,10 +2952,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,10 +2972,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,16 +2992,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3018,10 +3018,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3038,10 +3038,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3058,10 +3058,10 @@
         <v>49</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3078,10 +3078,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,10 +3098,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3118,13 +3118,13 @@
         <v>54</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3141,10 +3141,10 @@
         <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3161,10 +3161,10 @@
         <v>58</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3181,10 +3181,10 @@
         <v>60</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3201,10 +3201,10 @@
         <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3221,10 +3221,10 @@
         <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3241,10 +3241,10 @@
         <v>65</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3261,10 +3261,10 @@
         <v>67</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3281,10 +3281,10 @@
         <v>69</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3301,10 +3301,10 @@
         <v>71</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3321,10 +3321,10 @@
         <v>73</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3341,10 +3341,10 @@
         <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3361,10 +3361,10 @@
         <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3381,10 +3381,10 @@
         <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3429,28 +3429,28 @@
         <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3467,10 +3467,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,10 +3487,10 @@
         <v>86</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3507,10 +3507,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3527,25 +3527,25 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3562,10 +3562,10 @@
         <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3582,10 +3582,10 @@
         <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3602,10 +3602,10 @@
         <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3622,10 +3622,10 @@
         <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3642,10 +3642,10 @@
         <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3662,10 +3662,10 @@
         <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3682,10 +3682,10 @@
         <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3702,10 +3702,10 @@
         <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3722,10 +3722,10 @@
         <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3742,10 +3742,10 @@
         <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3759,13 +3759,13 @@
         <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F60" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3782,10 +3782,10 @@
         <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3802,22 +3802,22 @@
         <v>113</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3834,10 +3834,10 @@
         <v>115</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3854,25 +3854,25 @@
         <v>117</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3889,25 +3889,25 @@
         <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K65" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3924,10 +3924,10 @@
         <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3944,10 +3944,10 @@
         <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3964,10 +3964,10 @@
         <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3981,13 +3981,13 @@
         <v>126</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>127</v>
+        <v>724</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>486</v>
+        <v>725</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>486</v>
+        <v>725</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,13 +4001,13 @@
         <v>126</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4018,16 +4018,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4038,16 +4038,16 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4058,16 +4058,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4078,16 +4078,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4098,22 +4098,22 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4124,31 +4124,31 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K76" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4159,19 +4159,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F77" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4182,16 +4182,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,16 +4202,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4222,16 +4222,16 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4242,31 +4242,31 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4277,16 +4277,16 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F82" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4297,16 +4297,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>38</v>
@@ -4331,16 +4331,16 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4351,16 +4351,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E86" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4371,19 +4371,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4394,16 +4394,16 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F88" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4414,16 +4414,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F89" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4434,19 +4434,19 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4457,16 +4457,16 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4477,16 +4477,16 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4497,16 +4497,16 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4517,16 +4517,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4537,16 +4537,16 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4557,16 +4557,16 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,16 +4577,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>175</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4597,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>38</v>
@@ -4611,16 +4611,16 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
+        <v>178</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4631,16 +4631,16 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4651,16 +4651,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4671,16 +4671,16 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
+        <v>183</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4691,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
+        <v>185</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4711,19 +4711,19 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F104" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4734,16 +4734,16 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4754,16 +4754,16 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4774,16 +4774,16 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
+        <v>192</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4794,16 +4794,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>196</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4814,16 +4814,16 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
+        <v>196</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,16 +4834,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4854,16 +4854,16 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4874,16 +4874,16 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4894,16 +4894,16 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
+        <v>203</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4914,16 +4914,16 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
+        <v>205</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4934,16 +4934,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4954,16 +4954,16 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4974,19 +4974,19 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
+        <v>211</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F117" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4997,16 +4997,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
+        <v>213</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5017,16 +5017,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5037,16 +5037,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5057,16 +5057,16 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>218</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5077,13 +5077,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>38</v>
@@ -5110,16 +5110,16 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>223</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5130,16 +5130,16 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5150,22 +5150,22 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
+        <v>227</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5176,16 +5176,16 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,16 +5196,16 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5216,16 +5216,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
+        <v>232</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5236,16 +5236,16 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5256,28 +5256,28 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
+        <v>235</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5288,10 +5288,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
+        <v>237</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -5303,10 +5303,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
+        <v>237</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -5318,16 +5318,16 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5338,16 +5338,16 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>38</v>
@@ -5373,16 +5373,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>242</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5393,16 +5393,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5413,16 +5413,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
+        <v>245</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5433,16 +5433,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>247</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5453,16 +5453,16 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5473,16 +5473,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>251</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5493,16 +5493,16 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
+        <v>253</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5513,16 +5513,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
+        <v>255</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5533,16 +5533,16 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
+        <v>257</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5553,16 +5553,16 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>259</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5573,16 +5573,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5593,16 +5593,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
+        <v>262</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5613,16 +5613,16 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
+        <v>264</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5633,16 +5633,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
+        <v>266</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5653,16 +5653,16 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F151" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5673,16 +5673,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
+        <v>270</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5693,16 +5693,16 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
+        <v>272</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5713,16 +5713,16 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>274</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5733,16 +5733,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5753,16 +5753,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5773,16 +5773,16 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5793,22 +5793,22 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
+        <v>281</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G158" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5819,16 +5819,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
+        <v>283</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5839,16 +5839,16 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
+        <v>285</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5859,16 +5859,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
+        <v>287</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5879,16 +5879,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5899,28 +5899,28 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F163" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G163" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H163" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I163" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J163" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5931,25 +5931,25 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
+        <v>293</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H164" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5960,16 +5960,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5980,16 +5980,16 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
+        <v>296</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6000,16 +6000,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
+        <v>298</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6020,16 +6020,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
+        <v>300</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6040,16 +6040,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6060,16 +6060,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
+        <v>306</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6080,16 +6080,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
+        <v>308</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6100,16 +6100,16 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
+        <v>310</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F172" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6120,10 +6120,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6135,16 +6135,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
+        <v>312</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6155,16 +6155,16 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
+        <v>314</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6175,43 +6175,43 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O176" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6222,16 +6222,16 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
+        <v>317</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6242,16 +6242,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
+        <v>319</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6262,22 +6262,22 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
+        <v>321</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F179" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G179" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6288,22 +6288,22 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
+        <v>323</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F180" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G180" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6314,16 +6314,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
+        <v>325</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6334,16 +6334,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>327</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6354,34 +6354,34 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>329</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6392,16 +6392,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
+        <v>331</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6412,16 +6412,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
+        <v>333</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6432,16 +6432,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>335</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6452,16 +6452,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>337</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6472,16 +6472,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>339</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6492,16 +6492,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
+        <v>341</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6512,16 +6512,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>343</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6532,16 +6532,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6552,16 +6552,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>346</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6572,16 +6572,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>348</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6592,16 +6592,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6612,10 +6612,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6627,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>351</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6647,16 +6647,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6667,19 +6667,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>354</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F198" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6690,16 +6690,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>356</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F199" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6710,16 +6710,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>358</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F200" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6730,16 +6730,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>360</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6750,16 +6750,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>362</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>364</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F202" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6770,40 +6770,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>364</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6814,16 +6814,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>366</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>368</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6834,16 +6834,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>368</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6854,16 +6854,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>370</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6874,19 +6874,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>372</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E207" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F207" t="s">
+        <v>451</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="F207" t="s">
-        <v>452</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6897,13 +6897,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D208" s="1">
         <v>380519948397</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6914,16 +6914,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F209" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6934,16 +6934,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>379</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6954,16 +6954,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>377</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6974,77 +6974,77 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>375</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>390</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E217" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="727">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -2197,6 +2197,9 @@
   </si>
   <si>
     <t>380204451801;50</t>
+  </si>
+  <si>
+    <t>380204451801;80</t>
   </si>
 </sst>
 </file>
@@ -2524,7 +2527,7 @@
   <dimension ref="A1:O217"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,10 +3987,10 @@
         <v>724</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="729">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -153,9 +153,6 @@
     <t>029 ДТ м. Ірпінь, вул. Центральна, буд. 2А, зупинка</t>
   </si>
   <si>
-    <t>(38‎020)4432508</t>
-  </si>
-  <si>
     <t>030 ДТ м. Ірпінь, вул. Центральна, 2А (Базар)</t>
   </si>
   <si>
@@ -948,9 +945,6 @@
     <t>258 ДТ Київ. обл, Борисп. р-н, с. Велика Олександрівка, вул. Котляревського, буд. № 27 (135)</t>
   </si>
   <si>
-    <t>‎(380663681339;35</t>
-  </si>
-  <si>
     <t>259 ДТ м. Бориспіль, вул. Лютнева, буд. № 3Б (017)</t>
   </si>
   <si>
@@ -1293,9 +1287,6 @@
     <t>380519945574;46</t>
   </si>
   <si>
-    <t>380204432508;50</t>
-  </si>
-  <si>
     <t>380519942588;50</t>
   </si>
   <si>
@@ -2028,9 +2019,6 @@
     <t>380519946240;4</t>
   </si>
   <si>
-    <t>380663681339;35</t>
-  </si>
-  <si>
     <t>380519940973;47</t>
   </si>
   <si>
@@ -2196,10 +2184,28 @@
     <t>(38020)4451801</t>
   </si>
   <si>
-    <t>380204451801;50</t>
-  </si>
-  <si>
     <t>380204451801;80</t>
+  </si>
+  <si>
+    <t>(38‎098)5340530;65</t>
+  </si>
+  <si>
+    <t>380985340530;65</t>
+  </si>
+  <si>
+    <t>380680173881;65</t>
+  </si>
+  <si>
+    <t>380680563089;65</t>
+  </si>
+  <si>
+    <t>380983144959;65</t>
+  </si>
+  <si>
+    <t>‎(380680174094;65</t>
+  </si>
+  <si>
+    <t>380680174094;65</t>
   </si>
 </sst>
 </file>
@@ -2526,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2581,10 +2587,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,10 +2647,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2661,10 +2667,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2681,10 +2687,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2701,10 +2707,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,10 +2727,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2741,10 +2747,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2761,10 +2767,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2781,10 +2787,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2801,10 +2807,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2821,10 +2827,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2841,10 +2847,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2861,10 +2867,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F16" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2881,10 +2887,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2901,10 +2907,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2918,13 +2924,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,10 +2961,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,10 +2981,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2992,19 +2998,19 @@
         <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>722</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>424</v>
+        <v>723</v>
       </c>
       <c r="F23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G23" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3015,16 +3021,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3035,16 +3041,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3055,16 +3061,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3075,16 +3081,16 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3095,16 +3101,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3115,19 +3121,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3138,16 +3144,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3158,16 +3164,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3178,16 +3184,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3198,16 +3204,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,16 +3224,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3238,16 +3244,16 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3258,16 +3264,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F36" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3278,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3298,16 +3304,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3318,16 +3324,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3338,16 +3344,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3358,16 +3364,16 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3378,16 +3384,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3398,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>38</v>
@@ -3412,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>38</v>
@@ -3426,34 +3432,34 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3464,16 +3470,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,16 +3490,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3504,16 +3510,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3524,31 +3530,31 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E49" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3559,16 +3565,16 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,16 +3585,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3599,16 +3605,16 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3619,16 +3625,16 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3639,16 +3645,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3659,16 +3665,16 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3679,16 +3685,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3699,16 +3705,16 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3719,16 +3725,16 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3739,16 +3745,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3759,16 +3765,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F60" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,16 +3785,16 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3799,28 +3805,28 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E62" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F62" t="s">
+        <v>448</v>
+      </c>
+      <c r="G62" t="s">
+        <v>448</v>
+      </c>
+      <c r="H62" t="s">
+        <v>448</v>
+      </c>
+      <c r="I62" t="s">
+        <v>448</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="F62" t="s">
-        <v>451</v>
-      </c>
-      <c r="G62" t="s">
-        <v>451</v>
-      </c>
-      <c r="H62" t="s">
-        <v>451</v>
-      </c>
-      <c r="I62" t="s">
-        <v>451</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3831,16 +3837,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E63" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3851,31 +3857,31 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K64" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3886,31 +3892,31 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3921,16 +3927,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3941,16 +3947,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3961,16 +3967,16 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3981,16 +3987,16 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4001,16 +4007,16 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4021,16 +4027,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4041,16 +4047,16 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4061,16 +4067,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4081,16 +4087,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4101,22 +4107,22 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F75" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G75" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4127,31 +4133,31 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F76" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G76" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H76" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I76" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J76" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K76" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4162,19 +4168,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F77" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4185,16 +4191,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4205,16 +4211,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4225,16 +4231,16 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4245,31 +4251,31 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K81" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4280,16 +4286,16 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F82" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4300,16 +4306,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F83" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4320,10 +4326,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>38</v>
+        <v>153</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4334,16 +4343,16 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4354,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4374,19 +4383,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F87" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4397,16 +4406,16 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
+        <v>160</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="E88" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F88" t="s">
         <v>541</v>
-      </c>
-      <c r="F88" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4417,16 +4426,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F89" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4437,19 +4446,19 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F90" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4460,16 +4469,16 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4480,16 +4489,16 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4500,16 +4509,16 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4520,16 +4529,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4540,16 +4549,16 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4560,16 +4569,16 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4580,16 +4589,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4600,10 +4609,13 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>38</v>
+        <v>176</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4614,16 +4626,16 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
+        <v>177</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4634,16 +4646,16 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,16 +4666,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4674,16 +4686,16 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
+        <v>182</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E102" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4694,16 +4706,16 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
+        <v>184</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4714,19 +4726,19 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
+        <v>186</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E104" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F104" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4737,16 +4749,16 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4757,16 +4769,16 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4777,16 +4789,16 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
+        <v>191</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4797,16 +4809,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
+        <v>193</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4817,16 +4829,16 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4837,16 +4849,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4857,16 +4869,16 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4877,16 +4889,16 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
+        <v>200</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4897,16 +4909,16 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="E113" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4917,16 +4929,16 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4937,16 +4949,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
+        <v>206</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4957,16 +4969,16 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4977,19 +4989,19 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F117" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5000,16 +5012,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
+        <v>212</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5020,16 +5032,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,16 +5052,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5060,16 +5072,16 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>217</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5080,13 +5092,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5098,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>38</v>
@@ -5113,16 +5125,16 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,16 +5145,16 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5153,22 +5165,22 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5179,16 +5191,16 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5199,16 +5211,16 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>229</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5219,16 +5231,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
+        <v>231</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5239,16 +5251,16 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5259,28 +5271,28 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
+        <v>234</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F131" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G131" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H131" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I131" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5291,10 +5303,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -5306,10 +5318,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
+        <v>236</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -5321,16 +5333,16 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
+        <v>238</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5341,16 +5353,16 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5361,12 +5373,14 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>239</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E136" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -5376,16 +5390,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>241</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5396,16 +5410,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5416,16 +5430,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
+        <v>244</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5436,16 +5450,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>246</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5456,16 +5470,16 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>248</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5476,16 +5490,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>250</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5496,16 +5510,16 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5516,16 +5530,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
+        <v>254</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5536,16 +5550,16 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5556,16 +5570,16 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5576,16 +5590,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5596,16 +5610,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
+        <v>261</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5616,16 +5630,16 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5636,16 +5650,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,16 +5670,16 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F151" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,16 +5690,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
+        <v>269</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>271</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5696,16 +5710,16 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
+        <v>271</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5716,16 +5730,16 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>273</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5736,16 +5750,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5756,16 +5770,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
+        <v>276</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5776,16 +5790,16 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
+        <v>278</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5796,22 +5810,22 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
+        <v>280</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F158" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G158" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,16 +5836,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
+        <v>282</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5842,16 +5856,16 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
+        <v>284</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5862,16 +5876,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
+        <v>286</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5882,16 +5896,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
+        <v>288</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>290</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5902,28 +5916,28 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
+        <v>290</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F163" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G163" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H163" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I163" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J163" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5934,25 +5948,25 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
+        <v>292</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F164" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G164" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H164" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5963,16 +5977,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5983,16 +5997,16 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
+        <v>295</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6003,16 +6017,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
+        <v>297</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6023,16 +6037,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
+        <v>299</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6043,16 +6057,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
+        <v>301</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6063,16 +6077,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
+        <v>305</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6083,16 +6097,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>309</v>
+        <v>727</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>669</v>
+        <v>728</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>669</v>
+        <v>728</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6103,16 +6117,16 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F172" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6123,10 +6137,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6138,16 +6152,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6158,16 +6172,16 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6178,43 +6192,43 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O176" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6225,16 +6239,16 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6245,16 +6259,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6265,22 +6279,22 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="F179" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G179" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6291,22 +6305,22 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F180" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G180" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6317,16 +6331,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6337,16 +6351,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6357,34 +6371,34 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6395,16 +6409,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6415,16 +6429,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6435,16 +6449,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6455,16 +6469,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6475,16 +6489,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6495,16 +6509,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6515,16 +6529,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6535,16 +6549,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6555,16 +6569,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6575,16 +6589,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6595,16 +6609,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6615,10 +6629,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6630,16 +6644,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6650,16 +6664,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6670,19 +6684,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F198" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6693,16 +6707,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F199" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6713,16 +6727,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F200" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6733,16 +6747,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6753,16 +6767,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F202" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6773,40 +6787,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="J203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N203" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6817,16 +6831,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6837,16 +6851,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6857,16 +6871,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6877,19 +6891,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F207" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,13 +6914,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D208" s="1">
         <v>380519948397</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6917,16 +6931,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F209" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6937,16 +6951,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6957,16 +6971,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E211" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F211" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6977,77 +6991,77 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E217" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="729">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -648,9 +648,6 @@
     <t>170 ДТ Київська обл., Броварський р-н, с. Русанів, вул. Леніна, 74</t>
   </si>
   <si>
-    <t>(38068)1173285</t>
-  </si>
-  <si>
     <t>171 ДТ Чернігівська обл., Бобровицький р-н, с. Новий Биків</t>
   </si>
   <si>
@@ -1842,9 +1839,6 @@
     <t>380519942590;50</t>
   </si>
   <si>
-    <t>380681173285;70</t>
-  </si>
-  <si>
     <t>380519944778;36</t>
   </si>
   <si>
@@ -2187,12 +2181,6 @@
     <t>380204451801;80</t>
   </si>
   <si>
-    <t>(38‎098)5340530;65</t>
-  </si>
-  <si>
-    <t>380985340530;65</t>
-  </si>
-  <si>
     <t>380680173881;65</t>
   </si>
   <si>
@@ -2206,6 +2194,18 @@
   </si>
   <si>
     <t>380680174094;65</t>
+  </si>
+  <si>
+    <t>380962607284;75</t>
+  </si>
+  <si>
+    <t>380974448527;75</t>
+  </si>
+  <si>
+    <t>'380974448527;75</t>
+  </si>
+  <si>
+    <t>380970296817;75</t>
   </si>
 </sst>
 </file>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2587,10 +2587,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2607,10 +2607,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2647,10 +2647,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,10 +2667,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2687,10 +2687,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2707,10 +2707,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2727,10 +2727,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,10 +2747,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2767,10 +2767,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2787,10 +2787,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2807,10 +2807,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2847,10 +2847,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2867,10 +2867,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,10 +2887,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2907,10 +2907,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2924,13 +2924,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2943,8 +2943,11 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
+      <c r="D20" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E20" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2961,10 +2964,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2981,10 +2984,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,20 +3000,20 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>722</v>
+      <c r="D23" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>723</v>
+        <v>517</v>
       </c>
       <c r="F23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3027,10 +3030,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,10 +3050,10 @@
         <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3067,10 +3070,10 @@
         <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3087,10 +3090,10 @@
         <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3107,10 +3110,10 @@
         <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3127,13 +3130,13 @@
         <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3150,10 +3153,10 @@
         <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3170,10 +3173,10 @@
         <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3190,10 +3193,10 @@
         <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3210,10 +3213,10 @@
         <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3230,10 +3233,10 @@
         <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3250,10 +3253,10 @@
         <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3270,10 +3273,10 @@
         <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3290,10 +3293,10 @@
         <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3310,10 +3313,10 @@
         <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3330,10 +3333,10 @@
         <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3350,10 +3353,10 @@
         <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,10 +3373,10 @@
         <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3390,10 +3393,10 @@
         <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,8 +3409,11 @@
       <c r="C43" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
+      <c r="D43" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3438,28 +3444,28 @@
         <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L45" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3476,10 +3482,10 @@
         <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3496,10 +3502,10 @@
         <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3516,10 +3522,10 @@
         <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3536,25 +3542,25 @@
         <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3571,10 +3577,10 @@
         <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3591,10 +3597,10 @@
         <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3611,10 +3617,10 @@
         <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3631,10 +3637,10 @@
         <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3651,10 +3657,10 @@
         <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3671,10 +3677,10 @@
         <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3691,10 +3697,10 @@
         <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3711,10 +3717,10 @@
         <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3731,10 +3737,10 @@
         <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3751,10 +3757,10 @@
         <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3768,13 +3774,13 @@
         <v>108</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F60" t="s">
         <v>486</v>
-      </c>
-      <c r="F60" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3791,10 +3797,10 @@
         <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3811,22 +3817,22 @@
         <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3843,10 +3849,10 @@
         <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3863,25 +3869,25 @@
         <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3898,25 +3904,25 @@
         <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3933,10 +3939,10 @@
         <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3953,10 +3959,10 @@
         <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3973,10 +3979,10 @@
         <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3990,13 +3996,13 @@
         <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4013,10 +4019,10 @@
         <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4033,10 +4039,10 @@
         <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4053,10 +4059,10 @@
         <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4073,10 +4079,10 @@
         <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4093,10 +4099,10 @@
         <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4113,16 +4119,16 @@
         <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F75" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G75" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4139,25 +4145,25 @@
         <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4174,13 +4180,13 @@
         <v>140</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F77" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4197,10 +4203,10 @@
         <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4217,10 +4223,10 @@
         <v>144</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4237,10 +4243,10 @@
         <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4257,25 +4263,25 @@
         <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K81" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4292,10 +4298,10 @@
         <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F82" t="s">
         <v>514</v>
-      </c>
-      <c r="F82" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4312,10 +4318,10 @@
         <v>152</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F83" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4329,10 +4335,10 @@
         <v>153</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4349,10 +4355,10 @@
         <v>155</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4369,10 +4375,10 @@
         <v>157</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4389,13 +4395,13 @@
         <v>159</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F87" t="s">
+        <v>447</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F87" t="s">
-        <v>448</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4412,10 +4418,10 @@
         <v>161</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F88" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4432,10 +4438,10 @@
         <v>163</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F89" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4452,13 +4458,13 @@
         <v>165</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4475,10 +4481,10 @@
         <v>167</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4495,10 +4501,10 @@
         <v>169</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4515,10 +4521,10 @@
         <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4529,16 +4535,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E94" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4555,10 +4561,10 @@
         <v>172</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4575,10 +4581,10 @@
         <v>173</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4595,10 +4601,10 @@
         <v>175</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4612,10 +4618,10 @@
         <v>176</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4632,10 +4638,10 @@
         <v>178</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4652,10 +4658,10 @@
         <v>179</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4672,10 +4678,10 @@
         <v>181</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4692,10 +4698,10 @@
         <v>183</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4712,10 +4718,10 @@
         <v>185</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4732,13 +4738,13 @@
         <v>187</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4755,10 +4761,10 @@
         <v>189</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4775,10 +4781,10 @@
         <v>190</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4795,10 +4801,10 @@
         <v>192</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4815,10 +4821,10 @@
         <v>194</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4835,10 +4841,10 @@
         <v>196</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4855,10 +4861,10 @@
         <v>198</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4872,13 +4878,13 @@
         <v>199</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4895,10 +4901,10 @@
         <v>201</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4915,10 +4921,10 @@
         <v>203</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4935,10 +4941,10 @@
         <v>205</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4955,10 +4961,10 @@
         <v>207</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4971,14 +4977,14 @@
       <c r="C116" t="s">
         <v>208</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>209</v>
+      <c r="D116" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>607</v>
+        <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4989,19 +4995,19 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F117" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5012,16 +5018,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5032,16 +5038,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
+        <v>213</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5052,16 +5058,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5072,16 +5078,16 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>216</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5092,13 +5098,13 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5110,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>38</v>
@@ -5125,16 +5131,16 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
+        <v>221</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5145,16 +5151,16 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5165,22 +5171,22 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
+        <v>225</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G126" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5191,16 +5197,16 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5211,16 +5217,16 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
+        <v>228</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5231,16 +5237,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
+        <v>230</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="E129" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5251,16 +5257,16 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5271,28 +5277,28 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
+        <v>233</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="E131" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F131" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G131" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H131" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I131" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5303,10 +5309,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -5318,10 +5324,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
+        <v>235</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -5333,16 +5339,16 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
+        <v>237</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5353,16 +5359,16 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5373,13 +5379,13 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5390,16 +5396,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
+        <v>240</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5410,16 +5416,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5430,16 +5436,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
+        <v>243</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5450,16 +5456,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
+        <v>245</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5470,16 +5476,16 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
+        <v>247</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E141" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5490,16 +5496,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5510,16 +5516,16 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
+        <v>251</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E143" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5530,16 +5536,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
+        <v>253</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E144" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5550,16 +5556,16 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5570,16 +5576,16 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
+        <v>257</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5590,16 +5596,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5610,16 +5616,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
+        <v>260</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5630,16 +5636,16 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
+        <v>262</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>264</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5650,16 +5656,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
+        <v>264</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5670,16 +5676,16 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
+        <v>266</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E151" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F151" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5690,16 +5696,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
+        <v>268</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="E152" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5710,16 +5716,16 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
+        <v>270</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5730,16 +5736,16 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
+        <v>272</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E154" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5750,16 +5756,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5770,16 +5776,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
+        <v>275</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="E156" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5790,16 +5796,16 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
+        <v>277</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="E157" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5810,22 +5816,22 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
+        <v>279</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F158" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G158" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5836,16 +5842,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
+        <v>281</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5856,16 +5862,16 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
+        <v>283</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5876,16 +5882,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
+        <v>285</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5896,16 +5902,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
+        <v>287</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D162" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5916,28 +5922,28 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
+        <v>289</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5948,25 +5954,25 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
+        <v>291</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F164" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G164" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H164" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5977,16 +5983,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -5997,16 +6003,16 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
+        <v>294</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6017,16 +6023,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
+        <v>296</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6037,16 +6043,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
+        <v>298</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D168" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6057,16 +6063,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6077,16 +6083,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
+        <v>304</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6097,16 +6103,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6117,16 +6123,16 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F172" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6137,10 +6143,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6152,16 +6158,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6172,16 +6178,16 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
+        <v>311</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6192,43 +6198,43 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6239,16 +6245,16 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
+        <v>314</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>316</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6259,16 +6265,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
+        <v>316</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6279,22 +6285,22 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
+        <v>318</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6305,22 +6311,22 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
+        <v>320</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F180" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G180" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6331,16 +6337,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
+        <v>322</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6351,16 +6357,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
+        <v>324</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="E182" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6371,34 +6377,34 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>326</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6409,16 +6415,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
+        <v>328</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6429,16 +6435,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
+        <v>330</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6449,16 +6455,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>332</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6469,16 +6475,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>334</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6489,16 +6495,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>336</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6509,16 +6515,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
+        <v>338</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6529,16 +6535,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>340</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6549,16 +6555,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6569,16 +6575,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>343</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6589,16 +6595,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>345</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6609,16 +6615,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6629,10 +6635,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6644,16 +6650,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>348</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6664,16 +6670,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6684,19 +6690,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>351</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F198" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6707,16 +6713,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>353</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F199" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6727,16 +6733,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>355</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F200" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6747,16 +6753,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>357</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6767,16 +6773,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
+        <v>359</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F202" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6787,40 +6793,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
+        <v>361</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="E203" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N203" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6831,16 +6837,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
+        <v>363</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6851,16 +6857,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
+        <v>365</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D205" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="E205" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6871,16 +6877,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
+        <v>367</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6891,19 +6897,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
+        <v>369</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D207" s="1" t="s">
-        <v>371</v>
-      </c>
       <c r="E207" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F207" t="s">
+        <v>447</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="F207" t="s">
-        <v>448</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6914,13 +6920,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D208" s="1">
         <v>380519948397</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6931,16 +6937,16 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F209" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,16 +6957,16 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
+        <v>376</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="E210" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6971,16 +6977,16 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
+        <v>374</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>376</v>
-      </c>
       <c r="E211" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6991,77 +6997,77 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>372</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
+        <v>387</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D214" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="E214" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E217" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="730">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -2206,6 +2206,9 @@
   </si>
   <si>
     <t>380970296817;75</t>
+  </si>
+  <si>
+    <t>OFF</t>
   </si>
 </sst>
 </file>
@@ -2532,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6963,7 +6966,7 @@
         <v>377</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>707</v>
@@ -7017,7 +7020,7 @@
         <v>708</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>708</v>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -1530,9 +1530,6 @@
     <t>380988135568;70</t>
   </si>
   <si>
-    <t>380519948884;49</t>
-  </si>
-  <si>
     <t>380519948884;35</t>
   </si>
   <si>
@@ -2209,6 +2206,9 @@
   </si>
   <si>
     <t>OFF</t>
+  </si>
+  <si>
+    <t>380519948884;50</t>
   </si>
 </sst>
 </file>
@@ -2535,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2947,10 +2947,10 @@
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E20" t="s">
         <v>726</v>
-      </c>
-      <c r="E20" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3004,10 +3004,10 @@
         <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F23" t="s">
         <v>447</v>
@@ -3413,10 +3413,10 @@
         <v>78</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3999,13 +3999,13 @@
         <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4062,10 +4062,10 @@
         <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4085,7 +4085,7 @@
         <v>496</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4131,7 +4131,7 @@
         <v>447</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4148,7 +4148,7 @@
         <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F76" t="s">
         <v>447</v>
@@ -4189,7 +4189,7 @@
         <v>447</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>500</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
         <v>501</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4246,10 +4246,10 @@
         <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
         <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F81" t="s">
         <v>447</v>
@@ -4301,10 +4301,10 @@
         <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F82" t="s">
         <v>513</v>
-      </c>
-      <c r="F82" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>152</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F83" t="s">
         <v>447</v>
@@ -4338,10 +4338,10 @@
         <v>153</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4358,10 +4358,10 @@
         <v>155</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,10 +4378,10 @@
         <v>157</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4398,13 +4398,13 @@
         <v>159</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F87" t="s">
+        <v>447</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="F87" t="s">
-        <v>447</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4421,10 +4421,10 @@
         <v>161</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4441,10 +4441,10 @@
         <v>163</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4461,13 +4461,13 @@
         <v>165</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F90" t="s">
         <v>447</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4484,10 +4484,10 @@
         <v>167</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,10 +4504,10 @@
         <v>169</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4524,10 +4524,10 @@
         <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4544,10 +4544,10 @@
         <v>303</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4564,10 +4564,10 @@
         <v>172</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4584,10 +4584,10 @@
         <v>173</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4604,10 +4604,10 @@
         <v>175</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4621,10 +4621,10 @@
         <v>176</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4641,10 +4641,10 @@
         <v>178</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4661,10 +4661,10 @@
         <v>179</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4681,10 +4681,10 @@
         <v>181</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4701,10 +4701,10 @@
         <v>183</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,10 +4721,10 @@
         <v>185</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4741,13 +4741,13 @@
         <v>187</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F104" t="s">
         <v>447</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4764,10 +4764,10 @@
         <v>189</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,10 +4784,10 @@
         <v>190</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>192</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4824,10 +4824,10 @@
         <v>194</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,10 +4844,10 @@
         <v>196</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4864,10 +4864,10 @@
         <v>198</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4881,13 +4881,13 @@
         <v>199</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4904,10 +4904,10 @@
         <v>201</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4924,10 +4924,10 @@
         <v>203</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4944,10 +4944,10 @@
         <v>205</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,10 +4964,10 @@
         <v>207</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,13 +4981,13 @@
         <v>208</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5004,13 +5004,13 @@
         <v>210</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F117" t="s">
         <v>447</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5027,10 +5027,10 @@
         <v>212</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5047,10 +5047,10 @@
         <v>214</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5067,10 +5067,10 @@
         <v>384</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5087,10 +5087,10 @@
         <v>217</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,10 +5104,10 @@
         <v>218</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5140,10 +5140,10 @@
         <v>222</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5160,10 +5160,10 @@
         <v>224</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
         <v>226</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F126" t="s">
         <v>447</v>
@@ -5189,7 +5189,7 @@
         <v>447</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,10 +5206,10 @@
         <v>227</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5226,10 +5226,10 @@
         <v>229</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5246,10 +5246,10 @@
         <v>231</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5266,10 +5266,10 @@
         <v>386</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5286,7 +5286,7 @@
         <v>234</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F131" t="s">
         <v>447</v>
@@ -5301,7 +5301,7 @@
         <v>447</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5348,10 +5348,10 @@
         <v>238</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5368,10 +5368,10 @@
         <v>239</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5385,10 +5385,10 @@
         <v>237</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5405,10 +5405,10 @@
         <v>241</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5425,10 +5425,10 @@
         <v>242</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5445,10 +5445,10 @@
         <v>244</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5465,10 +5465,10 @@
         <v>246</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5485,10 +5485,10 @@
         <v>248</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5505,10 +5505,10 @@
         <v>250</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5525,10 +5525,10 @@
         <v>252</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5545,10 +5545,10 @@
         <v>254</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,10 +5565,10 @@
         <v>256</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5585,10 +5585,10 @@
         <v>258</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5602,13 +5602,13 @@
         <v>259</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5625,10 +5625,10 @@
         <v>261</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5645,10 +5645,10 @@
         <v>263</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5665,10 +5665,10 @@
         <v>265</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5685,10 +5685,10 @@
         <v>267</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F151" t="s">
         <v>641</v>
-      </c>
-      <c r="F151" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5705,10 +5705,10 @@
         <v>269</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5725,10 +5725,10 @@
         <v>271</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,10 +5745,10 @@
         <v>273</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5765,10 +5765,10 @@
         <v>274</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5785,10 +5785,10 @@
         <v>276</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5805,10 +5805,10 @@
         <v>278</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,16 +5825,16 @@
         <v>280</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F158" t="s">
+        <v>447</v>
+      </c>
+      <c r="G158" t="s">
+        <v>447</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="F158" t="s">
-        <v>447</v>
-      </c>
-      <c r="G158" t="s">
-        <v>447</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5851,10 +5851,10 @@
         <v>282</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5871,10 +5871,10 @@
         <v>284</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5891,10 +5891,10 @@
         <v>286</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5911,10 +5911,10 @@
         <v>288</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5931,7 +5931,7 @@
         <v>290</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F163" t="s">
         <v>447</v>
@@ -5963,7 +5963,7 @@
         <v>292</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F164" t="s">
         <v>447</v>
@@ -5975,7 +5975,7 @@
         <v>447</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5992,10 +5992,10 @@
         <v>382</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -6012,10 +6012,10 @@
         <v>295</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6032,10 +6032,10 @@
         <v>297</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6052,10 +6052,10 @@
         <v>299</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6072,10 +6072,10 @@
         <v>301</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6092,10 +6092,10 @@
         <v>305</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6109,13 +6109,13 @@
         <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>724</v>
-      </c>
       <c r="F171" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6132,7 +6132,7 @@
         <v>308</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F172" t="s">
         <v>447</v>
@@ -6167,10 +6167,10 @@
         <v>310</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6187,10 +6187,10 @@
         <v>312</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6204,10 +6204,10 @@
         <v>313</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F176" t="s">
         <v>447</v>
@@ -6254,10 +6254,10 @@
         <v>315</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6274,10 +6274,10 @@
         <v>317</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6294,16 +6294,16 @@
         <v>319</v>
       </c>
       <c r="E179" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F179" t="s">
+        <v>447</v>
+      </c>
+      <c r="G179" t="s">
+        <v>447</v>
+      </c>
+      <c r="H179" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="F179" t="s">
-        <v>447</v>
-      </c>
-      <c r="G179" t="s">
-        <v>447</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6320,16 +6320,16 @@
         <v>321</v>
       </c>
       <c r="E180" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F180" t="s">
+        <v>447</v>
+      </c>
+      <c r="G180" t="s">
+        <v>447</v>
+      </c>
+      <c r="H180" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="F180" t="s">
-        <v>447</v>
-      </c>
-      <c r="G180" t="s">
-        <v>447</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6346,10 +6346,10 @@
         <v>323</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6366,10 +6366,10 @@
         <v>325</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6386,28 +6386,28 @@
         <v>327</v>
       </c>
       <c r="E183" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F183" t="s">
+        <v>447</v>
+      </c>
+      <c r="G183" t="s">
+        <v>447</v>
+      </c>
+      <c r="H183" t="s">
+        <v>447</v>
+      </c>
+      <c r="I183" t="s">
+        <v>447</v>
+      </c>
+      <c r="J183" t="s">
+        <v>447</v>
+      </c>
+      <c r="K183" t="s">
+        <v>447</v>
+      </c>
+      <c r="L183" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="F183" t="s">
-        <v>447</v>
-      </c>
-      <c r="G183" t="s">
-        <v>447</v>
-      </c>
-      <c r="H183" t="s">
-        <v>447</v>
-      </c>
-      <c r="I183" t="s">
-        <v>447</v>
-      </c>
-      <c r="J183" t="s">
-        <v>447</v>
-      </c>
-      <c r="K183" t="s">
-        <v>447</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6424,10 +6424,10 @@
         <v>329</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6444,10 +6444,10 @@
         <v>331</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6464,10 +6464,10 @@
         <v>333</v>
       </c>
       <c r="E186" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6484,10 +6484,10 @@
         <v>335</v>
       </c>
       <c r="E187" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F187" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6504,10 +6504,10 @@
         <v>337</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6524,10 +6524,10 @@
         <v>339</v>
       </c>
       <c r="E189" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F189" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6544,10 +6544,10 @@
         <v>341</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6561,13 +6561,13 @@
         <v>342</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6584,10 +6584,10 @@
         <v>344</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6604,10 +6604,10 @@
         <v>346</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6621,13 +6621,13 @@
         <v>347</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6641,7 +6641,7 @@
         <v>347</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6659,10 +6659,10 @@
         <v>349</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6676,13 +6676,13 @@
         <v>350</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>705</v>
-      </c>
       <c r="F197" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6699,13 +6699,13 @@
         <v>352</v>
       </c>
       <c r="E198" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F198" t="s">
+        <v>447</v>
+      </c>
+      <c r="G198" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="F198" t="s">
-        <v>447</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6722,10 +6722,10 @@
         <v>354</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F199" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6742,10 +6742,10 @@
         <v>356</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F200" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6762,10 +6762,10 @@
         <v>358</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6782,10 +6782,10 @@
         <v>360</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F202" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6802,7 +6802,7 @@
         <v>362</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F203" t="s">
         <v>447</v>
@@ -6846,10 +6846,10 @@
         <v>364</v>
       </c>
       <c r="E204" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F204" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6866,10 +6866,10 @@
         <v>366</v>
       </c>
       <c r="E205" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F205" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6886,10 +6886,10 @@
         <v>368</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6906,13 +6906,13 @@
         <v>370</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F207" t="s">
         <v>447</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6929,7 +6929,7 @@
         <v>380519948397</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6943,10 +6943,10 @@
         <v>380</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F209" t="s">
         <v>447</v>
@@ -6966,10 +6966,10 @@
         <v>377</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6986,10 +6986,10 @@
         <v>375</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -7006,10 +7006,10 @@
         <v>373</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -7017,13 +7017,13 @@
         <v>381</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -7045,32 +7045,32 @@
         <v>219</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
+        <v>711</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>713</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
+        <v>714</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="D217" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="E217" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="733">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -996,9 +996,6 @@
     <t>273 ДТ Київ. обл, Києво-Святошин. р-н, смт Чабани, вул. Машинобудівників, буд. № 1/2(032)</t>
   </si>
   <si>
-    <t>(38020)4482693</t>
-  </si>
-  <si>
     <t>274 ДТ м. Київ, вул. Юнкерова, буд. № 90, Пуща-Водиця(144)</t>
   </si>
   <si>
@@ -1101,9 +1098,6 @@
     <t>293 ДТ Київ. обл, Бровар. р-н, с. Рудня, вул. Чапаєва, буд. № 22(076)</t>
   </si>
   <si>
-    <t>(38020)4486391</t>
-  </si>
-  <si>
     <t>294 ДТ Київ. обл, Бровар. р-н, с. Плоске, вул. Леніна, буд. № 1(077)</t>
   </si>
   <si>
@@ -1605,9 +1599,6 @@
     <t>380204486394;80</t>
   </si>
   <si>
-    <t>380204486391;80</t>
-  </si>
-  <si>
     <t>380519944932;50</t>
   </si>
   <si>
@@ -2103,9 +2094,6 @@
     <t>380519942568;50</t>
   </si>
   <si>
-    <t>380519940925;50</t>
-  </si>
-  <si>
     <t>380519940897;50</t>
   </si>
   <si>
@@ -2209,6 +2197,27 @@
   </si>
   <si>
     <t>380519948884;50</t>
+  </si>
+  <si>
+    <t>(38020)4432508</t>
+  </si>
+  <si>
+    <t>380204432508;80</t>
+  </si>
+  <si>
+    <t>380983386478;50</t>
+  </si>
+  <si>
+    <t>380687493036;50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322 ДТ Біла Церква </t>
+  </si>
+  <si>
+    <t xml:space="preserve">323 ДТ Фастів </t>
+  </si>
+  <si>
+    <t>380966558607;50</t>
   </si>
 </sst>
 </file>
@@ -2533,10 +2542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O217"/>
+  <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="B202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E211" sqref="E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F1" s="3">
         <v>43040</v>
@@ -2590,10 +2599,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2610,10 +2619,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2630,10 +2639,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2650,10 +2659,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2670,10 +2679,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2690,10 +2699,10 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,10 +2719,10 @@
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2730,10 +2739,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2750,10 +2759,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,10 +2779,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2790,10 +2799,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2810,10 +2819,10 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2830,10 +2839,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2850,10 +2859,10 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2870,10 +2879,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F16" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2890,10 +2899,10 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,10 +2919,10 @@
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2927,13 +2936,13 @@
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,10 +2956,10 @@
         <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E20" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2967,10 +2976,10 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2987,10 +2996,10 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3004,19 +3013,19 @@
         <v>43</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G23" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3033,10 +3042,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,10 +3062,10 @@
         <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3073,10 +3082,10 @@
         <v>48</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3093,10 +3102,10 @@
         <v>49</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -3113,10 +3122,10 @@
         <v>51</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3133,13 +3142,13 @@
         <v>53</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3156,10 +3165,10 @@
         <v>55</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3176,10 +3185,10 @@
         <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3196,10 +3205,10 @@
         <v>59</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3216,10 +3225,10 @@
         <v>61</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3236,10 +3245,10 @@
         <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3256,10 +3265,10 @@
         <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3276,10 +3285,10 @@
         <v>66</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F36" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3296,10 +3305,10 @@
         <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3316,10 +3325,10 @@
         <v>70</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3336,10 +3345,10 @@
         <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3356,10 +3365,10 @@
         <v>74</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3376,10 +3385,10 @@
         <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3396,10 +3405,10 @@
         <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3413,10 +3422,10 @@
         <v>78</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3447,28 +3456,28 @@
         <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3485,10 +3494,10 @@
         <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3505,10 +3514,10 @@
         <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3525,10 +3534,10 @@
         <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3545,25 +3554,25 @@
         <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K49" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3580,10 +3589,10 @@
         <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3600,10 +3609,10 @@
         <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3620,10 +3629,10 @@
         <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3640,10 +3649,10 @@
         <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3660,10 +3669,10 @@
         <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3680,10 +3689,10 @@
         <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3700,10 +3709,10 @@
         <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3720,10 +3729,10 @@
         <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3740,10 +3749,10 @@
         <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3760,10 +3769,10 @@
         <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3777,13 +3786,13 @@
         <v>108</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F60" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3800,10 +3809,10 @@
         <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3820,22 +3829,22 @@
         <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3852,10 +3861,10 @@
         <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3872,25 +3881,25 @@
         <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3907,25 +3916,25 @@
         <v>118</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F65" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G65" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H65" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J65" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K65" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3942,10 +3951,10 @@
         <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3962,10 +3971,10 @@
         <v>122</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3982,10 +3991,10 @@
         <v>124</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3999,13 +4008,13 @@
         <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4022,10 +4031,10 @@
         <v>126</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4042,10 +4051,10 @@
         <v>128</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4062,10 +4071,10 @@
         <v>130</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4082,10 +4091,10 @@
         <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4102,10 +4111,10 @@
         <v>134</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4122,16 +4131,16 @@
         <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F75" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G75" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4148,25 +4157,25 @@
         <v>138</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K76" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4183,13 +4192,13 @@
         <v>140</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F77" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4206,10 +4215,10 @@
         <v>142</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4226,10 +4235,10 @@
         <v>144</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4246,10 +4255,10 @@
         <v>146</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4266,25 +4275,25 @@
         <v>148</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K81" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4301,10 +4310,10 @@
         <v>150</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F82" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4321,10 +4330,10 @@
         <v>152</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F83" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4338,10 +4347,10 @@
         <v>153</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4358,10 +4367,10 @@
         <v>155</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4378,10 +4387,10 @@
         <v>157</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4398,13 +4407,13 @@
         <v>159</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4421,10 +4430,10 @@
         <v>161</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F88" t="s">
         <v>536</v>
-      </c>
-      <c r="F88" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4441,10 +4450,10 @@
         <v>163</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F89" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4461,13 +4470,13 @@
         <v>165</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F90" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -4484,10 +4493,10 @@
         <v>167</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,10 +4513,10 @@
         <v>169</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4524,10 +4533,10 @@
         <v>170</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -4544,10 +4553,10 @@
         <v>303</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -4564,10 +4573,10 @@
         <v>172</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -4584,10 +4593,10 @@
         <v>173</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -4604,10 +4613,10 @@
         <v>175</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -4621,10 +4630,10 @@
         <v>176</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4641,10 +4650,10 @@
         <v>178</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4661,10 +4670,10 @@
         <v>179</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -4681,10 +4690,10 @@
         <v>181</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -4701,10 +4710,10 @@
         <v>183</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,10 +4730,10 @@
         <v>185</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4741,13 +4750,13 @@
         <v>187</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -4764,10 +4773,10 @@
         <v>189</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,10 +4793,10 @@
         <v>190</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -4804,10 +4813,10 @@
         <v>192</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4824,10 +4833,10 @@
         <v>194</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -4844,10 +4853,10 @@
         <v>196</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4864,10 +4873,10 @@
         <v>198</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -4881,13 +4890,13 @@
         <v>199</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -4904,10 +4913,10 @@
         <v>201</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4924,10 +4933,10 @@
         <v>203</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4944,10 +4953,10 @@
         <v>205</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4964,10 +4973,10 @@
         <v>207</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4981,13 +4990,13 @@
         <v>208</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -5004,13 +5013,13 @@
         <v>210</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F117" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -5027,10 +5036,10 @@
         <v>212</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5047,10 +5056,10 @@
         <v>214</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -5064,13 +5073,13 @@
         <v>215</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -5087,10 +5096,10 @@
         <v>217</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5104,10 +5113,10 @@
         <v>218</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5140,10 +5149,10 @@
         <v>222</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -5160,10 +5169,10 @@
         <v>224</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5180,16 +5189,16 @@
         <v>226</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F126" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G126" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,10 +5215,10 @@
         <v>227</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5226,10 +5235,10 @@
         <v>229</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -5246,10 +5255,10 @@
         <v>231</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -5263,13 +5272,13 @@
         <v>232</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -5286,22 +5295,22 @@
         <v>234</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F131" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G131" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H131" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I131" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5348,10 +5357,10 @@
         <v>238</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -5368,10 +5377,10 @@
         <v>239</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -5385,10 +5394,10 @@
         <v>237</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5405,10 +5414,10 @@
         <v>241</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,16 +5428,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5445,10 +5454,10 @@
         <v>244</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5465,10 +5474,10 @@
         <v>246</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5485,10 +5494,10 @@
         <v>248</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -5505,10 +5514,10 @@
         <v>250</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5525,10 +5534,10 @@
         <v>252</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -5545,10 +5554,10 @@
         <v>254</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5565,10 +5574,10 @@
         <v>256</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5585,10 +5594,10 @@
         <v>258</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5602,13 +5611,13 @@
         <v>259</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5625,10 +5634,10 @@
         <v>261</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5645,10 +5654,10 @@
         <v>263</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5665,10 +5674,10 @@
         <v>265</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5685,10 +5694,10 @@
         <v>267</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F151" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5705,10 +5714,10 @@
         <v>269</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5725,10 +5734,10 @@
         <v>271</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,10 +5754,10 @@
         <v>273</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5765,10 +5774,10 @@
         <v>274</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5785,10 +5794,10 @@
         <v>276</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5805,10 +5814,10 @@
         <v>278</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,16 +5834,16 @@
         <v>280</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F158" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G158" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5851,10 +5860,10 @@
         <v>282</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5871,10 +5880,10 @@
         <v>284</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -5891,10 +5900,10 @@
         <v>286</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -5911,10 +5920,10 @@
         <v>288</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -5931,22 +5940,22 @@
         <v>290</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F163" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G163" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H163" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I163" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J163" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5963,19 +5972,19 @@
         <v>292</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F164" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G164" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H164" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5989,13 +5998,13 @@
         <v>293</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -6012,10 +6021,10 @@
         <v>295</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -6032,10 +6041,10 @@
         <v>297</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -6052,10 +6061,10 @@
         <v>299</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -6072,10 +6081,10 @@
         <v>301</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -6092,10 +6101,10 @@
         <v>305</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -6109,13 +6118,13 @@
         <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -6132,10 +6141,10 @@
         <v>308</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F172" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6149,7 +6158,7 @@
         <v>307</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6167,10 +6176,10 @@
         <v>310</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -6187,10 +6196,10 @@
         <v>312</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -6204,40 +6213,40 @@
         <v>313</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="O176" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6254,10 +6263,10 @@
         <v>315</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6274,10 +6283,10 @@
         <v>317</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6294,16 +6303,16 @@
         <v>319</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F179" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G179" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6320,16 +6329,16 @@
         <v>321</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F180" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G180" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6346,10 +6355,10 @@
         <v>323</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -6363,13 +6372,13 @@
         <v>324</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>325</v>
+        <v>103</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>522</v>
+        <v>463</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6380,34 +6389,34 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
+        <v>325</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="E183" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6418,16 +6427,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
+        <v>327</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="E184" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6438,16 +6447,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
+        <v>329</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="E185" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6458,16 +6467,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
+        <v>331</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6478,16 +6487,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
+        <v>333</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6498,16 +6507,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
+        <v>335</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6518,16 +6527,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
+        <v>337</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6538,16 +6547,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
+        <v>339</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -6558,16 +6567,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6578,16 +6587,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>342</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
@@ -6598,16 +6607,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
+        <v>344</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
@@ -6618,16 +6627,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
@@ -6638,10 +6647,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -6653,16 +6662,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
+        <v>347</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
@@ -6673,16 +6682,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
@@ -6693,19 +6702,19 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
+        <v>350</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="E198" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F198" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
@@ -6716,16 +6725,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
+        <v>352</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E199" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F199" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6736,16 +6745,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
+        <v>354</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E200" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F200" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6756,16 +6765,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
+        <v>356</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="E201" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
@@ -6776,16 +6785,16 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>360</v>
+        <v>726</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>528</v>
+        <v>727</v>
       </c>
       <c r="F202" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6796,40 +6805,40 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N203" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6840,16 +6849,16 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
@@ -6860,16 +6869,16 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
@@ -6880,16 +6889,16 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
@@ -6900,19 +6909,19 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="F207" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
@@ -6923,13 +6932,13 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D208" s="1">
         <v>380519948397</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6940,56 +6949,32 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F209" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1</v>
-      </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
       <c r="C210" t="s">
-        <v>376</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>377</v>
+        <v>730</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1</v>
-      </c>
-      <c r="B211">
-        <v>1</v>
-      </c>
       <c r="C211" t="s">
-        <v>374</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>375</v>
+        <v>731</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -7000,77 +6985,117 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
+        <v>374</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
         <v>372</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C213" t="s">
-        <v>381</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>707</v>
-      </c>
       <c r="E213" s="2" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
       <c r="C214" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>388</v>
+        <v>594</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>388</v>
+        <v>651</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>219</v>
+        <v>379</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>711</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>712</v>
+        <v>385</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>712</v>
+        <v>386</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>712</v>
+        <v>386</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>714</v>
+        <v>219</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="E217" t="s">
-        <v>715</v>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>707</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>710</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E219" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="414">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -30,126 +30,63 @@
     <t>ТТ</t>
   </si>
   <si>
-    <t xml:space="preserve">№ Модема </t>
-  </si>
-  <si>
     <t>001 ДТ м. Біла Церква, вул. Вокзальна, 8</t>
   </si>
   <si>
-    <t>(38051)9940954</t>
-  </si>
-  <si>
     <t>002 ДТ г. Фастов, ул. Галафеева, 14</t>
   </si>
   <si>
-    <t>(38051)9942565</t>
-  </si>
-  <si>
     <t>004 ДТ Київська обл., Таращанський р-н, с. Ківшовата, вул. Леніна, 65-А</t>
   </si>
   <si>
-    <t>(38068)4224133</t>
-  </si>
-  <si>
     <t>006 ДТ м. Біла Церква, вул. Привокзальна, 86</t>
   </si>
   <si>
-    <t>(38051)9940942</t>
-  </si>
-  <si>
     <t>007 ДТ г. Фастов, ул. Галафеева, 24А, пав. 74</t>
   </si>
   <si>
-    <t>(38051)9943428</t>
-  </si>
-  <si>
     <t>009 ДТ м. Київ, вул. Попудренка, 7, м'ясний пав. рол. 27-28</t>
   </si>
   <si>
-    <t>(38051)9943429</t>
-  </si>
-  <si>
     <t>014 ДТ г. Обухов, ул. Киевская, 170 Б1</t>
   </si>
   <si>
-    <t>(38051)9940627</t>
-  </si>
-  <si>
     <t>015 ДТ г. Обухов, ул. Каштановая 2, рынок</t>
   </si>
   <si>
-    <t>(38051)9941019</t>
-  </si>
-  <si>
-    <t>(38051)9942570</t>
-  </si>
-  <si>
     <t>016 ДТ г. Обухов, Петровский, 25</t>
   </si>
   <si>
-    <t>(38051)9941269</t>
-  </si>
-  <si>
     <t>018 ДТ с. Катюжанка, ул. Киевская, 51</t>
   </si>
   <si>
-    <t>(38051)9942569</t>
-  </si>
-  <si>
-    <t>(38051)9941020</t>
-  </si>
-  <si>
     <t>020 ДТ г. Васильков, ул. Грушевского, 30/1</t>
   </si>
   <si>
-    <t>(38051)9942591</t>
-  </si>
-  <si>
     <t>021 ДТ г. Васильков, ул. Западенская, 11, рынок, ВМ</t>
   </si>
   <si>
-    <t>(38051)9942564</t>
-  </si>
-  <si>
     <t>022 ДТ с. Тарасівка, вул. Залізнична, 8</t>
   </si>
   <si>
-    <t>(38051)9944942</t>
-  </si>
-  <si>
     <t>023 ДТ м. Київ, вул. Драйзера, 8, (пав. 91)</t>
   </si>
   <si>
-    <t>(38051)9946063</t>
-  </si>
-  <si>
     <t>024 ДТ (Київ, Кибальчича, 11А, пав. 28)</t>
   </si>
   <si>
-    <t>(38051)9946245</t>
-  </si>
-  <si>
     <t>025 ДТ с. Буча, вул. Жовтнева, 26, Продтовари</t>
   </si>
   <si>
     <t>026 ДТ Київ, Бальзака, 94 (пав. 22/26)</t>
   </si>
   <si>
-    <t>Corporation</t>
-  </si>
-  <si>
     <t>027 ДТ смт. Борова, вул. Миру, 29</t>
   </si>
   <si>
-    <t>(38051)9946243</t>
-  </si>
-  <si>
     <t>028 ДТ м. Київ, вул. Кібальчича, 11А (пав.№24)</t>
   </si>
   <si>
-    <t>(38051)9944775</t>
-  </si>
-  <si>
     <t>029 ДТ м. Ірпінь, вул. Центральна, буд. 2А, зупинка</t>
   </si>
   <si>
@@ -159,102 +96,48 @@
     <t>031 ДТ г. Васильков, ул. Владимирская, 25</t>
   </si>
   <si>
-    <t>(38051)9942588</t>
-  </si>
-  <si>
     <t>033 ДТ пгт. Иванков, ул. Киевская, 24, рынок</t>
   </si>
   <si>
-    <t>(38051)9942589</t>
-  </si>
-  <si>
-    <t>(38051)9943686</t>
-  </si>
-  <si>
     <t>034 ДТ м. Тараща, вул. Богдана Хмельницького, 48/1</t>
   </si>
   <si>
-    <t>(38051)9940988</t>
-  </si>
-  <si>
     <t>036 ДТ смт. Калинівка, вул. Леніна, 57</t>
   </si>
   <si>
-    <t>(38051)9946055</t>
-  </si>
-  <si>
     <t>037 ДТ м. Богуслав, вул. Я.Мудрого, 6</t>
   </si>
   <si>
-    <t>(38051)9946247</t>
-  </si>
-  <si>
     <t>039 ДТ пгт. Дымер, ул. Ленина, 13А</t>
   </si>
   <si>
-    <t>(38051)9942571</t>
-  </si>
-  <si>
     <t>040 ДТ с. Гореничі, вул. Леніна,100</t>
   </si>
   <si>
-    <t>(380‎51)9972063</t>
-  </si>
-  <si>
     <t>041 ДТ г. Васильков, ул. Владимирская, 143</t>
   </si>
   <si>
-    <t>(38051)9942587</t>
-  </si>
-  <si>
     <t>044 ДТ с. Погребы, ул. Кирова, 88</t>
   </si>
   <si>
-    <t>(38020)4471288</t>
-  </si>
-  <si>
-    <t>(38051)9943434</t>
-  </si>
-  <si>
     <t>045 ДТ г. Боярка, ул. Молодежная, 63</t>
   </si>
   <si>
-    <t>(38051)9940928</t>
-  </si>
-  <si>
     <t>046 №ТТ Київська обл,с. Літки,вул. Шевченка,буд.№ 72</t>
   </si>
   <si>
-    <t>(38068)7916179</t>
-  </si>
-  <si>
     <t>047 ДТ смт. Бородянка, вул. Паркова, 2А</t>
   </si>
   <si>
-    <t>(38020)4432511</t>
-  </si>
-  <si>
     <t>048 ДТ смт. Бородянка, вул. Леніна, 347</t>
   </si>
   <si>
-    <t>(38051)9940945</t>
-  </si>
-  <si>
     <t>049 ДТ птт. Иванков, ул. Леси Украинки, 9А</t>
   </si>
   <si>
-    <t>(38051)9942681</t>
-  </si>
-  <si>
-    <t>(38051)9942585</t>
-  </si>
-  <si>
     <t>051 ДТ м. Буча, вул. Тарасівська, 12</t>
   </si>
   <si>
-    <t>(38051)9940941</t>
-  </si>
-  <si>
     <t>052 ДТ смт. Бородянка, с. Дружня, вул. Привокзальна, 1</t>
   </si>
   <si>
@@ -264,417 +147,210 @@
     <t>054 ДТ смт. Велика Димерка, вул. Леніна, 2, пав. 3Д</t>
   </si>
   <si>
-    <t>(38051)9948387</t>
-  </si>
-  <si>
     <t>055 ДТ смт. Клавдієво-Тарасове, пл. Привокзальна, 21</t>
   </si>
   <si>
-    <t>(38051)9943690</t>
-  </si>
-  <si>
     <t>056 ДТ г. Васильков, ул.  Декабристов, 6</t>
   </si>
   <si>
-    <t>(38051)9942563</t>
-  </si>
-  <si>
     <t>057 ДТ с. Плесецьке, вул. Леніна, 74</t>
   </si>
   <si>
-    <t>(38096)2906519</t>
-  </si>
-  <si>
     <t>058 ДТ м. Березань, вул. Леніна, 143</t>
   </si>
   <si>
-    <t>(38051)9943693</t>
-  </si>
-  <si>
-    <t>(38051)9943697</t>
-  </si>
-  <si>
     <t>059 ДТ м. Яготин, вул. Привокзальна, 14</t>
   </si>
   <si>
-    <t>(38051)9943691</t>
-  </si>
-  <si>
     <t>060 ДТ м. Березань, вул. Привокзальна, 10</t>
   </si>
   <si>
-    <t>(38051)9943689</t>
-  </si>
-  <si>
-    <t>(38051)9943705</t>
-  </si>
-  <si>
     <t>061 ДТ смт. Баришівка, вул. Жовтнева, 22, Молодіжний ринок</t>
   </si>
   <si>
-    <t>(38051)9943698</t>
-  </si>
-  <si>
     <t>064 ДТ Бориспільський р-н, с. Вороньків, вул. Центральна, 2К</t>
   </si>
   <si>
-    <t>(38051)9943694</t>
-  </si>
-  <si>
     <t>066 ДТ м. Бердичів, вул. Чудновська, 16</t>
   </si>
   <si>
-    <t>(38051)9945340</t>
-  </si>
-  <si>
     <t>069 ДТ г. Обухов, ул. Каштановая 2,  рынок</t>
   </si>
   <si>
-    <t>(38051)9941274</t>
-  </si>
-  <si>
     <t>070 ДТ с. Зазимье, ул. Лесовая, 53</t>
   </si>
   <si>
-    <t>(38020)4475312</t>
-  </si>
-  <si>
     <t>074 ДТ смт. Немішаєво, вул. Пушкіна, 2А</t>
   </si>
   <si>
-    <t>(38051)9940894</t>
-  </si>
-  <si>
     <t>075 ДТ м. Київ, булв. Перова, 20</t>
   </si>
   <si>
     <t>082 ДТ м. Малин, вул. Базарна площа, 2</t>
   </si>
   <si>
-    <t>(38051)9945561</t>
-  </si>
-  <si>
     <t>084 ДТ м. Київ, вул. Сормовська, 15</t>
   </si>
   <si>
-    <t>(38051)9947481</t>
-  </si>
-  <si>
     <t>085 ДТ м. Київ, вул. Сормовська, 15, пав. 2, р-к Дарницький</t>
   </si>
   <si>
-    <t>(38051)9943688</t>
-  </si>
-  <si>
     <t>086 ДТ м. Київ, вул. Бориспільська, 1, ролет29,30</t>
   </si>
   <si>
-    <t>(38051)9947482</t>
-  </si>
-  <si>
     <t>087 ДТ м. Київ, р-к Дарницький, ролет №19,20, вул. Бориспільська, буд. № 1</t>
   </si>
   <si>
-    <t>(38051)9948395</t>
-  </si>
-  <si>
     <t>090  ДТ м. Ніжин,вул. Об"їздна, буд. 118а</t>
   </si>
   <si>
-    <t>(38051)9944941</t>
-  </si>
-  <si>
     <t>091 ДТ м. Ніжин, вул. Московська, 21</t>
   </si>
   <si>
-    <t>‎(38051)9948883</t>
-  </si>
-  <si>
     <t>092 ДТ м. Ніжин, вул. Шевченка, 158А</t>
   </si>
   <si>
-    <t>(38051)9945029</t>
-  </si>
-  <si>
     <t>094 ДТ м. Ніжин, вул. Московська,1, р-к Центральний</t>
   </si>
   <si>
-    <t>(38051)9946246</t>
-  </si>
-  <si>
     <t>095 ДТ Ніжин, с. Вертіївка, вул. Леніна,143А</t>
   </si>
   <si>
-    <t>‎(38098)8135568</t>
-  </si>
-  <si>
     <t>099 ДТ м. Київ, пр-т Лісовий, 25, р-к "Сказка" Купава</t>
   </si>
   <si>
-    <t>‎(38051)9948884</t>
-  </si>
-  <si>
     <t>100 ДТ м. Київ, вул. Ш. Алейхема, 19</t>
   </si>
   <si>
-    <t xml:space="preserve">	(38051)9944940</t>
-  </si>
-  <si>
     <t>101 ДТ г. Боярка, ул. Молодежная, 61</t>
   </si>
   <si>
-    <t>(38051)9940946</t>
-  </si>
-  <si>
     <t>102 ДТ м. Київ, б-р Чоколівський, 5/7, ринок "Севастопольский"</t>
   </si>
   <si>
-    <t>(38051)9943427</t>
-  </si>
-  <si>
     <t>105 ДТ м. Київ, вул. Ревуцького, 42</t>
   </si>
   <si>
-    <t>(38051)9947478</t>
-  </si>
-  <si>
     <t>106 ДТ Миронівка, 40-річчя Перемоги, 2А</t>
   </si>
   <si>
-    <t>(38051)9944937</t>
-  </si>
-  <si>
     <t>107 ДТ Бориспільський р-н, с. Гора, вул. Мічуріна, 75</t>
   </si>
   <si>
-    <t>(38051)9943696</t>
-  </si>
-  <si>
     <t>110 ДТ смт. Баришівка, вул. Пархоменка, 32</t>
   </si>
   <si>
-    <t>(38051)9943703</t>
-  </si>
-  <si>
     <t>111 ДТ м. Київ, вул. Миропільська, 11</t>
   </si>
   <si>
-    <t>(380995501659;35</t>
-  </si>
-  <si>
     <t>113 ДТ м. Київ, вул. Драгоманова, 10/21</t>
   </si>
   <si>
-    <t>(38051)9947480</t>
-  </si>
-  <si>
     <t>115 ДТ г. Боярка, ул. Садовая, 3</t>
   </si>
   <si>
-    <t>(38020)4432509</t>
-  </si>
-  <si>
     <t>117 ДТ Носівський р-н, с.Червоні партизани, вул. Леніна, 82</t>
   </si>
   <si>
-    <t>(38051)9944932</t>
-  </si>
-  <si>
     <t>118 ДТ м. Київ, вул. Драйзера, 8, пав. 84</t>
   </si>
   <si>
     <t>122 ДТ м. Бровари, вул. Красовського, 19</t>
   </si>
   <si>
-    <t>(38051)9946237</t>
-  </si>
-  <si>
     <t>123 ДТ м.Київ, пр-т.Лісовий, 25</t>
   </si>
   <si>
-    <t>(38051)9940971</t>
-  </si>
-  <si>
     <t>125 ДТ м. Носівка, вул. Вокзальная, 297</t>
   </si>
   <si>
-    <t>(38051)9944961</t>
-  </si>
-  <si>
     <t>126 ДТ м.Київ, пр-т Маяковського, 60/10, АТБ</t>
   </si>
   <si>
-    <t>(38096)8561300</t>
-  </si>
-  <si>
     <t>129 ДТ м. Тетерів, с. Пісківка, вул. Філіпова, 2</t>
   </si>
   <si>
-    <t>(38‎068)7916193</t>
-  </si>
-  <si>
     <t>132 ДТ м. Носівка, вул. Суворова, 2Г</t>
   </si>
   <si>
-    <t>(38051)9944938</t>
-  </si>
-  <si>
     <t>134 ДТ Макарівський р-н, м. Бишів, вул.Київська, № 50Б</t>
   </si>
   <si>
-    <t>(38068)6088473</t>
-  </si>
-  <si>
     <t>135 ДТ Житомирська обл., смт. Брусилів, вул. Першого Травня, 47</t>
   </si>
   <si>
-    <t>(38051)9945341</t>
-  </si>
-  <si>
-    <t>(38051)9945563</t>
-  </si>
-  <si>
     <t>139 ДТ м. Ніжин, вул. Шевченка, 16А</t>
   </si>
   <si>
-    <t>(38051)9944773</t>
-  </si>
-  <si>
-    <t>(38051)9944934</t>
-  </si>
-  <si>
     <t>141 ДТ м. Біла Церква, вул. Гайок,181</t>
   </si>
   <si>
-    <t>(38051)9940922</t>
-  </si>
-  <si>
     <t>142 ДТ м. Київ, вул. Щербакова, 72</t>
   </si>
   <si>
     <t>143 ДТ пгт. Иванков, ул. Розваживская, 2А</t>
   </si>
   <si>
-    <t>(38051)9941273</t>
-  </si>
-  <si>
-    <t>(38051)9942584</t>
-  </si>
-  <si>
     <t>144 ДТ с. Андрушівка, вул. Возяна, 24</t>
   </si>
   <si>
-    <t>(38051)9945569</t>
-  </si>
-  <si>
     <t>145 ДТ м. Житомир, вул. Московська, 24Б</t>
   </si>
   <si>
-    <t>(38051)9945566</t>
-  </si>
-  <si>
     <t>146 ДТ м. Ніжин, вул. Шевченка, 21, ТЦ "Прогрес"</t>
   </si>
   <si>
-    <t>(38051)9944939</t>
-  </si>
-  <si>
     <t>147 ДТ м. Ніжин, вул. Космонавтів, 43Г</t>
   </si>
   <si>
-    <t>(38051)9944935</t>
-  </si>
-  <si>
     <t>149 ДТ м. Малин, вул. Гагаріна,4</t>
   </si>
   <si>
-    <t>(38051)9945565</t>
-  </si>
-  <si>
-    <t>(38051)9945338</t>
-  </si>
-  <si>
     <t>150 ДТ смт. Володарка, вул. Коцюбинського, 20В</t>
   </si>
   <si>
-    <t>(38051)9946238</t>
-  </si>
-  <si>
     <t>155 ДТ м. Ніжин, вул. Московська, Универмаг Україна</t>
   </si>
   <si>
-    <t>(38051)9944933</t>
-  </si>
-  <si>
     <t>156 ДТ м. Малин, вул. Приходько, 63</t>
   </si>
   <si>
-    <t>(38051)9945348</t>
-  </si>
-  <si>
     <t>157 ДТ м. Бердичив, вул. Карла Лібкнехта, 130</t>
   </si>
   <si>
-    <t>(38051)9945399</t>
-  </si>
-  <si>
     <t>161 ДТ Житомир. обл., р-н Попільнянський, с. Андрушки, вул. Заводська, 45-А</t>
   </si>
   <si>
     <t>163 ДТ Чернігівська обл., м. Ніжин, вул. Воздвиженська, 74</t>
   </si>
   <si>
-    <t>(38051)9945028</t>
-  </si>
-  <si>
     <t>166 ДТ Житомирська обл., м. Коростишів, вул. К. Маркса, 56</t>
   </si>
   <si>
-    <t>(38051)9945403</t>
-  </si>
-  <si>
     <t>167 ДТ Житомирська обл., пгт. Черняхів, вул. Щорса, базарна площа</t>
   </si>
   <si>
-    <t>(38051)9945557</t>
-  </si>
-  <si>
     <t>168 ДТ г. Васильков, ул. Грушевского, 13, МАФ 1</t>
   </si>
   <si>
-    <t>(38051)9942590</t>
-  </si>
-  <si>
     <t>170 ДТ Київська обл., Броварський р-н, с. Русанів, вул. Леніна, 74</t>
   </si>
   <si>
     <t>171 ДТ Чернігівська обл., Бобровицький р-н, с. Новий Биків</t>
   </si>
   <si>
-    <t>(38051)9944778</t>
-  </si>
-  <si>
     <t>173 ДТ Житомирська обл., м. Коростень, вул. Табукашвили, 25В</t>
   </si>
   <si>
-    <t>(38051)9945558</t>
-  </si>
-  <si>
     <t>175 ДТ Житомирська обл., м. Радомишль, вул. 9 січня, 1/1</t>
   </si>
   <si>
-    <t>(38051)9945559</t>
-  </si>
-  <si>
     <t>176 ДТ Київська обл., р-н Бородянський, смт Немішаєво, вул. Заводська, 48А/6</t>
   </si>
   <si>
     <t>180 ДТ Житомирська обл.смт.Ружин, вул. Бурди 64 А</t>
   </si>
   <si>
-    <t>(38051)9945347</t>
-  </si>
-  <si>
     <t>181 ДТ Київська, Баришівка, Пархоменка, 25В</t>
   </si>
   <si>
@@ -687,495 +363,255 @@
     <t>186 ДТ м. Житомир, вул. Черняхівського, 6</t>
   </si>
   <si>
-    <t>(38051)9945560</t>
-  </si>
-  <si>
     <t>187 ДТ смт.Ставище, Радянська, 65</t>
   </si>
   <si>
-    <t>(38051)9946256</t>
-  </si>
-  <si>
     <t>188 ДТ с. Новые Петровцы ,ул. Ленина, 218</t>
   </si>
   <si>
-    <t>(38020)4432513</t>
-  </si>
-  <si>
-    <t>(38051)9941270</t>
-  </si>
-  <si>
     <t>189 ДТ пгт. Лютиж, ул. Комсомольская, 2А</t>
   </si>
   <si>
-    <t>(38051)9942562</t>
-  </si>
-  <si>
     <t>190 ДТ Київська обл., м. Богуслав, вул. Миколаївська, б.21, прим.7</t>
   </si>
   <si>
-    <t>(38051)9943700</t>
-  </si>
-  <si>
     <t>194 ДТ м. Київ, вул. Маяковського, 73</t>
   </si>
   <si>
     <t>196 ДТ м. Київ, пр-т. Отрадний, буд. № 24/93</t>
   </si>
   <si>
-    <t>(38051)9940888</t>
-  </si>
-  <si>
     <t>198 ДТ (Київ, Миру, 19)</t>
   </si>
   <si>
-    <t>lan</t>
-  </si>
-  <si>
     <t>201 ДТ Київська обл., смт Макарів, вул. Фрунзе, 33</t>
   </si>
   <si>
-    <t>(38051)9943704</t>
-  </si>
-  <si>
-    <t>(38051)9942566</t>
-  </si>
-  <si>
     <t>203 ДТ Київська обл., р-н Броварський, с . Княжичі, вул. М.Лагунової, 107-А</t>
   </si>
   <si>
-    <t>(38051)9946254</t>
-  </si>
-  <si>
-    <t>(38051)9943635</t>
-  </si>
-  <si>
     <t>205 ДТ г. Фастов, ул. Шевченка, 51А</t>
   </si>
   <si>
-    <t>(38051)9942567</t>
-  </si>
-  <si>
     <t>206 ДТ Житомирська обл., м. Бердичів, вул. Європейська, 80</t>
   </si>
   <si>
-    <t>(38051)9945573</t>
-  </si>
-  <si>
     <t>208 ДТ Житомирська обл., м. Бердичів, вул. Котовського 38/2</t>
   </si>
   <si>
-    <t>(38051)9945568</t>
-  </si>
-  <si>
     <t>209 ДТ Дніпро-торг ТД, ТОВ (Київ,  Щербакова,57)</t>
   </si>
   <si>
-    <t>(38020)4475313</t>
-  </si>
-  <si>
     <t>211 ДТ Житомирська обл., м. Бердичів, вул. Житомирська, 13 (м’ясний павільон)</t>
   </si>
   <si>
-    <t>(38051)9945562</t>
-  </si>
-  <si>
     <t>212 ДТ м. Житомир, вул. Бориса Тена, 145</t>
   </si>
   <si>
-    <t>(38051)9945400</t>
-  </si>
-  <si>
     <t>214 ДТ г. Киев, ул. Попудренка/ ул. Мурманская, 6</t>
   </si>
   <si>
-    <t>(38051)9943425</t>
-  </si>
-  <si>
     <t>216 ДТ м. Київ, вул. Половецька, 12/42</t>
   </si>
   <si>
-    <t>(38051)9943430</t>
-  </si>
-  <si>
     <t>217 ДТ г. Киев, ул. Алма-Атынская, 99/2</t>
   </si>
   <si>
     <t>224 ДТ Житомирська обл., м. Малин, вул. Воровського, 23 (отдел маг.)</t>
   </si>
   <si>
-    <t>(38051)9945570</t>
-  </si>
-  <si>
     <t xml:space="preserve">225 ДТ с. Демидов, ул. Киевская, 53 </t>
   </si>
   <si>
-    <t>(38051)9941600</t>
-  </si>
-  <si>
     <t>226 ДТ Київська обл., р-н Броварський, с. Пухівка, вул. Леніна, 56А, МАФ</t>
   </si>
   <si>
-    <t>(38051)9946250</t>
-  </si>
-  <si>
     <t>229 ДТ г. Киев, ул. Милютенка, 23, МАФ</t>
   </si>
   <si>
-    <t>(38051)9943433</t>
-  </si>
-  <si>
     <t>231 ДТ Житомирська обл., м. Житомир, вул. Щорса, 151</t>
   </si>
   <si>
-    <t>(38051)9945564</t>
-  </si>
-  <si>
     <t>233 ДТ м. Житомир, вул. Народницька, 14</t>
   </si>
   <si>
-    <t>(38051)9945567</t>
-  </si>
-  <si>
     <t>235 ДТ Житомир. обл., м. Овруч, вул. Радянська, 42</t>
   </si>
   <si>
-    <t>(38051)9945346</t>
-  </si>
-  <si>
-    <t>(38051)9945351</t>
-  </si>
-  <si>
     <t>236 ДТ Житомир. обл., м. Овруч, вул. Базарна, 1</t>
   </si>
   <si>
-    <t>(38051)9945342</t>
-  </si>
-  <si>
     <t>238 ДТ Вишневе. Першотравнева, 2</t>
   </si>
   <si>
-    <t>(38051)9946056</t>
-  </si>
-  <si>
     <t>239 ДТ Київська обл., с. Старі Петрівці, вул. Дніпровська, 62</t>
   </si>
   <si>
-    <t>(38051)9944936</t>
-  </si>
-  <si>
     <t>240 ДТ Житомир. обл., м. Бердичів, вул. М. Раскової, 1</t>
   </si>
   <si>
-    <t>(38051)9945572</t>
-  </si>
-  <si>
     <t>241 ДТ м. Овруч, вул. Постишева, 2 а</t>
   </si>
   <si>
-    <t>(38051)9946252</t>
-  </si>
-  <si>
     <t>242 ДТ м. Київ, вул. О.Бальзака, 60</t>
   </si>
   <si>
-    <t>(38‎0667266160;35</t>
-  </si>
-  <si>
     <t>244 ДТ Житомирська обл., м. Малин, вул. Огієнко, 65</t>
   </si>
   <si>
-    <t>(38051)9945571</t>
-  </si>
-  <si>
     <t>245 ДТ м. Київ, вул. Бориспільська, 34</t>
   </si>
   <si>
-    <t>(38051)9948398</t>
-  </si>
-  <si>
     <t>248 ДТ м. Київ, бул. Вигорівський, 1</t>
   </si>
   <si>
-    <t>(380‎51)9943701</t>
-  </si>
-  <si>
     <t>250 ДТ м. Переяслав-Хмельницький, вул. Б. Хмельницького, 32 (101км</t>
   </si>
   <si>
     <t>251 ДТ м. Переяслав-Хмельницький, вул. Б. Хмельницького, 101 (11км)</t>
   </si>
   <si>
-    <t>(38051)9943692</t>
-  </si>
-  <si>
     <t>252 ДТ м. Переяслав-Хмельницький, Новокиївське шосе, 30 (39км)</t>
   </si>
   <si>
-    <t>(38051)9946240</t>
-  </si>
-  <si>
     <t>253 ДТ м. Баришівка, вул. Садова, 2 (092)</t>
   </si>
   <si>
-    <t>‎(38051)9940973</t>
-  </si>
-  <si>
     <t>255 ДТ Київська обл, Бориспільський р-н, с. Іванків, вул. Центральна, буд. № 3</t>
   </si>
   <si>
-    <t>(38020)4471278</t>
-  </si>
-  <si>
     <t>138 ДТ смт. Богданівка, вул. Леніна,163</t>
   </si>
   <si>
-    <t>(38020)4482812</t>
-  </si>
-  <si>
     <t>257 ДТ Київська обл, Бориспільський р-н, с. Щасливе, вул. Леніна, буд. № 9А (106)</t>
   </si>
   <si>
-    <t>(38020)1032524</t>
-  </si>
-  <si>
     <t>258 ДТ Київ. обл, Борисп. р-н, с. Велика Олександрівка, вул. Котляревського, буд. № 27 (135)</t>
   </si>
   <si>
     <t>259 ДТ м. Бориспіль, вул. Лютнева, буд. № 3Б (017)</t>
   </si>
   <si>
-    <t>(38020)4498151</t>
-  </si>
-  <si>
     <t>262 ДТ Київ. обл, Бориспільський р-н, с. Мирне, вул. Леніна, буд. № 1 (001)</t>
   </si>
   <si>
-    <t>(38020)4482712</t>
-  </si>
-  <si>
     <t>264 ДТ Київ. обл., Бориспіль. р-н, с. Ревне, вул. Леніна, 8Б (131)</t>
   </si>
   <si>
-    <t>(38097)8302991</t>
-  </si>
-  <si>
     <t>265 ДТ Київ. обл, Бориспіль. р-н, с. Вишеньки, вул. Леніна, буд. № 148А (130)</t>
   </si>
   <si>
     <t>267 ДТ Київ. обл, Васильків. р-н, смт Гребінки, вул. Київська, 105(083)</t>
   </si>
   <si>
-    <t>(38020)4482690</t>
-  </si>
-  <si>
     <t>268 ДТ Київ. обл, Білоцерк. р-н, м. Узин, вул. Фрунзе, буд. № 71А(058)</t>
   </si>
   <si>
-    <t>(38020)4482713</t>
-  </si>
-  <si>
     <t>269 ДТ Київ. обл, Васильків. р-н, с. Саливонки, вул. Леніна, буд. № 6(146)</t>
   </si>
   <si>
-    <t>(38051)9944782</t>
-  </si>
-  <si>
     <t>270 ДТ Київ. обл, м. Обухів, вул. Київська, буд. № 1/2(139)</t>
   </si>
   <si>
-    <t>(38051)9945027</t>
-  </si>
-  <si>
     <t>272 ДТ Київ. обл, Васильків. р-н, смт Глеваха, вул. Вокзальна, буд. № 31б(148)</t>
   </si>
   <si>
-    <t>(38020)4482691</t>
-  </si>
-  <si>
     <t>273 ДТ Київ. обл, Києво-Святошин. р-н, смт Чабани, вул. Машинобудівників, буд. № 1/2(032)</t>
   </si>
   <si>
     <t>274 ДТ м. Київ, вул. Юнкерова, буд. № 90, Пуща-Водиця(144)</t>
   </si>
   <si>
-    <t>(38051)9948388</t>
-  </si>
-  <si>
     <t>275 ДТ Чернігів. обл, м. Ніжин, вул. Шевченка, буд. № 124(008)</t>
   </si>
   <si>
-    <t>(38020)4471276</t>
-  </si>
-  <si>
     <t>276 ДТ Чернігів. обл, м. Ніжин, вул. Прилуцька, буд. № 116а (049)</t>
   </si>
   <si>
-    <t>(38068)1891284</t>
-  </si>
-  <si>
     <t>277 ДТ Чернігів. обл, м. Ніжин, вул. Шевченка, буд. № 9, корпус а(050)</t>
   </si>
   <si>
-    <t>‎(38051)9943695</t>
-  </si>
-  <si>
     <t>278 ДТ Чернігів. обл, м. Ніжин, вул. Семашко, буд. № 6(096)</t>
   </si>
   <si>
-    <t>(38051)9946253</t>
-  </si>
-  <si>
     <t>280 ДТ Чернігів. обл, м. Ніжин, вул. Московська, буд. № 3, пав.939(141)</t>
   </si>
   <si>
-    <t>(38020)4471296</t>
-  </si>
-  <si>
     <t>281 ДТ Чернігів. обл, м. Ніжин, вул. Незалежності, 40 В(156)</t>
   </si>
   <si>
-    <t>(380‎51)9946255</t>
-  </si>
-  <si>
     <t>282 ДТ Чернігів. обл, Козелець. р-н, смт Десна, вул. І. Франка, буд. № 44а/27а(022)</t>
   </si>
   <si>
-    <t>(38‎0995501677;35</t>
-  </si>
-  <si>
     <t>283 ДТ Чернігів. обл, Козелець. р-н, смт Козелець, вул. Комсомольська, буд. № 35А(038)</t>
   </si>
   <si>
     <t>284 ДТ Чернігів. обл, Козелець. р-н, смт Десна, вул. Довженко, буд. № 46а(056)</t>
   </si>
   <si>
-    <t>‎(380995501638;35</t>
-  </si>
-  <si>
     <t>285 ДТ Чернігів. обл, Бобровиц. р-н, с. Кобижча, вул. Братів Лисенко, буд. № 1(063)</t>
   </si>
   <si>
-    <t>(38020)4471280</t>
-  </si>
-  <si>
     <t>286 ДТ м. Київ, вул. В. Кільцева, буд. № 110А(061)</t>
   </si>
   <si>
     <t>287 ДТ Київ. обл, Бровар. р-н, с. Гоголів, вул. Київська, буд. № 144(064)</t>
   </si>
   <si>
-    <t>(38051)9946242</t>
-  </si>
-  <si>
     <t>288 ДТ Київ. обл, Борисп. р-н, с. Сеньківка, вул. Леніна, буд. № 2Г(081)</t>
   </si>
   <si>
     <t>289 ДТ Київ. обл, Бровар. р-н, с. Требухів, вул. Горького, буд. № 2А(121)</t>
   </si>
   <si>
-    <t>(38051)9946239</t>
-  </si>
-  <si>
     <t>290 ДТ Київ. обл, Бровар. р-н, смт Калита, вул. Леніна, буд. № 36(037)</t>
   </si>
   <si>
-    <t>(38020)4486369</t>
-  </si>
-  <si>
     <t>291 ДТ Київ. обл, Бровар. р-н, с. Семіполки, Київське ш., 111(090)</t>
   </si>
   <si>
-    <t>(38020)4486394</t>
-  </si>
-  <si>
     <t>292 ДТ Київська обл, Броварський р-н, смт Калинівка, вул. Котовського, буд. № 8А(104)</t>
   </si>
   <si>
-    <t>(38068)7916113</t>
-  </si>
-  <si>
     <t>293 ДТ Київ. обл, Бровар. р-н, с. Рудня, вул. Чапаєва, буд. № 22(076)</t>
   </si>
   <si>
     <t>294 ДТ Київ. обл, Бровар. р-н, с. Плоске, вул. Леніна, буд. № 1(077)</t>
   </si>
   <si>
-    <t>(38051)9948396</t>
-  </si>
-  <si>
     <t>295 ДТ Київ. обл, Бровар. р-н, с. Бобрик, вул. Шевченка, буд. № 17(087)</t>
   </si>
   <si>
-    <t>(38051)9972061</t>
-  </si>
-  <si>
     <t>297 ДТ Київська обл., м. Фастів, вул. Шевченка, 1</t>
   </si>
   <si>
-    <t>(38051)9946244</t>
-  </si>
-  <si>
     <t>301 ДТ Київ. обл, Києво-Святошин. р-н, м. Боярка, вул. Хрещатик, 2</t>
   </si>
   <si>
-    <t>(38051)9942568</t>
-  </si>
-  <si>
     <t>303 ДТ Київ. обл, Б.-Церківський р-н, м. Сквира, вул. Соборна, 30</t>
   </si>
   <si>
-    <t>(38051)9940925</t>
-  </si>
-  <si>
     <t>305 ДТ м. Київ, вул. Петра Запорожця, 28, МАФ№2</t>
   </si>
   <si>
     <t>SQRECHNIK м. Київ, вул. Миру, 19</t>
   </si>
   <si>
-    <t>(38051)9945343</t>
-  </si>
-  <si>
     <t>Oleksandr Kysliy</t>
   </si>
   <si>
-    <t>(38051)9940897</t>
-  </si>
-  <si>
     <t>Andriy Kompaniets</t>
   </si>
   <si>
-    <t>(38051)9943706</t>
-  </si>
-  <si>
     <t>204 ДT ТД (Вишгород, Симоненко, 4А, приміщ.10/15)</t>
   </si>
   <si>
-    <t>не має модема</t>
-  </si>
-  <si>
     <t>310 ДТ Київська обл. Обухівський р-н. смт. Козин, вул. Київська 43а</t>
   </si>
   <si>
     <t>Krylov TV-BOX</t>
   </si>
   <si>
-    <t>(380‎51)9943432</t>
-  </si>
-  <si>
-    <t>38‎0519945574</t>
-  </si>
-  <si>
-    <t>38‎0978678364;70</t>
-  </si>
-  <si>
-    <t>38‎0978677571;70</t>
-  </si>
-  <si>
-    <t>38‎0685816720;50</t>
-  </si>
-  <si>
     <t>Кислий тт з лічильником, хз яка</t>
   </si>
   <si>
@@ -1221,39 +657,12 @@
     <t>380519944942;50</t>
   </si>
   <si>
-    <t>380519940954;25</t>
-  </si>
-  <si>
     <t>380519942565;50</t>
   </si>
   <si>
-    <t>380519942565;45</t>
-  </si>
-  <si>
     <t>380684224133;70</t>
   </si>
   <si>
-    <t>380519940942;46</t>
-  </si>
-  <si>
-    <t>380519940627;45</t>
-  </si>
-  <si>
-    <t>380519941019;49</t>
-  </si>
-  <si>
-    <t>380519942570;45</t>
-  </si>
-  <si>
-    <t>380519941269;45</t>
-  </si>
-  <si>
-    <t>380519942569;45</t>
-  </si>
-  <si>
-    <t>380519941020;49</t>
-  </si>
-  <si>
     <t>380519946245;50</t>
   </si>
   <si>
@@ -1266,30 +675,12 @@
     <t>380519946063;50</t>
   </si>
   <si>
-    <t>380519946063;45</t>
-  </si>
-  <si>
-    <t>380519946245;46</t>
-  </si>
-  <si>
     <t>380519945574;50</t>
   </si>
   <si>
-    <t>380519945574;46</t>
-  </si>
-  <si>
     <t>380519942588;50</t>
   </si>
   <si>
-    <t>380519946243;44</t>
-  </si>
-  <si>
-    <t>380519944775;36</t>
-  </si>
-  <si>
-    <t>380204432508;16</t>
-  </si>
-  <si>
     <t>380519943686;50</t>
   </si>
   <si>
@@ -1308,21 +699,6 @@
     <t>380519942589;50</t>
   </si>
   <si>
-    <t>380519942589;4</t>
-  </si>
-  <si>
-    <t>380519943686;47</t>
-  </si>
-  <si>
-    <t>380519940988;22</t>
-  </si>
-  <si>
-    <t>380519946055;44</t>
-  </si>
-  <si>
-    <t>380519946247;30</t>
-  </si>
-  <si>
     <t>Формат для масового поповнення</t>
   </si>
   <si>
@@ -1347,15 +723,6 @@
     <t>380519972063;49</t>
   </si>
   <si>
-    <t>380519942681;49</t>
-  </si>
-  <si>
-    <t>380519972063;41</t>
-  </si>
-  <si>
-    <t>'380519940928;50</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
@@ -1374,15 +741,6 @@
     <t>380519943690;50</t>
   </si>
   <si>
-    <t>380519940945;46</t>
-  </si>
-  <si>
-    <t>380519942585;49</t>
-  </si>
-  <si>
-    <t>380519940941;47</t>
-  </si>
-  <si>
     <t>380519948387;20</t>
   </si>
   <si>
@@ -1413,36 +771,12 @@
     <t>380519941274;50</t>
   </si>
   <si>
-    <t>380519943690;28</t>
-  </si>
-  <si>
     <t>380519942563;50</t>
   </si>
   <si>
     <t>380962906519;75</t>
   </si>
   <si>
-    <t>380519943697;28</t>
-  </si>
-  <si>
-    <t>380519943691;28</t>
-  </si>
-  <si>
-    <t>380519943689;28</t>
-  </si>
-  <si>
-    <t>380519943705;28</t>
-  </si>
-  <si>
-    <t>380519943698;28</t>
-  </si>
-  <si>
-    <t>380519943694;38</t>
-  </si>
-  <si>
-    <t>380519945340;45</t>
-  </si>
-  <si>
     <t>380519940894;50</t>
   </si>
   <si>
@@ -1461,24 +795,12 @@
     <t>380519946246;50</t>
   </si>
   <si>
-    <t>380519941274;45</t>
-  </si>
-  <si>
     <t>380204475312;80</t>
   </si>
   <si>
-    <t>380519940894;22</t>
-  </si>
-  <si>
     <t>380978677571;70</t>
   </si>
   <si>
-    <t>'380978677571;70</t>
-  </si>
-  <si>
-    <t>380519945561;45</t>
-  </si>
-  <si>
     <t>380519947481;20</t>
   </si>
   <si>
@@ -1491,18 +813,9 @@
     <t>380519947481;5</t>
   </si>
   <si>
-    <t>380519944941;48</t>
-  </si>
-  <si>
     <t>380519948883;49</t>
   </si>
   <si>
-    <t>380519948883;34</t>
-  </si>
-  <si>
-    <t>380519945029;36</t>
-  </si>
-  <si>
     <t>380519944940;50</t>
   </si>
   <si>
@@ -1524,39 +837,18 @@
     <t>380988135568;70</t>
   </si>
   <si>
-    <t>380519948884;35</t>
-  </si>
-  <si>
-    <t>380519944940;44</t>
-  </si>
-  <si>
-    <t>380519943427;9</t>
-  </si>
-  <si>
     <t>380519947478;20</t>
   </si>
   <si>
     <t>380519947480;20</t>
   </si>
   <si>
-    <t>380519944937;40</t>
-  </si>
-  <si>
-    <t>380519943696;28</t>
-  </si>
-  <si>
-    <t>380519943703;49</t>
-  </si>
-  <si>
     <t>380995501659;35</t>
   </si>
   <si>
     <t>380204432509;80</t>
   </si>
   <si>
-    <t>'380204432509;80</t>
-  </si>
-  <si>
     <t>380204482812;80</t>
   </si>
   <si>
@@ -1581,9 +873,6 @@
     <t>380204482691;80</t>
   </si>
   <si>
-    <t>380204482693;80</t>
-  </si>
-  <si>
     <t>380204471276;80</t>
   </si>
   <si>
@@ -1611,81 +900,42 @@
     <t>380519944938;50</t>
   </si>
   <si>
-    <t>380519940971;43</t>
-  </si>
-  <si>
     <t>380519944961;50</t>
   </si>
   <si>
-    <t>380519944961;36</t>
-  </si>
-  <si>
     <t>380968561300;70</t>
   </si>
   <si>
-    <t>'380687916193;70</t>
-  </si>
-  <si>
     <t>380686088473;70</t>
   </si>
   <si>
-    <t>'380968561300;70</t>
-  </si>
-  <si>
     <t>380687916193;70</t>
   </si>
   <si>
-    <t>380519944938;48</t>
-  </si>
-  <si>
     <t>380519945341;50</t>
   </si>
   <si>
-    <t>380519945341;49</t>
-  </si>
-  <si>
     <t>380519945563;50</t>
   </si>
   <si>
-    <t>380519945563;49</t>
-  </si>
-  <si>
     <t>380519944773;50</t>
   </si>
   <si>
-    <t>380519944773;37</t>
-  </si>
-  <si>
     <t>380519944934;50</t>
   </si>
   <si>
-    <t>380519944934;44</t>
-  </si>
-  <si>
     <t>380519940922;50</t>
   </si>
   <si>
-    <t>380519940922;22</t>
-  </si>
-  <si>
     <t>380519941273;50</t>
   </si>
   <si>
-    <t>380519941273;4</t>
-  </si>
-  <si>
     <t>380519942584;50</t>
   </si>
   <si>
-    <t>380519942584;4</t>
-  </si>
-  <si>
     <t>380519945569;50</t>
   </si>
   <si>
-    <t>380519945569;45</t>
-  </si>
-  <si>
     <t>380519945566;50</t>
   </si>
   <si>
@@ -1707,36 +957,12 @@
     <t>380519945348;50</t>
   </si>
   <si>
-    <t>380519945566;45</t>
-  </si>
-  <si>
     <t>380519944939;50</t>
   </si>
   <si>
-    <t>380519944939;48</t>
-  </si>
-  <si>
-    <t>380519944935;48</t>
-  </si>
-  <si>
-    <t>380519945565;49</t>
-  </si>
-  <si>
-    <t>380519945338;49</t>
-  </si>
-  <si>
-    <t>380519946238;49</t>
-  </si>
-  <si>
-    <t>380519944933;49</t>
-  </si>
-  <si>
     <t>380519945028;50</t>
   </si>
   <si>
-    <t>380519945348;49</t>
-  </si>
-  <si>
     <t>380519945399;50</t>
   </si>
   <si>
@@ -1806,72 +1032,33 @@
     <t>380519945343;50</t>
   </si>
   <si>
-    <t>380519945399;46</t>
-  </si>
-  <si>
-    <t>380519945028;35</t>
-  </si>
-  <si>
     <t>380519945403;50</t>
   </si>
   <si>
-    <t>380519945403;45</t>
-  </si>
-  <si>
     <t>380519945557;50</t>
   </si>
   <si>
-    <t>380519945557;49</t>
-  </si>
-  <si>
     <t>380519942590;50</t>
   </si>
   <si>
-    <t>380519944778;36</t>
-  </si>
-  <si>
     <t>380519945558;50</t>
   </si>
   <si>
     <t>380519945559;50</t>
   </si>
   <si>
-    <t>380519945559;49</t>
-  </si>
-  <si>
     <t>380978678364;70</t>
   </si>
   <si>
     <t>380519945347;50</t>
   </si>
   <si>
-    <t>380519945347;49</t>
-  </si>
-  <si>
     <t>380519943701;28</t>
   </si>
   <si>
-    <t>380519945560;46</t>
-  </si>
-  <si>
-    <t>380519941270;48</t>
-  </si>
-  <si>
-    <t>380519946256;49</t>
-  </si>
-  <si>
-    <t>380204432513;28</t>
-  </si>
-  <si>
-    <t>380519942562;4</t>
-  </si>
-  <si>
     <t>380519943700;50</t>
   </si>
   <si>
-    <t>380519943700;28</t>
-  </si>
-  <si>
     <t>380685816720;50</t>
   </si>
   <si>
@@ -1881,87 +1068,36 @@
     <t>380519943704;50</t>
   </si>
   <si>
-    <t>380519943704;47</t>
-  </si>
-  <si>
     <t>380519942566;50</t>
   </si>
   <si>
-    <t>380519942566;44</t>
-  </si>
-  <si>
     <t>380519946254;50</t>
   </si>
   <si>
     <t>380519943635;50</t>
   </si>
   <si>
-    <t>380519943635;22</t>
-  </si>
-  <si>
     <t>380519945573;50</t>
   </si>
   <si>
-    <t>380519945573;45</t>
-  </si>
-  <si>
-    <t>380519945562;45</t>
-  </si>
-  <si>
-    <t>380519945568;45</t>
-  </si>
-  <si>
     <t>380519945562;50</t>
   </si>
   <si>
-    <t>380519945400;45</t>
-  </si>
-  <si>
     <t>380519945570;50</t>
   </si>
   <si>
-    <t>380519945570;46</t>
-  </si>
-  <si>
-    <t>380519945567;46</t>
-  </si>
-  <si>
     <t>380519946250;50</t>
   </si>
   <si>
-    <t>380519946250;45</t>
-  </si>
-  <si>
     <t>380519943433;50</t>
   </si>
   <si>
-    <t>'380519943433;50</t>
-  </si>
-  <si>
     <t>380519945564;50</t>
   </si>
   <si>
-    <t>380519945564;45</t>
-  </si>
-  <si>
-    <t>380519945346;45</t>
-  </si>
-  <si>
-    <t>380519945351;45</t>
-  </si>
-  <si>
     <t>380519945346;50</t>
   </si>
   <si>
-    <t>380519945342;45</t>
-  </si>
-  <si>
-    <t>380519945572;45</t>
-  </si>
-  <si>
-    <t>380519945571;45</t>
-  </si>
-  <si>
     <t>380519945351;50</t>
   </si>
   <si>
@@ -1971,24 +1107,12 @@
     <t>380519946056;50</t>
   </si>
   <si>
-    <t>380519946056;49</t>
-  </si>
-  <si>
-    <t>380519945343;49</t>
-  </si>
-  <si>
     <t>380519944936;50</t>
   </si>
   <si>
-    <t>380519944936;49</t>
-  </si>
-  <si>
     <t>380519945572;50</t>
   </si>
   <si>
-    <t>380519946252;30</t>
-  </si>
-  <si>
     <t>380667266160;35</t>
   </si>
   <si>
@@ -1998,27 +1122,15 @@
     <t>380519948398;20</t>
   </si>
   <si>
-    <t>380519946240;4</t>
-  </si>
-  <si>
-    <t>380519940973;47</t>
-  </si>
-  <si>
     <t>380978302991;70</t>
   </si>
   <si>
     <t>380519944782;50</t>
   </si>
   <si>
-    <t>380519944782;36</t>
-  </si>
-  <si>
     <t>380519945027;50</t>
   </si>
   <si>
-    <t>380519945027;36</t>
-  </si>
-  <si>
     <t>380519948388;20</t>
   </si>
   <si>
@@ -2031,114 +1143,57 @@
     <t>380519943695;50</t>
   </si>
   <si>
-    <t>380519943695;48</t>
-  </si>
-  <si>
     <t>380519946253;50</t>
   </si>
   <si>
-    <t>380519946253;45</t>
-  </si>
-  <si>
     <t>380519946255;50</t>
   </si>
   <si>
-    <t>380519946255;44</t>
-  </si>
-  <si>
     <t>380995501677;35</t>
   </si>
   <si>
     <t>380995501638;35</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>380519946242;50</t>
   </si>
   <si>
     <t>380519946239;50</t>
   </si>
   <si>
-    <t>380519946239;26</t>
-  </si>
-  <si>
-    <t>'380204486369;80</t>
-  </si>
-  <si>
-    <t>'380204486394;80</t>
-  </si>
-  <si>
     <t>380687916113;70</t>
   </si>
   <si>
-    <t>'380204486391;80</t>
-  </si>
-  <si>
     <t>380519948396;20</t>
   </si>
   <si>
     <t>380519972061;49</t>
   </si>
   <si>
-    <t>380519972061;11</t>
-  </si>
-  <si>
     <t>380519946244;50</t>
   </si>
   <si>
-    <t>380519946244;46</t>
-  </si>
-  <si>
     <t>380519942568;50</t>
   </si>
   <si>
     <t>380519940897;50</t>
   </si>
   <si>
-    <t>380519940925;22</t>
-  </si>
-  <si>
     <t>380519948399;20</t>
   </si>
   <si>
-    <t>(38‎0519948399</t>
-  </si>
-  <si>
-    <t>380519940897;42</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>380519940974;50</t>
   </si>
   <si>
-    <t>(38‎‎0685816720;50</t>
-  </si>
-  <si>
-    <t>(38096)9800693</t>
-  </si>
-  <si>
     <t>380969800693;70</t>
   </si>
   <si>
     <t>380204471275;80</t>
   </si>
   <si>
-    <t>380519943706;0</t>
-  </si>
-  <si>
-    <t>‎380667233887;150</t>
-  </si>
-  <si>
     <t>380955132136;50</t>
   </si>
   <si>
-    <t>380661663082;40</t>
-  </si>
-  <si>
     <t>38‎0661663082;40</t>
   </si>
   <si>
@@ -2160,9 +1215,6 @@
     <t>380971960821;75</t>
   </si>
   <si>
-    <t>(38020)4451801</t>
-  </si>
-  <si>
     <t>380204451801;80</t>
   </si>
   <si>
@@ -2175,18 +1227,12 @@
     <t>380983144959;65</t>
   </si>
   <si>
-    <t>‎(380680174094;65</t>
-  </si>
-  <si>
     <t>380680174094;65</t>
   </si>
   <si>
     <t>380962607284;75</t>
   </si>
   <si>
-    <t>380974448527;75</t>
-  </si>
-  <si>
     <t>'380974448527;75</t>
   </si>
   <si>
@@ -2197,9 +1243,6 @@
   </si>
   <si>
     <t>380519948884;50</t>
-  </si>
-  <si>
-    <t>(38020)4432508</t>
   </si>
   <si>
     <t>380204432508;80</t>
@@ -2544,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B202" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E211" sqref="E211"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,21 +1612,12 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F1" s="3">
-        <v>43040</v>
-      </c>
-      <c r="G1" s="3">
-        <v>43070</v>
-      </c>
-      <c r="H1" s="3">
-        <v>43101</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -2593,17 +1627,12 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2613,17 +1642,12 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>402</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2633,17 +1657,12 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>403</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2653,17 +1672,12 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>404</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2673,17 +1687,12 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>389</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2693,17 +1702,12 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>390</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2713,17 +1717,12 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>405</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2733,17 +1732,12 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2753,17 +1747,12 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>407</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2773,17 +1762,12 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>408</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2793,17 +1777,12 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>409</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2813,17 +1792,12 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>410</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2833,17 +1807,12 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>397</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2853,17 +1822,12 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>398</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2873,16 +1837,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F16" t="s">
-        <v>445</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2893,17 +1851,12 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>415</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -2913,17 +1866,12 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -2933,17 +1881,12 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>381</v>
+        <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>418</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -2953,13 +1896,11 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>721</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>722</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2970,17 +1911,12 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>420</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -2990,17 +1926,12 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>421</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -3010,23 +1941,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>514</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F23" t="s">
-        <v>445</v>
-      </c>
-      <c r="G23" t="s">
-        <v>445</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>422</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -3036,17 +1957,12 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>390</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -3056,17 +1972,12 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>419</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3076,17 +1987,12 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>429</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -3096,17 +2002,12 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>430</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -3116,17 +2017,12 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>431</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -3136,20 +2032,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>432</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -3159,17 +2048,12 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>433</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -3179,17 +2063,12 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>427</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -3199,17 +2078,12 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>443</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -3219,17 +2093,12 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -3239,17 +2108,12 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>436</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -3259,17 +2123,12 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>437</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -3279,16 +2138,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F36" t="s">
-        <v>444</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3299,17 +2152,12 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>446</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3319,17 +2167,12 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>447</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -3339,17 +2182,12 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>451</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3359,17 +2197,12 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>442</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -3379,17 +2212,12 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>452</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -3399,17 +2227,12 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>453</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3419,13 +2242,11 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>723</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>723</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3436,10 +2257,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3450,34 +2268,22 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F45" t="s">
-        <v>445</v>
-      </c>
-      <c r="G45" t="s">
-        <v>445</v>
-      </c>
-      <c r="H45" t="s">
-        <v>445</v>
+        <v>240</v>
       </c>
       <c r="I45" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J45" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K45" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3488,17 +2294,12 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>464</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3508,17 +2309,12 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>465</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3528,17 +2324,12 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>466</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -3548,31 +2339,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F49" t="s">
-        <v>445</v>
-      </c>
-      <c r="G49" t="s">
-        <v>445</v>
-      </c>
-      <c r="H49" t="s">
-        <v>445</v>
+        <v>241</v>
       </c>
       <c r="I49" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J49" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K49" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3583,17 +2362,12 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>467</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -3603,17 +2377,12 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>468</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -3623,17 +2392,12 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>469</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -3643,17 +2407,12 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>470</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -3663,17 +2422,12 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>471</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -3683,17 +2437,12 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>472</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -3703,17 +2452,12 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>473</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -3723,17 +2467,12 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>480</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -3743,17 +2482,12 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>481</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3763,17 +2497,12 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>482</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -3783,16 +2512,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>383</v>
+        <v>54</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="F60" t="s">
-        <v>484</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3803,17 +2526,12 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>485</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -3823,28 +2541,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F62" t="s">
-        <v>445</v>
-      </c>
-      <c r="G62" t="s">
-        <v>445</v>
-      </c>
-      <c r="H62" t="s">
-        <v>445</v>
+        <v>260</v>
       </c>
       <c r="I62" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>489</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3855,17 +2561,12 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -3875,31 +2576,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F64" t="s">
-        <v>445</v>
-      </c>
-      <c r="G64" t="s">
-        <v>445</v>
-      </c>
-      <c r="H64" t="s">
-        <v>445</v>
+        <v>261</v>
       </c>
       <c r="I64" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J64" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K64" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3910,31 +2599,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F65" t="s">
-        <v>445</v>
-      </c>
-      <c r="G65" t="s">
-        <v>445</v>
-      </c>
-      <c r="H65" t="s">
-        <v>445</v>
+        <v>262</v>
       </c>
       <c r="I65" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J65" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K65" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3945,17 +2622,12 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>119</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>490</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -3965,17 +2637,12 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>492</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -3985,17 +2652,12 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -4005,17 +2667,12 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>713</v>
+        <v>63</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>714</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -4025,17 +2682,12 @@
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>479</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -4045,17 +2697,12 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>500</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -4065,17 +2712,12 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>501</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -4085,17 +2727,12 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>502</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -4105,17 +2742,12 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>495</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -4125,23 +2757,12 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F75" t="s">
-        <v>445</v>
-      </c>
-      <c r="G75" t="s">
-        <v>445</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>503</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -4151,31 +2772,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F76" t="s">
-        <v>445</v>
-      </c>
-      <c r="G76" t="s">
-        <v>445</v>
-      </c>
-      <c r="H76" t="s">
-        <v>445</v>
+        <v>272</v>
       </c>
       <c r="I76" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J76" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K76" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4186,20 +2795,12 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="F77" t="s">
-        <v>445</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>506</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -4209,17 +2810,12 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>507</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -4229,17 +2825,12 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>508</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -4249,17 +2840,12 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -4269,31 +2855,19 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F81" t="s">
-        <v>445</v>
-      </c>
-      <c r="G81" t="s">
-        <v>445</v>
-      </c>
-      <c r="H81" t="s">
-        <v>445</v>
+        <v>273</v>
       </c>
       <c r="I81" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J81" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K81" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4304,16 +2878,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="F82" t="s">
-        <v>511</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4324,16 +2892,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F83" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4344,13 +2906,11 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>715</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="2" t="s">
-        <v>715</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4361,17 +2921,12 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>154</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>527</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -4381,17 +2936,12 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>530</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -4401,20 +2951,12 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F87" t="s">
-        <v>445</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>532</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="G87" s="2"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -4424,16 +2966,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="F88" t="s">
-        <v>536</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4444,16 +2980,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F89" t="s">
-        <v>534</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -4464,20 +2994,12 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F90" t="s">
-        <v>445</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>538</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G90" s="2"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -4487,17 +3009,12 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>166</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>535</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -4507,17 +3024,12 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>540</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -4527,17 +3039,12 @@
         <v>2</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>542</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -4547,17 +3054,12 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>302</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>512</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -4567,17 +3069,12 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>544</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -4587,17 +3084,12 @@
         <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>546</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -4607,17 +3099,12 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>548</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -4627,13 +3114,11 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>716</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D98" s="4"/>
       <c r="E98" s="2" t="s">
-        <v>716</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -4644,17 +3129,12 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>550</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -4664,17 +3144,12 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>552</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -4684,17 +3159,12 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>554</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -4704,17 +3174,12 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>562</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -4724,17 +3189,12 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>564</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -4744,20 +3204,12 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="F104" t="s">
-        <v>445</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>565</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="G104" s="2"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -4767,17 +3219,12 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>566</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -4787,17 +3234,12 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>567</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -4807,17 +3249,12 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>568</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -4827,17 +3264,12 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>193</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>569</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -4847,17 +3279,12 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>571</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -4867,17 +3294,12 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>595</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -4887,17 +3309,13 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>704</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D111" s="4"/>
       <c r="E111" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>704</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -4907,17 +3325,12 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>200</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>596</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -4927,17 +3340,12 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>598</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -4947,17 +3355,12 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>204</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>600</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -4967,17 +3370,12 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>601</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -4987,17 +3385,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>720</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>720</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -5007,20 +3401,12 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>209</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="F117" t="s">
-        <v>445</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>602</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="G117" s="2"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -5030,17 +3416,12 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>211</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>603</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -5050,17 +3431,12 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>213</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>214</v>
+        <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>605</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -5070,17 +3446,12 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>215</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>382</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>606</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -5090,17 +3461,12 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>216</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>608</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -5110,13 +3476,11 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>218</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>697</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>697</v>
+        <v>387</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -5128,10 +3492,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E123" s="2"/>
     </row>
@@ -5143,17 +3504,12 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>221</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -5163,17 +3519,12 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>612</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="F125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -5183,23 +3534,12 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F126" t="s">
-        <v>445</v>
-      </c>
-      <c r="G126" t="s">
-        <v>445</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>613</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="H126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -5209,17 +3549,12 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>611</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -5229,17 +3564,12 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>228</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>229</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>614</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="F128" s="2"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -5249,17 +3579,12 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>230</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>616</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="F129" s="2"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -5269,17 +3594,12 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>232</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F130" s="2"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -5289,28 +3609,16 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>233</v>
-      </c>
-      <c r="D131" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I131" t="s">
         <v>234</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F131" t="s">
-        <v>445</v>
-      </c>
-      <c r="G131" t="s">
-        <v>445</v>
-      </c>
-      <c r="H131" t="s">
-        <v>445</v>
-      </c>
-      <c r="I131" t="s">
-        <v>445</v>
-      </c>
       <c r="J131" s="2" t="s">
-        <v>618</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -5321,10 +3629,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>235</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -5336,10 +3641,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>236</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -5351,17 +3653,12 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>238</v>
+        <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>620</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="F134" s="2"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -5371,17 +3668,12 @@
         <v>3</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>622</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="F135" s="2"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -5391,13 +3683,11 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>717</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D136" s="4"/>
       <c r="E136" s="2" t="s">
-        <v>717</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -5408,17 +3698,12 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>240</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>623</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="F137" s="2"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -5428,17 +3713,12 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>376</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>625</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="F138" s="2"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -5448,17 +3728,12 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>243</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>580</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="F139" s="2"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -5468,17 +3743,12 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>245</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>627</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F140" s="2"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -5488,17 +3758,12 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>629</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="F141" s="2"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -5508,17 +3773,12 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>249</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>513</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="F142" s="2"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -5528,17 +3788,12 @@
         <v>1</v>
       </c>
       <c r="C143" t="s">
-        <v>251</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>628</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="F143" s="2"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -5548,17 +3803,12 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>253</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>631</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="F144" s="2"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -5568,17 +3818,12 @@
         <v>1</v>
       </c>
       <c r="C145" t="s">
-        <v>255</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>583</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F145" s="2"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -5588,17 +3833,12 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>257</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>584</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="F146" s="2"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -5608,17 +3848,13 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>259</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>706</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D147" s="4"/>
       <c r="E147" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>705</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="F147" s="2"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -5628,17 +3864,12 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>260</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>633</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F148" s="2"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -5648,17 +3879,12 @@
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>262</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>585</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F149" s="2"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -5668,17 +3894,12 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>264</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>636</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F150" s="2"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -5688,16 +3909,10 @@
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>266</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F151" t="s">
-        <v>638</v>
+        <v>356</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5708,17 +3923,12 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>268</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>640</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -5728,17 +3938,12 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>270</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>271</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>634</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -5748,17 +3953,12 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>272</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>641</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -5768,17 +3968,12 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>272</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>642</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -5788,17 +3983,12 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>275</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>644</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -5808,17 +3998,12 @@
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>277</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>650</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -5828,23 +4013,12 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>279</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>280</v>
+        <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F158" t="s">
-        <v>445</v>
-      </c>
-      <c r="G158" t="s">
-        <v>445</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>653</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="H158" s="2"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -5854,17 +4028,12 @@
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>281</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>282</v>
+        <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>645</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -5874,17 +4043,12 @@
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>283</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>655</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -5894,17 +4058,12 @@
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>285</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>656</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -5914,17 +4073,12 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>287</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>646</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -5934,28 +4088,16 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>289</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F163" t="s">
-        <v>445</v>
-      </c>
-      <c r="G163" t="s">
-        <v>445</v>
-      </c>
-      <c r="H163" t="s">
-        <v>445</v>
+        <v>366</v>
       </c>
       <c r="I163" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J163" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -5966,25 +4108,13 @@
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>291</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F164" t="s">
-        <v>445</v>
-      </c>
-      <c r="G164" t="s">
-        <v>445</v>
-      </c>
-      <c r="H164" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>609</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -5995,17 +4125,12 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>293</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>589</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -6015,17 +4140,12 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>294</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>295</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>590</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -6035,17 +4155,12 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>297</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>659</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -6055,17 +4170,12 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>298</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>299</v>
+        <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>660</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -6075,17 +4185,12 @@
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>300</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>301</v>
+        <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>514</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -6095,17 +4200,12 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>304</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>515</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -6115,17 +4215,12 @@
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>306</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>718</v>
+        <v>155</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>719</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -6135,16 +4230,10 @@
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>307</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="F172" t="s">
-        <v>445</v>
+        <v>335</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -6155,10 +4244,7 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>307</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="E173" s="2"/>
     </row>
@@ -6170,17 +4256,12 @@
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>309</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>516</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -6190,17 +4271,12 @@
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>311</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>312</v>
+        <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>661</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -6210,43 +4286,32 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>313</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>712</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D176" s="4"/>
       <c r="E176" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F176" t="s">
-        <v>445</v>
-      </c>
-      <c r="G176" t="s">
-        <v>445</v>
-      </c>
-      <c r="H176" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="I176" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J176" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K176" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="L176" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="M176" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="N176" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="O176" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6257,17 +4322,12 @@
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>314</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>517</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -6277,17 +4337,12 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>316</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>317</v>
+        <v>161</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>518</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -6297,23 +4352,12 @@
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>318</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="F179" t="s">
-        <v>445</v>
-      </c>
-      <c r="G179" t="s">
-        <v>445</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>663</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="H179" s="2"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -6323,23 +4367,12 @@
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>320</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>321</v>
+        <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="F180" t="s">
-        <v>445</v>
-      </c>
-      <c r="G180" t="s">
-        <v>445</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>665</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="H180" s="2"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -6349,17 +4382,12 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>322</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>323</v>
+        <v>164</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>519</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -6369,17 +4397,12 @@
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>324</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>520</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -6389,34 +4412,22 @@
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>325</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="F183" t="s">
-        <v>445</v>
-      </c>
-      <c r="G183" t="s">
-        <v>445</v>
-      </c>
-      <c r="H183" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="I183" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J183" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K183" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>667</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6427,17 +4438,12 @@
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>327</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>521</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -6447,17 +4453,12 @@
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>329</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>330</v>
+        <v>168</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>668</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -6467,17 +4468,12 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>331</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>670</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -6487,17 +4483,12 @@
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>333</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>334</v>
+        <v>170</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>672</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -6507,17 +4498,12 @@
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>335</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>336</v>
+        <v>171</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>522</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -6527,17 +4513,12 @@
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>337</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>674</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -6547,17 +4528,12 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>339</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>340</v>
+        <v>173</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>675</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -6567,17 +4543,12 @@
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>341</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>698</v>
+        <v>174</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>617</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
@@ -6587,17 +4558,12 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>342</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>343</v>
+        <v>175</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>676</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -6607,17 +4573,12 @@
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>344</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>523</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -6627,17 +4588,13 @@
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>346</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>701</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D194" s="4"/>
       <c r="E194" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>701</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -6647,11 +4604,9 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>346</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>677</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D195" s="4"/>
       <c r="E195" s="2"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
@@ -6662,17 +4617,12 @@
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>347</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>678</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -6682,17 +4632,12 @@
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>349</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>699</v>
+        <v>179</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>700</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -6702,20 +4647,12 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>350</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="F198" t="s">
-        <v>445</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>680</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -6725,16 +4662,10 @@
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>352</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F199" t="s">
-        <v>681</v>
+        <v>287</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -6745,16 +4676,10 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>354</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>355</v>
+        <v>182</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F200" t="s">
-        <v>682</v>
+        <v>288</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
@@ -6765,17 +4690,12 @@
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>356</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>357</v>
+        <v>183</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>683</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -6785,16 +4705,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>358</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>726</v>
+        <v>184</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F202" t="s">
-        <v>684</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
@@ -6805,40 +4719,28 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>359</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="F203" t="s">
-        <v>445</v>
-      </c>
-      <c r="G203" t="s">
-        <v>445</v>
-      </c>
-      <c r="H203" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="I203" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="J203" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="K203" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="L203" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="M203" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="N203" t="s">
-        <v>445</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
@@ -6849,17 +4751,12 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>361</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F204" s="2" t="s">
-        <v>687</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -6869,17 +4766,12 @@
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>363</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>364</v>
+        <v>187</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>689</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -6889,17 +4781,12 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>365</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F206" s="2" t="s">
-        <v>690</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -6909,20 +4796,12 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>367</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>368</v>
+        <v>189</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="F207" t="s">
-        <v>445</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>692</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="G207" s="2"/>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -6932,13 +4811,10 @@
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>369</v>
-      </c>
-      <c r="D208" s="1">
-        <v>380519948397</v>
+        <v>190</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>709</v>
+        <v>394</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6949,32 +4825,26 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>378</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>694</v>
+        <v>195</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="F209" t="s">
-        <v>445</v>
+        <v>386</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>730</v>
+        <v>411</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>729</v>
+        <v>410</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>731</v>
+        <v>412</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>732</v>
+        <v>413</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,17 +4855,12 @@
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>374</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>702</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -7005,17 +4870,12 @@
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>372</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>373</v>
+        <v>192</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>695</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -7025,77 +4885,52 @@
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>370</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>371</v>
+        <v>191</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>651</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
-        <v>379</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>703</v>
+        <v>196</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="F215" s="2" t="s">
-        <v>703</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
-        <v>385</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>386</v>
+        <v>197</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F216" s="2" t="s">
-        <v>386</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
-        <v>219</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>696</v>
+        <v>111</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>707</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>708</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="D218" s="4"/>
       <c r="E218" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="F218" s="2" t="s">
-        <v>708</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>710</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>711</v>
+        <v>395</v>
       </c>
       <c r="E219" t="s">
-        <v>711</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="411">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -705,12 +705,6 @@
     <t>380519942587;50</t>
   </si>
   <si>
-    <t>380204471288;50</t>
-  </si>
-  <si>
-    <t>380519943434;50</t>
-  </si>
-  <si>
     <t>380519940928;50</t>
   </si>
   <si>
@@ -762,9 +756,6 @@
     <t>380519943698;50</t>
   </si>
   <si>
-    <t>380519943694;50</t>
-  </si>
-  <si>
     <t>380519945340;50</t>
   </si>
   <si>
@@ -810,9 +801,6 @@
     <t>380519948395;20</t>
   </si>
   <si>
-    <t>380519947481;5</t>
-  </si>
-  <si>
     <t>380519948883;49</t>
   </si>
   <si>
@@ -828,18 +816,12 @@
     <t>380519944937;50</t>
   </si>
   <si>
-    <t>380519943696;50</t>
-  </si>
-  <si>
     <t>380519943703;50</t>
   </si>
   <si>
     <t>380988135568;70</t>
   </si>
   <si>
-    <t>380519947478;20</t>
-  </si>
-  <si>
     <t>380519947480;20</t>
   </si>
   <si>
@@ -1053,18 +1035,12 @@
     <t>380519945347;50</t>
   </si>
   <si>
-    <t>380519943701;28</t>
-  </si>
-  <si>
     <t>380519943700;50</t>
   </si>
   <si>
     <t>380685816720;50</t>
   </si>
   <si>
-    <t>380519940888;18</t>
-  </si>
-  <si>
     <t>380519943704;50</t>
   </si>
   <si>
@@ -1134,9 +1110,6 @@
     <t>380519948388;20</t>
   </si>
   <si>
-    <t>380519948388;19</t>
-  </si>
-  <si>
     <t>380681891284;70</t>
   </si>
   <si>
@@ -1194,9 +1167,6 @@
     <t>380955132136;50</t>
   </si>
   <si>
-    <t>38‎0661663082;40</t>
-  </si>
-  <si>
     <t>Усач О.О.</t>
   </si>
   <si>
@@ -1212,9 +1182,6 @@
     <t>380519946062;50</t>
   </si>
   <si>
-    <t>380971960821;75</t>
-  </si>
-  <si>
     <t>380204451801;80</t>
   </si>
   <si>
@@ -1261,6 +1228,30 @@
   </si>
   <si>
     <t>380966558607;50</t>
+  </si>
+  <si>
+    <t>380984291290;50</t>
+  </si>
+  <si>
+    <t>38‎0985954981;50</t>
+  </si>
+  <si>
+    <t>380983389176;50</t>
+  </si>
+  <si>
+    <t>380689382526;50</t>
+  </si>
+  <si>
+    <t>380984206369;50</t>
+  </si>
+  <si>
+    <t>380984292461;50</t>
+  </si>
+  <si>
+    <t>380984289729;155</t>
+  </si>
+  <si>
+    <t>HomeNET #68038 100грн</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O219"/>
+  <dimension ref="A1:O220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,7 +1891,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1945,7 +1936,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -2081,11 +2072,11 @@
         <v>30</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2100,7 +2091,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2111,11 +2102,11 @@
         <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>410</v>
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2126,11 +2117,11 @@
         <v>32</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2141,10 +2132,10 @@
         <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2155,11 +2146,11 @@
         <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2170,11 +2161,11 @@
         <v>35</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2185,11 +2176,11 @@
         <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2200,11 +2191,11 @@
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2215,11 +2206,11 @@
         <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2230,11 +2221,11 @@
         <v>38</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2246,10 +2237,10 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2260,7 +2251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2271,22 +2262,10 @@
         <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45" t="s">
-        <v>234</v>
-      </c>
-      <c r="J45" t="s">
-        <v>234</v>
-      </c>
-      <c r="K45" t="s">
-        <v>234</v>
-      </c>
-      <c r="L45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2297,11 +2276,11 @@
         <v>42</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2312,11 +2291,11 @@
         <v>43</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2327,11 +2306,11 @@
         <v>44</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2342,19 +2321,10 @@
         <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I49" t="s">
-        <v>234</v>
-      </c>
-      <c r="J49" t="s">
-        <v>234</v>
-      </c>
-      <c r="K49" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2365,11 +2335,11 @@
         <v>45</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2380,11 +2350,11 @@
         <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2395,11 +2365,11 @@
         <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2410,11 +2380,11 @@
         <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2425,11 +2395,11 @@
         <v>48</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2440,11 +2410,11 @@
         <v>49</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>247</v>
+        <v>406</v>
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2455,11 +2425,11 @@
         <v>50</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2470,11 +2440,11 @@
         <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2485,11 +2455,11 @@
         <v>52</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2500,11 +2470,11 @@
         <v>53</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2515,10 +2485,10 @@
         <v>54</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2529,11 +2499,11 @@
         <v>55</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2544,16 +2514,11 @@
         <v>56</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I62" t="s">
-        <v>234</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2564,11 +2529,11 @@
         <v>57</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2579,19 +2544,10 @@
         <v>58</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I64" t="s">
-        <v>234</v>
-      </c>
-      <c r="J64" t="s">
-        <v>234</v>
-      </c>
-      <c r="K64" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2602,19 +2558,10 @@
         <v>59</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I65" t="s">
-        <v>234</v>
-      </c>
-      <c r="J65" t="s">
-        <v>234</v>
-      </c>
-      <c r="K65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2625,11 +2572,11 @@
         <v>60</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2640,11 +2587,11 @@
         <v>61</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2655,11 +2602,11 @@
         <v>62</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2670,11 +2617,11 @@
         <v>63</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2685,11 +2632,11 @@
         <v>63</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2700,11 +2647,11 @@
         <v>64</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2715,11 +2662,11 @@
         <v>65</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2730,11 +2677,11 @@
         <v>66</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2745,11 +2692,11 @@
         <v>67</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2760,11 +2707,11 @@
         <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2775,19 +2722,10 @@
         <v>69</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I76" t="s">
-        <v>234</v>
-      </c>
-      <c r="J76" t="s">
-        <v>234</v>
-      </c>
-      <c r="K76" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2798,11 +2736,11 @@
         <v>70</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2813,11 +2751,11 @@
         <v>71</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>269</v>
+        <v>407</v>
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2828,11 +2766,11 @@
         <v>72</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2843,11 +2781,11 @@
         <v>73</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2858,19 +2796,10 @@
         <v>74</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I81" t="s">
-        <v>234</v>
-      </c>
-      <c r="J81" t="s">
-        <v>234</v>
-      </c>
-      <c r="K81" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2881,10 +2810,10 @@
         <v>75</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2895,10 +2824,10 @@
         <v>76</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2910,10 +2839,10 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2924,11 +2853,11 @@
         <v>78</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2939,11 +2868,11 @@
         <v>79</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2954,11 +2883,11 @@
         <v>80</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2969,10 +2898,10 @@
         <v>81</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2983,10 +2912,10 @@
         <v>82</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2997,11 +2926,11 @@
         <v>83</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3012,11 +2941,11 @@
         <v>84</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3027,11 +2956,11 @@
         <v>85</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3042,11 +2971,11 @@
         <v>85</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3057,11 +2986,11 @@
         <v>153</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3072,11 +3001,11 @@
         <v>86</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3087,7 +3016,7 @@
         <v>86</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F96" s="2"/>
     </row>
@@ -3102,7 +3031,7 @@
         <v>87</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F97" s="2"/>
     </row>
@@ -3118,7 +3047,7 @@
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3132,7 +3061,7 @@
         <v>89</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F99" s="2"/>
     </row>
@@ -3147,7 +3076,7 @@
         <v>89</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F100" s="2"/>
     </row>
@@ -3162,7 +3091,7 @@
         <v>90</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F101" s="2"/>
     </row>
@@ -3177,7 +3106,7 @@
         <v>91</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F102" s="2"/>
     </row>
@@ -3192,7 +3121,7 @@
         <v>92</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F103" s="2"/>
     </row>
@@ -3207,7 +3136,7 @@
         <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G104" s="2"/>
     </row>
@@ -3222,7 +3151,7 @@
         <v>94</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F105" s="2"/>
     </row>
@@ -3237,7 +3166,7 @@
         <v>94</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F106" s="2"/>
     </row>
@@ -3252,7 +3181,7 @@
         <v>95</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F107" s="2"/>
     </row>
@@ -3267,7 +3196,7 @@
         <v>96</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F108" s="2"/>
     </row>
@@ -3282,7 +3211,7 @@
         <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F109" s="2"/>
     </row>
@@ -3297,7 +3226,7 @@
         <v>98</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F110" s="2"/>
     </row>
@@ -3313,7 +3242,7 @@
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F111" s="2"/>
     </row>
@@ -3328,7 +3257,7 @@
         <v>100</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F112" s="2"/>
     </row>
@@ -3343,7 +3272,7 @@
         <v>101</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F113" s="2"/>
     </row>
@@ -3358,7 +3287,7 @@
         <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F114" s="2"/>
     </row>
@@ -3373,7 +3302,7 @@
         <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F115" s="2"/>
     </row>
@@ -3389,7 +3318,7 @@
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F116" s="2"/>
     </row>
@@ -3404,7 +3333,7 @@
         <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G117" s="2"/>
     </row>
@@ -3419,7 +3348,7 @@
         <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F118" s="2"/>
     </row>
@@ -3434,7 +3363,7 @@
         <v>107</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F119" s="2"/>
     </row>
@@ -3449,7 +3378,7 @@
         <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F120" s="2"/>
     </row>
@@ -3464,7 +3393,7 @@
         <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F121" s="2"/>
     </row>
@@ -3480,7 +3409,7 @@
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="I122" s="2"/>
     </row>
@@ -3494,7 +3423,9 @@
       <c r="C123" t="s">
         <v>112</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -3507,7 +3438,7 @@
         <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F124" s="2"/>
     </row>
@@ -3522,7 +3453,7 @@
         <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F125" s="2"/>
     </row>
@@ -3537,7 +3468,7 @@
         <v>115</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H126" s="2"/>
     </row>
@@ -3552,7 +3483,7 @@
         <v>115</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F127" s="2"/>
     </row>
@@ -3567,7 +3498,7 @@
         <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F128" s="2"/>
     </row>
@@ -3582,7 +3513,7 @@
         <v>117</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F129" s="2"/>
     </row>
@@ -3597,7 +3528,7 @@
         <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F130" s="2"/>
     </row>
@@ -3612,14 +3543,9 @@
         <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="I131" t="s">
-        <v>234</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>347</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -3656,7 +3582,7 @@
         <v>121</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F134" s="2"/>
     </row>
@@ -3671,7 +3597,7 @@
         <v>121</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F135" s="2"/>
     </row>
@@ -3687,7 +3613,7 @@
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="2" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -3701,7 +3627,7 @@
         <v>122</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F137" s="2"/>
     </row>
@@ -3716,7 +3642,7 @@
         <v>194</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F138" s="2"/>
     </row>
@@ -3731,7 +3657,7 @@
         <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F139" s="2"/>
     </row>
@@ -3746,7 +3672,7 @@
         <v>124</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F140" s="2"/>
     </row>
@@ -3761,7 +3687,7 @@
         <v>125</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F141" s="2"/>
     </row>
@@ -3776,7 +3702,7 @@
         <v>126</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F142" s="2"/>
     </row>
@@ -3791,7 +3717,7 @@
         <v>127</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F143" s="2"/>
     </row>
@@ -3806,7 +3732,7 @@
         <v>128</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F144" s="2"/>
     </row>
@@ -3821,7 +3747,7 @@
         <v>129</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F145" s="2"/>
     </row>
@@ -3836,7 +3762,7 @@
         <v>130</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F146" s="2"/>
     </row>
@@ -3852,7 +3778,7 @@
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="2" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="F147" s="2"/>
     </row>
@@ -3867,7 +3793,7 @@
         <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F148" s="2"/>
     </row>
@@ -3882,7 +3808,7 @@
         <v>133</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F149" s="2"/>
     </row>
@@ -3897,7 +3823,7 @@
         <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F150" s="2"/>
     </row>
@@ -3912,7 +3838,7 @@
         <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -3926,7 +3852,7 @@
         <v>136</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F152" s="2"/>
     </row>
@@ -3941,7 +3867,7 @@
         <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F153" s="2"/>
     </row>
@@ -3956,7 +3882,7 @@
         <v>138</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F154" s="2"/>
     </row>
@@ -3971,7 +3897,7 @@
         <v>138</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F155" s="2"/>
     </row>
@@ -3986,7 +3912,7 @@
         <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F156" s="2"/>
     </row>
@@ -4001,7 +3927,7 @@
         <v>140</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F157" s="2"/>
     </row>
@@ -4016,7 +3942,7 @@
         <v>141</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H158" s="2"/>
     </row>
@@ -4031,7 +3957,7 @@
         <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F159" s="2"/>
     </row>
@@ -4046,7 +3972,7 @@
         <v>143</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F160" s="2"/>
     </row>
@@ -4061,7 +3987,7 @@
         <v>144</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F161" s="2"/>
     </row>
@@ -4076,7 +4002,7 @@
         <v>145</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F162" s="2"/>
     </row>
@@ -4091,13 +4017,7 @@
         <v>146</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I163" t="s">
-        <v>234</v>
-      </c>
-      <c r="J163" t="s">
-        <v>234</v>
+        <v>358</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -4111,11 +4031,9 @@
         <v>147</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="I164" s="2"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -4128,7 +4046,7 @@
         <v>148</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F165" s="2"/>
     </row>
@@ -4143,7 +4061,7 @@
         <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F166" s="2"/>
     </row>
@@ -4158,7 +4076,7 @@
         <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F167" s="2"/>
     </row>
@@ -4173,7 +4091,7 @@
         <v>151</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F168" s="2"/>
     </row>
@@ -4188,7 +4106,7 @@
         <v>152</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F169" s="2"/>
     </row>
@@ -4203,7 +4121,7 @@
         <v>154</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F170" s="2"/>
     </row>
@@ -4218,7 +4136,7 @@
         <v>155</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F171" s="2"/>
     </row>
@@ -4233,7 +4151,7 @@
         <v>156</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -4259,7 +4177,7 @@
         <v>157</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F174" s="2"/>
     </row>
@@ -4274,7 +4192,7 @@
         <v>158</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F175" s="2"/>
     </row>
@@ -4290,28 +4208,10 @@
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I176" t="s">
-        <v>234</v>
-      </c>
-      <c r="J176" t="s">
-        <v>234</v>
-      </c>
-      <c r="K176" t="s">
-        <v>234</v>
-      </c>
-      <c r="L176" t="s">
-        <v>234</v>
-      </c>
-      <c r="M176" t="s">
-        <v>234</v>
-      </c>
-      <c r="N176" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="O176" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -4325,7 +4225,7 @@
         <v>160</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F177" s="2"/>
     </row>
@@ -4340,7 +4240,7 @@
         <v>161</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F178" s="2"/>
     </row>
@@ -4355,7 +4255,7 @@
         <v>162</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H179" s="2"/>
     </row>
@@ -4370,7 +4270,7 @@
         <v>163</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H180" s="2"/>
     </row>
@@ -4385,7 +4285,7 @@
         <v>164</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F181" s="2"/>
     </row>
@@ -4400,7 +4300,7 @@
         <v>165</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F182" s="2"/>
     </row>
@@ -4415,20 +4315,9 @@
         <v>166</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I183" t="s">
-        <v>234</v>
-      </c>
-      <c r="J183" t="s">
-        <v>234</v>
-      </c>
-      <c r="K183" t="s">
-        <v>234</v>
-      </c>
-      <c r="L183" s="2" t="s">
-        <v>371</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="L183" s="2"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -4441,7 +4330,7 @@
         <v>167</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F184" s="2"/>
     </row>
@@ -4456,7 +4345,7 @@
         <v>168</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F185" s="2"/>
     </row>
@@ -4471,7 +4360,7 @@
         <v>169</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F186" s="2"/>
     </row>
@@ -4486,7 +4375,7 @@
         <v>170</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F187" s="2"/>
     </row>
@@ -4501,7 +4390,7 @@
         <v>171</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F188" s="2"/>
     </row>
@@ -4516,7 +4405,7 @@
         <v>172</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F189" s="2"/>
     </row>
@@ -4531,7 +4420,7 @@
         <v>173</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F190" s="2"/>
     </row>
@@ -4546,7 +4435,7 @@
         <v>174</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F191" s="2"/>
     </row>
@@ -4561,11 +4450,11 @@
         <v>175</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4576,11 +4465,11 @@
         <v>176</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4592,11 +4481,11 @@
       </c>
       <c r="D194" s="4"/>
       <c r="E194" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4609,7 +4498,7 @@
       <c r="D195" s="4"/>
       <c r="E195" s="2"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4620,11 +4509,11 @@
         <v>178</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -4635,11 +4524,11 @@
         <v>179</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -4650,11 +4539,11 @@
         <v>180</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G198" s="2"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -4665,10 +4554,10 @@
         <v>181</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -4679,10 +4568,10 @@
         <v>182</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -4693,11 +4582,11 @@
         <v>183</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -4708,10 +4597,10 @@
         <v>184</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -4722,28 +4611,10 @@
         <v>185</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I203" t="s">
-        <v>234</v>
-      </c>
-      <c r="J203" t="s">
-        <v>234</v>
-      </c>
-      <c r="K203" t="s">
-        <v>234</v>
-      </c>
-      <c r="L203" t="s">
-        <v>234</v>
-      </c>
-      <c r="M203" t="s">
-        <v>234</v>
-      </c>
-      <c r="N203" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -4754,11 +4625,11 @@
         <v>186</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -4769,11 +4640,11 @@
         <v>187</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -4784,11 +4655,11 @@
         <v>188</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -4799,11 +4670,11 @@
         <v>189</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G207" s="2"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -4814,7 +4685,7 @@
         <v>190</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4828,23 +4699,23 @@
         <v>195</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4858,7 +4729,7 @@
         <v>193</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F212" s="2"/>
     </row>
@@ -4873,7 +4744,7 @@
         <v>192</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F213" s="2"/>
     </row>
@@ -4888,7 +4759,7 @@
         <v>191</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F214" s="2"/>
     </row>
@@ -4897,7 +4768,7 @@
         <v>196</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F215" s="2"/>
     </row>
@@ -4917,20 +4788,28 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D218" s="4"/>
       <c r="E218" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="E219" t="s">
-        <v>396</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>382</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/Internet_tt.xlsx
+++ b/Internet_tt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="412">
   <si>
     <t>Загальна кількість комплектів</t>
   </si>
@@ -1252,6 +1252,9 @@
   </si>
   <si>
     <t>HomeNET #68038 100грн</t>
+  </si>
+  <si>
+    <t>Закрита</t>
   </si>
 </sst>
 </file>
@@ -1270,12 +1273,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1290,12 +1305,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1578,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,6 +1625,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="E1" t="s">
         <v>226</v>
       </c>
@@ -1715,35 +1740,41 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="9" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1820,64 +1851,76 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1940,20 +1983,23 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="24" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>1</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2015,21 +2061,24 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2240,15 +2289,18 @@
         <v>394</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="44" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>1</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>40</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,49 +2347,58 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="48" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="5">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
+    <row r="50" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="11"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -2474,17 +2535,20 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+    <row r="60" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>1</v>
+      </c>
+      <c r="B60" s="9">
+        <v>1</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="10">
+        <v>2</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2576,20 +2640,23 @@
       </c>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
+    <row r="67" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>1</v>
+      </c>
+      <c r="B67" s="9">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="10">
+        <v>2</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -2606,35 +2673,41 @@
       </c>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
+    <row r="69" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>1</v>
+      </c>
+      <c r="B69" s="9">
+        <v>1</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="10">
+        <v>2</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>1</v>
+      </c>
+      <c r="B70" s="9">
         <v>2</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="10">
+        <v>2</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="11"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -3035,18 +3108,20 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-      <c r="C98" t="s">
+    <row r="98" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>1</v>
+      </c>
+      <c r="B98" s="5">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D98" s="4"/>
-      <c r="E98" s="2" t="s">
+      <c r="D98" s="8">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>389</v>
       </c>
     </row>
@@ -3215,20 +3290,23 @@
       </c>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110" t="s">
+    <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
+        <v>1</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="D110" s="6">
+        <v>1</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F110" s="2"/>
+      <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -3487,20 +3565,23 @@
       </c>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128" t="s">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>1</v>
+      </c>
+      <c r="B128" s="9">
+        <v>1</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="D128" s="10">
+        <v>2</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F128" s="2"/>
+      <c r="F128" s="11"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -3517,20 +3598,23 @@
       </c>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130" t="s">
+    <row r="130" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>1</v>
+      </c>
+      <c r="B130" s="9">
+        <v>1</v>
+      </c>
+      <c r="C130" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="D130" s="10">
+        <v>2</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F130" s="2"/>
+      <c r="F130" s="11"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -3559,17 +3643,20 @@
       </c>
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1</v>
-      </c>
-      <c r="B133">
+    <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>1</v>
+      </c>
+      <c r="B133" s="5">
         <v>2</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -3616,20 +3703,23 @@
         <v>390</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137" t="s">
+    <row r="137" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
+        <v>1</v>
+      </c>
+      <c r="B137" s="9">
+        <v>1</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="D137" s="10">
+        <v>2</v>
+      </c>
+      <c r="E137" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="F137" s="2"/>
+      <c r="F137" s="11"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -3691,50 +3781,59 @@
       </c>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142" t="s">
+    <row r="142" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
+        <v>1</v>
+      </c>
+      <c r="B142" s="9">
+        <v>1</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="D142" s="10">
+        <v>2</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>1</v>
+      </c>
+      <c r="B143" s="5">
+        <v>1</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="D143" s="6">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1</v>
-      </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="F143" s="7"/>
+    </row>
+    <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
+        <v>1</v>
+      </c>
+      <c r="B144" s="5">
+        <v>1</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F144" s="2"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -3751,20 +3850,23 @@
       </c>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
+    <row r="146" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
+        <v>1</v>
+      </c>
+      <c r="B146" s="5">
+        <v>1</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="D146" s="6">
+        <v>1</v>
+      </c>
+      <c r="E146" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F146" s="2"/>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -3827,17 +3929,20 @@
       </c>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151" t="s">
+    <row r="151" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>1</v>
+      </c>
+      <c r="B151" s="5">
+        <v>1</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="D151" s="6">
+        <v>1</v>
+      </c>
+      <c r="E151" s="7" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4020,20 +4125,23 @@
         <v>358</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
+    <row r="164" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
+        <v>1</v>
+      </c>
+      <c r="B164" s="5">
+        <v>1</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="D164" s="6">
+        <v>1</v>
+      </c>
+      <c r="E164" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="I164" s="2"/>
+      <c r="I164" s="7"/>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -4095,20 +4203,23 @@
       </c>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
+    <row r="169" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
+        <v>1</v>
+      </c>
+      <c r="B169" s="9">
+        <v>1</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="D169" s="10">
+        <v>2</v>
+      </c>
+      <c r="E169" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="F169" s="2"/>
+      <c r="F169" s="11"/>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -4154,32 +4265,38 @@
         <v>329</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1</v>
-      </c>
-      <c r="B173">
+    <row r="173" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="9">
+        <v>1</v>
+      </c>
+      <c r="B173" s="9">
         <v>2</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E173" s="2"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="D173" s="10">
+        <v>2</v>
+      </c>
+      <c r="E173" s="11"/>
+    </row>
+    <row r="174" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9">
+        <v>1</v>
+      </c>
+      <c r="B174" s="9">
+        <v>1</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="D174" s="10">
+        <v>2</v>
+      </c>
+      <c r="E174" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F174" s="2"/>
+      <c r="F174" s="11"/>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -4629,20 +4746,23 @@
       </c>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-      <c r="C205" t="s">
+    <row r="205" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
+        <v>1</v>
+      </c>
+      <c r="B205" s="5">
+        <v>1</v>
+      </c>
+      <c r="C205" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="D205" s="6">
+        <v>1</v>
+      </c>
+      <c r="E205" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F205" s="2"/>
+      <c r="F205" s="7"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -4688,17 +4808,20 @@
         <v>384</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1</v>
-      </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="C209" t="s">
+    <row r="209" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <v>1</v>
+      </c>
+      <c r="B209" s="5">
+        <v>1</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="D209" s="6">
+        <v>1</v>
+      </c>
+      <c r="E209" s="7" t="s">
         <v>377</v>
       </c>
     </row>
